--- a/MemSTATS_dataset.xlsx
+++ b/MemSTATS_dataset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10814"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleksandrovaaa/NIH_work/MemSTATS_benchmark/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleksandrovaaa/PycharmProjects/MemSTATS_benchmark/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A179D75E-D975-C942-804B-42C7FF8F4763}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4993035-08D0-8043-98E2-5AD054DCD5E5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="25360" windowHeight="14000" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6660" yWindow="2800" windowWidth="25360" windowHeight="14000" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="12-Aug-18" sheetId="2" r:id="rId1"/>
@@ -18,11 +18,13 @@
     <sheet name="12-Aug-18-quaternary" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'12-Aug-18'!$A$1:$DI$112</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'12-Aug-18-internal'!$A$1:$N$140</definedName>
     <definedName name="review_benchmark_set_12_Aug_18_internal" localSheetId="1">'12-Aug-18-internal'!$A$1:$N$140</definedName>
     <definedName name="review_benchmark_set_12_Aug_18_quaternary" localSheetId="2">'12-Aug-18-quaternary'!$A$1:$P$80</definedName>
     <definedName name="review_benchmark_set_with_chains" localSheetId="0">'12-Aug-18'!$A$1:$D$112</definedName>
   </definedNames>
-  <calcPr calcId="140000" iterateDelta="1E-4"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -1373,9 +1375,6 @@
   </si>
   <si>
     <t>3rvy</t>
-  </si>
-  <si>
-    <t>(A_1001-2221,B_1001-2221,C_1001-2221,D_1001-2221)</t>
   </si>
   <si>
     <t>NavAb voltage-gated sodium channel</t>
@@ -2857,6 +2856,9 @@
   </si>
   <si>
     <t>Repeat-Topology</t>
+  </si>
+  <si>
+    <t>(A_1001-1221,B_1001-2221,C_1001-1221,D_1001-2221)</t>
   </si>
 </sst>
 </file>
@@ -3357,8 +3359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DI113"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="M68" sqref="M68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3401,7 +3403,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>8</v>
@@ -3416,7 +3418,7 @@
         <v>11</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>12</v>
@@ -4698,7 +4700,7 @@
       <c r="DH9" s="8"/>
       <c r="DI9" s="8"/>
     </row>
-    <row r="10" spans="1:113" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:113" s="12" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>64</v>
       </c>
@@ -5431,7 +5433,7 @@
       <c r="DH14" s="17"/>
       <c r="DI14" s="17"/>
     </row>
-    <row r="15" spans="1:113" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:113" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>105</v>
       </c>
@@ -7342,7 +7344,7 @@
       <c r="DH27" s="8"/>
       <c r="DI27" s="8"/>
     </row>
-    <row r="28" spans="1:113" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:113" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>189</v>
       </c>
@@ -8663,7 +8665,7 @@
       <c r="DH36" s="11"/>
       <c r="DI36" s="11"/>
     </row>
-    <row r="37" spans="1:113" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:113" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
         <v>250</v>
       </c>
@@ -8810,7 +8812,7 @@
       <c r="DH37" s="8"/>
       <c r="DI37" s="8"/>
     </row>
-    <row r="38" spans="1:113" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:113" s="20" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
         <v>257</v>
       </c>
@@ -8957,7 +8959,7 @@
       <c r="DH38" s="19"/>
       <c r="DI38" s="19"/>
     </row>
-    <row r="39" spans="1:113" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:113" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
         <v>263</v>
       </c>
@@ -9104,7 +9106,7 @@
       <c r="DH39" s="8"/>
       <c r="DI39" s="8"/>
     </row>
-    <row r="40" spans="1:113" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:113" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
         <v>269</v>
       </c>
@@ -9251,7 +9253,7 @@
       <c r="DH40" s="8"/>
       <c r="DI40" s="8"/>
     </row>
-    <row r="41" spans="1:113" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:113" s="22" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
         <v>274</v>
       </c>
@@ -9398,7 +9400,7 @@
       <c r="DH41" s="21"/>
       <c r="DI41" s="21"/>
     </row>
-    <row r="42" spans="1:113" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:113" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
         <v>283</v>
       </c>
@@ -9545,7 +9547,7 @@
       <c r="DH42" s="8"/>
       <c r="DI42" s="8"/>
     </row>
-    <row r="43" spans="1:113" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:113" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
         <v>289</v>
       </c>
@@ -9692,7 +9694,7 @@
       <c r="DH43" s="8"/>
       <c r="DI43" s="8"/>
     </row>
-    <row r="44" spans="1:113" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:113" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
         <v>295</v>
       </c>
@@ -9839,7 +9841,7 @@
       <c r="DH44" s="8"/>
       <c r="DI44" s="8"/>
     </row>
-    <row r="45" spans="1:113" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:113" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
         <v>301</v>
       </c>
@@ -9986,7 +9988,7 @@
       <c r="DH45" s="8"/>
       <c r="DI45" s="8"/>
     </row>
-    <row r="46" spans="1:113" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:113" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
         <v>309</v>
       </c>
@@ -10133,7 +10135,7 @@
       <c r="DH46" s="8"/>
       <c r="DI46" s="8"/>
     </row>
-    <row r="47" spans="1:113" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:113" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
         <v>316</v>
       </c>
@@ -10280,7 +10282,7 @@
       <c r="DH47" s="8"/>
       <c r="DI47" s="8"/>
     </row>
-    <row r="48" spans="1:113" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:113" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
         <v>321</v>
       </c>
@@ -10427,7 +10429,7 @@
       <c r="DH48" s="8"/>
       <c r="DI48" s="8"/>
     </row>
-    <row r="49" spans="1:113" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:113" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
         <v>327</v>
       </c>
@@ -10574,7 +10576,7 @@
       <c r="DH49" s="8"/>
       <c r="DI49" s="8"/>
     </row>
-    <row r="50" spans="1:113" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:113" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
         <v>332</v>
       </c>
@@ -10721,7 +10723,7 @@
       <c r="DH50" s="8"/>
       <c r="DI50" s="8"/>
     </row>
-    <row r="51" spans="1:113" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:113" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
         <v>342</v>
       </c>
@@ -10868,7 +10870,7 @@
       <c r="DH51" s="8"/>
       <c r="DI51" s="8"/>
     </row>
-    <row r="52" spans="1:113" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:113" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
         <v>349</v>
       </c>
@@ -11015,7 +11017,7 @@
       <c r="DH52" s="8"/>
       <c r="DI52" s="8"/>
     </row>
-    <row r="53" spans="1:113" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:113" s="12" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
         <v>354</v>
       </c>
@@ -11162,7 +11164,7 @@
       <c r="DH53" s="11"/>
       <c r="DI53" s="11"/>
     </row>
-    <row r="54" spans="1:113" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:113" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
         <v>360</v>
       </c>
@@ -11309,7 +11311,7 @@
       <c r="DH54" s="8"/>
       <c r="DI54" s="8"/>
     </row>
-    <row r="55" spans="1:113" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:113" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
         <v>366</v>
       </c>
@@ -11456,7 +11458,7 @@
       <c r="DH55" s="8"/>
       <c r="DI55" s="8"/>
     </row>
-    <row r="56" spans="1:113" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:113" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
         <v>373</v>
       </c>
@@ -11603,7 +11605,7 @@
       <c r="DH56" s="8"/>
       <c r="DI56" s="8"/>
     </row>
-    <row r="57" spans="1:113" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:113" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
         <v>379</v>
       </c>
@@ -11750,7 +11752,7 @@
       <c r="DH57" s="8"/>
       <c r="DI57" s="8"/>
     </row>
-    <row r="58" spans="1:113" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:113" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
         <v>385</v>
       </c>
@@ -11897,7 +11899,7 @@
       <c r="DH58" s="8"/>
       <c r="DI58" s="8"/>
     </row>
-    <row r="59" spans="1:113" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:113" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
         <v>391</v>
       </c>
@@ -12044,7 +12046,7 @@
       <c r="DH59" s="3"/>
       <c r="DI59" s="3"/>
     </row>
-    <row r="60" spans="1:113" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:113" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
         <v>399</v>
       </c>
@@ -12191,7 +12193,7 @@
       <c r="DH60" s="8"/>
       <c r="DI60" s="8"/>
     </row>
-    <row r="61" spans="1:113" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:113" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
         <v>406</v>
       </c>
@@ -12336,7 +12338,7 @@
       <c r="DH61" s="8"/>
       <c r="DI61" s="8"/>
     </row>
-    <row r="62" spans="1:113" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:113" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
         <v>411</v>
       </c>
@@ -12483,7 +12485,7 @@
       <c r="DH62" s="8"/>
       <c r="DI62" s="8"/>
     </row>
-    <row r="63" spans="1:113" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:113" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
         <v>417</v>
       </c>
@@ -12630,7 +12632,7 @@
       <c r="DH63" s="8"/>
       <c r="DI63" s="8"/>
     </row>
-    <row r="64" spans="1:113" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:113" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
         <v>423</v>
       </c>
@@ -12777,7 +12779,7 @@
       <c r="DH64" s="8"/>
       <c r="DI64" s="8"/>
     </row>
-    <row r="65" spans="1:113" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:113" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
         <v>431</v>
       </c>
@@ -12922,7 +12924,7 @@
       <c r="DH65" s="8"/>
       <c r="DI65" s="8"/>
     </row>
-    <row r="66" spans="1:113" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:113" s="18" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
         <v>438</v>
       </c>
@@ -13067,7 +13069,7 @@
       <c r="DH66" s="17"/>
       <c r="DI66" s="17"/>
     </row>
-    <row r="67" spans="1:113" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:113" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
         <v>444</v>
       </c>
@@ -13105,16 +13107,16 @@
         <v>20</v>
       </c>
       <c r="M67" s="6" t="s">
-        <v>447</v>
+        <v>933</v>
       </c>
       <c r="N67" s="7" t="s">
         <v>31</v>
       </c>
       <c r="O67" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="P67" s="9" t="s">
         <v>448</v>
-      </c>
-      <c r="P67" s="9" t="s">
-        <v>449</v>
       </c>
       <c r="Q67" s="8"/>
       <c r="R67" s="8"/>
@@ -13214,15 +13216,15 @@
       <c r="DH67" s="8"/>
       <c r="DI67" s="8"/>
     </row>
-    <row r="68" spans="1:113" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:113" s="12" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="B68" s="6" t="s">
         <v>450</v>
       </c>
-      <c r="B68" s="6" t="s">
+      <c r="C68" s="6" t="s">
         <v>451</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>452</v>
       </c>
       <c r="D68" s="7">
         <v>3.5</v>
@@ -13231,10 +13233,10 @@
         <v>17</v>
       </c>
       <c r="F68" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="G68" s="7" t="s">
         <v>453</v>
-      </c>
-      <c r="G68" s="7" t="s">
-        <v>454</v>
       </c>
       <c r="H68" s="7" t="s">
         <v>67</v>
@@ -13252,16 +13254,16 @@
         <v>71</v>
       </c>
       <c r="M68" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="N68" s="7" t="s">
         <v>73</v>
       </c>
       <c r="O68" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="P68" s="9" t="s">
         <v>456</v>
-      </c>
-      <c r="P68" s="9" t="s">
-        <v>457</v>
       </c>
       <c r="Q68" s="11"/>
       <c r="R68" s="11"/>
@@ -13361,15 +13363,15 @@
       <c r="DH68" s="11"/>
       <c r="DI68" s="11"/>
     </row>
-    <row r="69" spans="1:113" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:113" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="B69" s="6" t="s">
         <v>458</v>
       </c>
-      <c r="B69" s="6" t="s">
+      <c r="C69" s="6" t="s">
         <v>459</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>460</v>
       </c>
       <c r="D69" s="7">
         <v>2.4</v>
@@ -13397,16 +13399,16 @@
         <v>71</v>
       </c>
       <c r="M69" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="N69" s="7" t="s">
         <v>73</v>
       </c>
       <c r="O69" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="P69" s="9" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="Q69" s="8"/>
       <c r="R69" s="8"/>
@@ -13506,15 +13508,15 @@
       <c r="DH69" s="8"/>
       <c r="DI69" s="8"/>
     </row>
-    <row r="70" spans="1:113" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:113" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="B70" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="B70" s="6" t="s">
+      <c r="C70" s="6" t="s">
         <v>464</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>465</v>
       </c>
       <c r="D70" s="7">
         <v>3.3</v>
@@ -13544,16 +13546,16 @@
         <v>20</v>
       </c>
       <c r="M70" s="6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="N70" s="7" t="s">
         <v>31</v>
       </c>
       <c r="O70" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="P70" s="9" t="s">
         <v>467</v>
-      </c>
-      <c r="P70" s="9" t="s">
-        <v>468</v>
       </c>
       <c r="Q70" s="8"/>
       <c r="R70" s="8"/>
@@ -13653,15 +13655,15 @@
       <c r="DH70" s="8"/>
       <c r="DI70" s="8"/>
     </row>
-    <row r="71" spans="1:113" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:113" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="B71" s="6" t="s">
         <v>469</v>
       </c>
-      <c r="B71" s="6" t="s">
+      <c r="C71" s="6" t="s">
         <v>470</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>471</v>
       </c>
       <c r="D71" s="7">
         <v>2.7</v>
@@ -13689,16 +13691,16 @@
         <v>20</v>
       </c>
       <c r="M71" s="6" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="N71" s="7" t="s">
         <v>31</v>
       </c>
       <c r="O71" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="P71" s="9" t="s">
         <v>473</v>
-      </c>
-      <c r="P71" s="9" t="s">
-        <v>474</v>
       </c>
       <c r="Q71" s="8"/>
       <c r="R71" s="8"/>
@@ -13798,15 +13800,15 @@
       <c r="DH71" s="8"/>
       <c r="DI71" s="8"/>
     </row>
-    <row r="72" spans="1:113" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:113" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="C72" s="6" t="s">
         <v>475</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>475</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>476</v>
       </c>
       <c r="D72" s="7">
         <v>2.2999999999999998</v>
@@ -13836,16 +13838,16 @@
         <v>20</v>
       </c>
       <c r="M72" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="N72" s="7" t="s">
         <v>31</v>
       </c>
       <c r="O72" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="P72" s="9" t="s">
         <v>478</v>
-      </c>
-      <c r="P72" s="9" t="s">
-        <v>479</v>
       </c>
       <c r="Q72" s="8"/>
       <c r="R72" s="8"/>
@@ -13945,15 +13947,15 @@
       <c r="DH72" s="8"/>
       <c r="DI72" s="8"/>
     </row>
-    <row r="73" spans="1:113" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:113" s="20" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="B73" s="6" t="s">
         <v>480</v>
       </c>
-      <c r="B73" s="6" t="s">
+      <c r="C73" s="7" t="s">
         <v>481</v>
-      </c>
-      <c r="C73" s="7" t="s">
-        <v>482</v>
       </c>
       <c r="D73" s="7">
         <v>3.9409999999999998</v>
@@ -13981,16 +13983,16 @@
         <v>20</v>
       </c>
       <c r="M73" s="7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="N73" s="7" t="s">
         <v>31</v>
       </c>
       <c r="O73" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="P73" s="9" t="s">
         <v>484</v>
-      </c>
-      <c r="P73" s="9" t="s">
-        <v>485</v>
       </c>
       <c r="Q73" s="19"/>
       <c r="R73" s="19"/>
@@ -14090,15 +14092,15 @@
       <c r="DH73" s="19"/>
       <c r="DI73" s="19"/>
     </row>
-    <row r="74" spans="1:113" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:113" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="B74" s="6" t="s">
         <v>486</v>
       </c>
-      <c r="B74" s="6" t="s">
+      <c r="C74" s="6" t="s">
         <v>487</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>488</v>
       </c>
       <c r="D74" s="7">
         <v>3.5</v>
@@ -14113,7 +14115,7 @@
         <v>18</v>
       </c>
       <c r="H74" s="7" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="I74" s="7" t="s">
         <v>79</v>
@@ -14128,16 +14130,16 @@
         <v>71</v>
       </c>
       <c r="M74" s="6" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="N74" s="7" t="s">
         <v>73</v>
       </c>
       <c r="O74" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="P74" s="9" t="s">
         <v>491</v>
-      </c>
-      <c r="P74" s="9" t="s">
-        <v>492</v>
       </c>
       <c r="Q74" s="8"/>
       <c r="R74" s="8"/>
@@ -14237,15 +14239,15 @@
       <c r="DH74" s="8"/>
       <c r="DI74" s="8"/>
     </row>
-    <row r="75" spans="1:113" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:113" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="B75" s="6" t="s">
         <v>493</v>
       </c>
-      <c r="B75" s="6" t="s">
+      <c r="C75" s="6" t="s">
         <v>494</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>495</v>
       </c>
       <c r="D75" s="7">
         <v>2.99</v>
@@ -14254,7 +14256,7 @@
         <v>17</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G75" s="7" t="s">
         <v>18</v>
@@ -14275,16 +14277,16 @@
         <v>20</v>
       </c>
       <c r="M75" s="6" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="N75" s="7" t="s">
         <v>31</v>
       </c>
       <c r="O75" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="P75" s="9" t="s">
         <v>498</v>
-      </c>
-      <c r="P75" s="9" t="s">
-        <v>499</v>
       </c>
       <c r="Q75" s="8"/>
       <c r="R75" s="8"/>
@@ -14384,15 +14386,15 @@
       <c r="DH75" s="8"/>
       <c r="DI75" s="8"/>
     </row>
-    <row r="76" spans="1:113" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:113" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="B76" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="B76" s="7" t="s">
+      <c r="C76" s="6" t="s">
         <v>501</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>502</v>
       </c>
       <c r="D76" s="7">
         <v>1.9</v>
@@ -14401,7 +14403,7 @@
         <v>394</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G76" s="7" t="s">
         <v>18</v>
@@ -14422,16 +14424,16 @@
         <v>20</v>
       </c>
       <c r="M76" s="6" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="N76" s="7" t="s">
         <v>31</v>
       </c>
       <c r="O76" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="P76" s="9" t="s">
         <v>504</v>
-      </c>
-      <c r="P76" s="9" t="s">
-        <v>505</v>
       </c>
       <c r="Q76" s="8"/>
       <c r="R76" s="8"/>
@@ -14531,15 +14533,15 @@
       <c r="DH76" s="8"/>
       <c r="DI76" s="8"/>
     </row>
-    <row r="77" spans="1:113" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:113" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="B77" s="6" t="s">
         <v>506</v>
       </c>
-      <c r="B77" s="6" t="s">
+      <c r="C77" s="6" t="s">
         <v>507</v>
-      </c>
-      <c r="C77" s="6" t="s">
-        <v>508</v>
       </c>
       <c r="D77" s="7">
         <v>2.5</v>
@@ -14548,7 +14550,7 @@
         <v>17</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G77" s="7"/>
       <c r="H77" s="7">
@@ -14567,16 +14569,16 @@
         <v>20</v>
       </c>
       <c r="M77" s="6" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="N77" s="7" t="s">
         <v>31</v>
       </c>
       <c r="O77" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="P77" s="9" t="s">
         <v>511</v>
-      </c>
-      <c r="P77" s="9" t="s">
-        <v>512</v>
       </c>
       <c r="Q77" s="8"/>
       <c r="R77" s="8"/>
@@ -14676,15 +14678,15 @@
       <c r="DH77" s="8"/>
       <c r="DI77" s="8"/>
     </row>
-    <row r="78" spans="1:113" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:113" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="B78" s="6" t="s">
         <v>506</v>
       </c>
-      <c r="B78" s="6" t="s">
-        <v>507</v>
-      </c>
       <c r="C78" s="6" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D78" s="7">
         <v>2.4</v>
@@ -14693,7 +14695,7 @@
         <v>17</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="G78" s="7"/>
       <c r="H78" s="7">
@@ -14712,16 +14714,16 @@
         <v>20</v>
       </c>
       <c r="M78" s="6" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="N78" s="7" t="s">
         <v>31</v>
       </c>
       <c r="O78" s="6" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="P78" s="9" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="Q78" s="8"/>
       <c r="R78" s="8"/>
@@ -14821,15 +14823,15 @@
       <c r="DH78" s="8"/>
       <c r="DI78" s="8"/>
     </row>
-    <row r="79" spans="1:113" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:113" s="16" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="B79" s="6" t="s">
         <v>517</v>
       </c>
-      <c r="B79" s="6" t="s">
+      <c r="C79" s="6" t="s">
         <v>518</v>
-      </c>
-      <c r="C79" s="6" t="s">
-        <v>519</v>
       </c>
       <c r="D79" s="7">
         <v>3.01</v>
@@ -14838,7 +14840,7 @@
         <v>17</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="G79" s="7">
         <v>1</v>
@@ -14859,16 +14861,16 @@
         <v>20</v>
       </c>
       <c r="M79" s="6" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="N79" s="7" t="s">
         <v>31</v>
       </c>
       <c r="O79" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="P79" s="9" t="s">
         <v>522</v>
-      </c>
-      <c r="P79" s="9" t="s">
-        <v>523</v>
       </c>
       <c r="Q79" s="15"/>
       <c r="R79" s="15"/>
@@ -14968,15 +14970,15 @@
       <c r="DH79" s="15"/>
       <c r="DI79" s="15"/>
     </row>
-    <row r="80" spans="1:113" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:113" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="C80" s="6" t="s">
         <v>524</v>
-      </c>
-      <c r="B80" s="6" t="s">
-        <v>524</v>
-      </c>
-      <c r="C80" s="6" t="s">
-        <v>525</v>
       </c>
       <c r="D80" s="7">
         <v>2.4</v>
@@ -14985,7 +14987,7 @@
         <v>17</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G80" s="7" t="s">
         <v>18</v>
@@ -15006,16 +15008,16 @@
         <v>20</v>
       </c>
       <c r="M80" s="6" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="N80" s="7" t="s">
         <v>31</v>
       </c>
       <c r="O80" s="6" t="s">
+        <v>527</v>
+      </c>
+      <c r="P80" s="9" t="s">
         <v>528</v>
-      </c>
-      <c r="P80" s="9" t="s">
-        <v>529</v>
       </c>
       <c r="Q80" s="8"/>
       <c r="R80" s="8"/>
@@ -15115,15 +15117,15 @@
       <c r="DH80" s="8"/>
       <c r="DI80" s="8"/>
     </row>
-    <row r="81" spans="1:113" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:113" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D81" s="7">
         <v>2.5</v>
@@ -15132,7 +15134,7 @@
         <v>17</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="G81" s="7"/>
       <c r="H81" s="7">
@@ -15151,16 +15153,16 @@
         <v>20</v>
       </c>
       <c r="M81" s="6" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="N81" s="7" t="s">
         <v>31</v>
       </c>
       <c r="O81" s="6" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="P81" s="9" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="Q81" s="8"/>
       <c r="R81" s="8"/>
@@ -15260,15 +15262,15 @@
       <c r="DH81" s="8"/>
       <c r="DI81" s="8"/>
     </row>
-    <row r="82" spans="1:113" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:113" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D82" s="7">
         <v>2.13</v>
@@ -15277,7 +15279,7 @@
         <v>17</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G82" s="7"/>
       <c r="H82" s="7">
@@ -15296,16 +15298,16 @@
         <v>20</v>
       </c>
       <c r="M82" s="6" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="N82" s="7" t="s">
         <v>31</v>
       </c>
       <c r="O82" s="6" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="P82" s="9" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="Q82" s="8"/>
       <c r="R82" s="8"/>
@@ -15405,15 +15407,15 @@
       <c r="DH82" s="8"/>
       <c r="DI82" s="8"/>
     </row>
-    <row r="83" spans="1:113" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:113" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
+        <v>537</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>537</v>
+      </c>
+      <c r="C83" s="6" t="s">
         <v>538</v>
-      </c>
-      <c r="B83" s="6" t="s">
-        <v>538</v>
-      </c>
-      <c r="C83" s="6" t="s">
-        <v>539</v>
       </c>
       <c r="D83" s="7">
         <v>2.1</v>
@@ -15422,13 +15424,13 @@
         <v>17</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G83" s="7" t="s">
         <v>18</v>
       </c>
       <c r="H83" s="7" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="I83" s="7" t="s">
         <v>79</v>
@@ -15443,16 +15445,16 @@
         <v>71</v>
       </c>
       <c r="M83" s="6" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="N83" s="7" t="s">
         <v>73</v>
       </c>
       <c r="O83" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="P83" s="9" t="s">
         <v>543</v>
-      </c>
-      <c r="P83" s="9" t="s">
-        <v>544</v>
       </c>
       <c r="Q83" s="8"/>
       <c r="R83" s="8"/>
@@ -15552,15 +15554,15 @@
       <c r="DH83" s="8"/>
       <c r="DI83" s="8"/>
     </row>
-    <row r="84" spans="1:113" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:113" s="18" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="C84" s="6" t="s">
         <v>545</v>
-      </c>
-      <c r="B84" s="6" t="s">
-        <v>545</v>
-      </c>
-      <c r="C84" s="6" t="s">
-        <v>546</v>
       </c>
       <c r="D84" s="7">
         <v>3.29</v>
@@ -15569,7 +15571,7 @@
         <v>17</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="G84" s="7" t="s">
         <v>18</v>
@@ -15590,16 +15592,16 @@
         <v>20</v>
       </c>
       <c r="M84" s="6" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="N84" s="7" t="s">
         <v>31</v>
       </c>
       <c r="O84" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="P84" s="9" t="s">
         <v>549</v>
-      </c>
-      <c r="P84" s="9" t="s">
-        <v>550</v>
       </c>
       <c r="Q84" s="17"/>
       <c r="R84" s="17"/>
@@ -15699,15 +15701,15 @@
       <c r="DH84" s="17"/>
       <c r="DI84" s="17"/>
     </row>
-    <row r="85" spans="1:113" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:113" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="B85" s="6" t="s">
         <v>551</v>
       </c>
-      <c r="B85" s="6" t="s">
+      <c r="C85" s="6" t="s">
         <v>552</v>
-      </c>
-      <c r="C85" s="6" t="s">
-        <v>553</v>
       </c>
       <c r="D85" s="7">
         <v>2.25</v>
@@ -15716,7 +15718,7 @@
         <v>17</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G85" s="7" t="s">
         <v>18</v>
@@ -15737,16 +15739,16 @@
         <v>20</v>
       </c>
       <c r="M85" s="7" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="N85" s="7" t="s">
         <v>31</v>
       </c>
       <c r="O85" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="P85" s="9" t="s">
         <v>556</v>
-      </c>
-      <c r="P85" s="9" t="s">
-        <v>557</v>
       </c>
       <c r="Q85" s="3"/>
       <c r="R85" s="3"/>
@@ -15846,15 +15848,15 @@
       <c r="DH85" s="3"/>
       <c r="DI85" s="3"/>
     </row>
-    <row r="86" spans="1:113" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:113" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="B86" s="6" t="s">
         <v>558</v>
       </c>
-      <c r="B86" s="6" t="s">
+      <c r="C86" s="6" t="s">
         <v>559</v>
-      </c>
-      <c r="C86" s="6" t="s">
-        <v>560</v>
       </c>
       <c r="D86" s="7">
         <v>2.8</v>
@@ -15863,37 +15865,37 @@
         <v>17</v>
       </c>
       <c r="F86" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G86" s="7" t="s">
         <v>561</v>
       </c>
-      <c r="G86" s="7" t="s">
+      <c r="H86" s="7" t="s">
         <v>562</v>
       </c>
-      <c r="H86" s="7" t="s">
+      <c r="I86" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="I86" s="7" t="s">
+      <c r="J86" s="7" t="s">
         <v>564</v>
       </c>
-      <c r="J86" s="7" t="s">
+      <c r="K86" s="7" t="s">
         <v>565</v>
       </c>
-      <c r="K86" s="7" t="s">
+      <c r="L86" s="7" t="s">
         <v>566</v>
       </c>
-      <c r="L86" s="7" t="s">
+      <c r="M86" s="6" t="s">
         <v>567</v>
-      </c>
-      <c r="M86" s="6" t="s">
-        <v>568</v>
       </c>
       <c r="N86" s="7" t="s">
         <v>247</v>
       </c>
       <c r="O86" s="6" t="s">
+        <v>568</v>
+      </c>
+      <c r="P86" s="9" t="s">
         <v>569</v>
-      </c>
-      <c r="P86" s="9" t="s">
-        <v>570</v>
       </c>
       <c r="Q86" s="8"/>
       <c r="R86" s="8"/>
@@ -15993,15 +15995,15 @@
       <c r="DH86" s="8"/>
       <c r="DI86" s="8"/>
     </row>
-    <row r="87" spans="1:113" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:113" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="6" t="s">
+        <v>570</v>
+      </c>
+      <c r="B87" s="6" t="s">
         <v>571</v>
       </c>
-      <c r="B87" s="6" t="s">
+      <c r="C87" s="6" t="s">
         <v>572</v>
-      </c>
-      <c r="C87" s="6" t="s">
-        <v>573</v>
       </c>
       <c r="D87" s="7">
         <v>1.78</v>
@@ -16010,7 +16012,7 @@
         <v>17</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G87" s="7" t="s">
         <v>37</v>
@@ -16031,16 +16033,16 @@
         <v>71</v>
       </c>
       <c r="M87" s="6" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="N87" s="7" t="s">
         <v>73</v>
       </c>
       <c r="O87" s="6" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="P87" s="9" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="Q87" s="8"/>
       <c r="R87" s="8"/>
@@ -16140,15 +16142,15 @@
       <c r="DH87" s="8"/>
       <c r="DI87" s="8"/>
     </row>
-    <row r="88" spans="1:113" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:113" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="C88" s="6" t="s">
         <v>577</v>
-      </c>
-      <c r="B88" s="6" t="s">
-        <v>577</v>
-      </c>
-      <c r="C88" s="6" t="s">
-        <v>578</v>
       </c>
       <c r="D88" s="7">
         <v>1.6</v>
@@ -16157,7 +16159,7 @@
         <v>17</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G88" s="7" t="s">
         <v>37</v>
@@ -16178,16 +16180,16 @@
         <v>71</v>
       </c>
       <c r="M88" s="6" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="N88" s="7" t="s">
         <v>73</v>
       </c>
       <c r="O88" s="6" t="s">
+        <v>580</v>
+      </c>
+      <c r="P88" s="9" t="s">
         <v>581</v>
-      </c>
-      <c r="P88" s="9" t="s">
-        <v>582</v>
       </c>
       <c r="Q88" s="8"/>
       <c r="R88" s="8"/>
@@ -16287,15 +16289,15 @@
       <c r="DH88" s="8"/>
       <c r="DI88" s="8"/>
     </row>
-    <row r="89" spans="1:113" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:113" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="7" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B89" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="C89" s="6" t="s">
         <v>583</v>
-      </c>
-      <c r="C89" s="6" t="s">
-        <v>584</v>
       </c>
       <c r="D89" s="7">
         <v>2.8</v>
@@ -16325,16 +16327,16 @@
         <v>20</v>
       </c>
       <c r="M89" s="7" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="N89" s="7" t="s">
         <v>31</v>
       </c>
       <c r="O89" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="P89" s="9" t="s">
         <v>586</v>
-      </c>
-      <c r="P89" s="9" t="s">
-        <v>587</v>
       </c>
       <c r="Q89" s="13"/>
       <c r="R89" s="13"/>
@@ -16434,15 +16436,15 @@
       <c r="DH89" s="13"/>
       <c r="DI89" s="13"/>
     </row>
-    <row r="90" spans="1:113" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:113" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="C90" s="6" t="s">
         <v>588</v>
-      </c>
-      <c r="B90" s="7" t="s">
-        <v>588</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>589</v>
       </c>
       <c r="D90" s="7">
         <v>1.9</v>
@@ -16478,10 +16480,10 @@
         <v>19</v>
       </c>
       <c r="O90" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="P90" s="9" t="s">
         <v>590</v>
-      </c>
-      <c r="P90" s="9" t="s">
-        <v>591</v>
       </c>
       <c r="Q90" s="8"/>
       <c r="R90" s="8"/>
@@ -16581,15 +16583,15 @@
       <c r="DH90" s="8"/>
       <c r="DI90" s="8"/>
     </row>
-    <row r="91" spans="1:113" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:113" s="26" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="23" t="s">
+        <v>591</v>
+      </c>
+      <c r="B91" s="23" t="s">
         <v>592</v>
       </c>
-      <c r="B91" s="23" t="s">
+      <c r="C91" s="23" t="s">
         <v>593</v>
-      </c>
-      <c r="C91" s="23" t="s">
-        <v>594</v>
       </c>
       <c r="D91" s="24">
         <v>2.5</v>
@@ -16619,16 +16621,16 @@
         <v>20</v>
       </c>
       <c r="M91" s="23" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="N91" s="24" t="s">
         <v>31</v>
       </c>
       <c r="O91" s="24" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="P91" s="9" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="Q91" s="25"/>
       <c r="R91" s="25"/>
@@ -16728,15 +16730,15 @@
       <c r="DH91" s="25"/>
       <c r="DI91" s="25"/>
     </row>
-    <row r="92" spans="1:113" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:113" s="26" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="23" t="s">
+        <v>596</v>
+      </c>
+      <c r="B92" s="23" t="s">
         <v>597</v>
       </c>
-      <c r="B92" s="23" t="s">
+      <c r="C92" s="23" t="s">
         <v>598</v>
-      </c>
-      <c r="C92" s="23" t="s">
-        <v>599</v>
       </c>
       <c r="D92" s="24">
         <v>1.9</v>
@@ -16766,16 +16768,16 @@
         <v>31</v>
       </c>
       <c r="M92" s="23" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="N92" s="24" t="s">
         <v>31</v>
       </c>
       <c r="O92" s="23" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="P92" s="9" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="Q92" s="25"/>
       <c r="R92" s="25"/>
@@ -16875,15 +16877,15 @@
       <c r="DH92" s="25"/>
       <c r="DI92" s="25"/>
     </row>
-    <row r="93" spans="1:113" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:113" s="26" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="23" t="s">
+        <v>601</v>
+      </c>
+      <c r="B93" s="23" t="s">
         <v>602</v>
       </c>
-      <c r="B93" s="23" t="s">
+      <c r="C93" s="24" t="s">
         <v>603</v>
-      </c>
-      <c r="C93" s="24" t="s">
-        <v>604</v>
       </c>
       <c r="D93" s="24">
         <v>2.0299999999999998</v>
@@ -16913,16 +16915,16 @@
         <v>31</v>
       </c>
       <c r="M93" s="23" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="N93" s="24" t="s">
         <v>31</v>
       </c>
       <c r="O93" s="24" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="P93" s="9" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="Q93" s="25"/>
       <c r="R93" s="25"/>
@@ -17022,15 +17024,15 @@
       <c r="DH93" s="25"/>
       <c r="DI93" s="25"/>
     </row>
-    <row r="94" spans="1:113" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:113" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="24" t="s">
+        <v>606</v>
+      </c>
+      <c r="B94" s="24" t="s">
+        <v>606</v>
+      </c>
+      <c r="C94" s="24" t="s">
         <v>607</v>
-      </c>
-      <c r="B94" s="24" t="s">
-        <v>607</v>
-      </c>
-      <c r="C94" s="24" t="s">
-        <v>608</v>
       </c>
       <c r="D94" s="24">
         <v>2.1</v>
@@ -17060,16 +17062,16 @@
         <v>71</v>
       </c>
       <c r="M94" s="24" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="N94" s="24" t="s">
         <v>73</v>
       </c>
       <c r="O94" s="24" t="s">
+        <v>609</v>
+      </c>
+      <c r="P94" s="9" t="s">
         <v>610</v>
-      </c>
-      <c r="P94" s="9" t="s">
-        <v>611</v>
       </c>
       <c r="Q94" s="25"/>
       <c r="R94" s="25"/>
@@ -17169,15 +17171,15 @@
       <c r="DH94" s="25"/>
       <c r="DI94" s="25"/>
     </row>
-    <row r="95" spans="1:113" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:113" s="26" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="24" t="s">
+        <v>611</v>
+      </c>
+      <c r="B95" s="24" t="s">
         <v>612</v>
       </c>
-      <c r="B95" s="24" t="s">
+      <c r="C95" s="24" t="s">
         <v>613</v>
-      </c>
-      <c r="C95" s="24" t="s">
-        <v>614</v>
       </c>
       <c r="D95" s="24">
         <v>2.17</v>
@@ -17207,16 +17209,16 @@
         <v>31</v>
       </c>
       <c r="M95" s="24" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="N95" s="24" t="s">
         <v>31</v>
       </c>
       <c r="O95" s="24" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="P95" s="9" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="Q95" s="25"/>
       <c r="R95" s="25"/>
@@ -17316,15 +17318,15 @@
       <c r="DH95" s="25"/>
       <c r="DI95" s="25"/>
     </row>
-    <row r="96" spans="1:113" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:113" s="26" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="24" t="s">
+        <v>616</v>
+      </c>
+      <c r="B96" s="24" t="s">
         <v>617</v>
       </c>
-      <c r="B96" s="24" t="s">
+      <c r="C96" s="24" t="s">
         <v>618</v>
-      </c>
-      <c r="C96" s="24" t="s">
-        <v>619</v>
       </c>
       <c r="D96" s="24">
         <v>1.85</v>
@@ -17354,16 +17356,16 @@
         <v>31</v>
       </c>
       <c r="M96" s="24" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="N96" s="24" t="s">
         <v>31</v>
       </c>
       <c r="O96" s="24" t="s">
+        <v>620</v>
+      </c>
+      <c r="P96" s="9" t="s">
         <v>621</v>
-      </c>
-      <c r="P96" s="9" t="s">
-        <v>622</v>
       </c>
       <c r="Q96" s="25"/>
       <c r="R96" s="25"/>
@@ -17463,15 +17465,15 @@
       <c r="DH96" s="25"/>
       <c r="DI96" s="25"/>
     </row>
-    <row r="97" spans="1:113" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:113" s="26" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="24" t="s">
+        <v>622</v>
+      </c>
+      <c r="B97" s="24" t="s">
         <v>623</v>
       </c>
-      <c r="B97" s="24" t="s">
+      <c r="C97" s="24" t="s">
         <v>624</v>
-      </c>
-      <c r="C97" s="24" t="s">
-        <v>625</v>
       </c>
       <c r="D97" s="24">
         <v>2.1</v>
@@ -17501,16 +17503,16 @@
         <v>31</v>
       </c>
       <c r="M97" s="24" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="N97" s="24" t="s">
         <v>31</v>
       </c>
       <c r="O97" s="24" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="P97" s="9" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="Q97" s="25"/>
       <c r="R97" s="25"/>
@@ -17610,15 +17612,15 @@
       <c r="DH97" s="25"/>
       <c r="DI97" s="25"/>
     </row>
-    <row r="98" spans="1:113" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:113" s="26" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="24" t="s">
+        <v>627</v>
+      </c>
+      <c r="B98" s="23" t="s">
         <v>628</v>
       </c>
-      <c r="B98" s="23" t="s">
+      <c r="C98" s="24" t="s">
         <v>629</v>
-      </c>
-      <c r="C98" s="24" t="s">
-        <v>630</v>
       </c>
       <c r="D98" s="24">
         <v>2.6</v>
@@ -17627,10 +17629,10 @@
         <v>394</v>
       </c>
       <c r="F98" s="23" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="G98" s="24" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H98" s="24">
         <v>6</v>
@@ -17648,16 +17650,16 @@
         <v>31</v>
       </c>
       <c r="M98" s="24" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="N98" s="24" t="s">
         <v>31</v>
       </c>
       <c r="O98" s="23" t="s">
+        <v>632</v>
+      </c>
+      <c r="P98" s="9" t="s">
         <v>633</v>
-      </c>
-      <c r="P98" s="9" t="s">
-        <v>634</v>
       </c>
       <c r="Q98" s="25"/>
       <c r="R98" s="25"/>
@@ -17757,15 +17759,15 @@
       <c r="DH98" s="25"/>
       <c r="DI98" s="25"/>
     </row>
-    <row r="99" spans="1:113" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:113" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="24" t="s">
+        <v>634</v>
+      </c>
+      <c r="B99" s="24" t="s">
         <v>635</v>
       </c>
-      <c r="B99" s="24" t="s">
+      <c r="C99" s="24" t="s">
         <v>636</v>
-      </c>
-      <c r="C99" s="24" t="s">
-        <v>637</v>
       </c>
       <c r="D99" s="24">
         <v>2.2999999999999998</v>
@@ -17795,16 +17797,16 @@
         <v>20</v>
       </c>
       <c r="M99" s="24" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="N99" s="24" t="s">
         <v>31</v>
       </c>
       <c r="O99" s="23" t="s">
+        <v>638</v>
+      </c>
+      <c r="P99" s="9" t="s">
         <v>639</v>
-      </c>
-      <c r="P99" s="9" t="s">
-        <v>640</v>
       </c>
       <c r="Q99" s="25"/>
       <c r="R99" s="25"/>
@@ -17904,15 +17906,15 @@
       <c r="DH99" s="25"/>
       <c r="DI99" s="25"/>
     </row>
-    <row r="100" spans="1:113" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:113" s="26" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="24" t="s">
+        <v>640</v>
+      </c>
+      <c r="B100" s="23" t="s">
         <v>641</v>
       </c>
-      <c r="B100" s="23" t="s">
+      <c r="C100" s="23" t="s">
         <v>642</v>
-      </c>
-      <c r="C100" s="23" t="s">
-        <v>643</v>
       </c>
       <c r="D100" s="24">
         <v>2.6</v>
@@ -17942,16 +17944,16 @@
         <v>31</v>
       </c>
       <c r="M100" s="23" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="N100" s="24" t="s">
         <v>31</v>
       </c>
       <c r="O100" s="24" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="P100" s="9" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="Q100" s="25"/>
       <c r="R100" s="25"/>
@@ -18051,15 +18053,15 @@
       <c r="DH100" s="25"/>
       <c r="DI100" s="25"/>
     </row>
-    <row r="101" spans="1:113" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:113" s="26" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="24" t="s">
+        <v>645</v>
+      </c>
+      <c r="B101" s="23" t="s">
         <v>646</v>
       </c>
-      <c r="B101" s="23" t="s">
+      <c r="C101" s="23" t="s">
         <v>647</v>
-      </c>
-      <c r="C101" s="23" t="s">
-        <v>648</v>
       </c>
       <c r="D101" s="24">
         <v>2.2999999999999998</v>
@@ -18089,16 +18091,16 @@
         <v>31</v>
       </c>
       <c r="M101" s="24" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="N101" s="24" t="s">
         <v>31</v>
       </c>
       <c r="O101" s="23" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="P101" s="9" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="Q101" s="25"/>
       <c r="R101" s="25"/>
@@ -18198,15 +18200,15 @@
       <c r="DH101" s="25"/>
       <c r="DI101" s="25"/>
     </row>
-    <row r="102" spans="1:113" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:113" s="26" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="7" t="s">
+        <v>650</v>
+      </c>
+      <c r="B102" s="7" t="s">
         <v>651</v>
       </c>
-      <c r="B102" s="7" t="s">
+      <c r="C102" s="24" t="s">
         <v>652</v>
-      </c>
-      <c r="C102" s="24" t="s">
-        <v>653</v>
       </c>
       <c r="D102" s="24">
         <v>2.9</v>
@@ -18215,7 +18217,7 @@
         <v>394</v>
       </c>
       <c r="F102" s="23" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G102" s="24" t="s">
         <v>18</v>
@@ -18236,16 +18238,16 @@
         <v>20</v>
       </c>
       <c r="M102" s="24" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="N102" s="24" t="s">
         <v>31</v>
       </c>
       <c r="O102" s="24" t="s">
+        <v>654</v>
+      </c>
+      <c r="P102" s="9" t="s">
         <v>655</v>
-      </c>
-      <c r="P102" s="9" t="s">
-        <v>656</v>
       </c>
       <c r="Q102" s="25"/>
       <c r="R102" s="25"/>
@@ -18345,15 +18347,15 @@
       <c r="DH102" s="25"/>
       <c r="DI102" s="25"/>
     </row>
-    <row r="103" spans="1:113" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:113" s="26" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="24" t="s">
+        <v>656</v>
+      </c>
+      <c r="B103" s="23" t="s">
         <v>657</v>
       </c>
-      <c r="B103" s="23" t="s">
+      <c r="C103" s="23" t="s">
         <v>658</v>
-      </c>
-      <c r="C103" s="23" t="s">
-        <v>659</v>
       </c>
       <c r="D103" s="24">
         <v>2.5</v>
@@ -18362,7 +18364,7 @@
         <v>394</v>
       </c>
       <c r="F103" s="23" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G103" s="24" t="s">
         <v>18</v>
@@ -18383,16 +18385,16 @@
         <v>20</v>
       </c>
       <c r="M103" s="24" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N103" s="24" t="s">
         <v>31</v>
       </c>
       <c r="O103" s="24" t="s">
+        <v>660</v>
+      </c>
+      <c r="P103" s="9" t="s">
         <v>661</v>
-      </c>
-      <c r="P103" s="9" t="s">
-        <v>662</v>
       </c>
       <c r="Q103" s="25"/>
       <c r="R103" s="25"/>
@@ -18492,15 +18494,15 @@
       <c r="DH103" s="25"/>
       <c r="DI103" s="25"/>
     </row>
-    <row r="104" spans="1:113" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:113" s="26" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="24" t="s">
+        <v>662</v>
+      </c>
+      <c r="B104" s="23" t="s">
         <v>663</v>
       </c>
-      <c r="B104" s="23" t="s">
+      <c r="C104" s="23" t="s">
         <v>664</v>
-      </c>
-      <c r="C104" s="23" t="s">
-        <v>665</v>
       </c>
       <c r="D104" s="24">
         <v>1.94</v>
@@ -18515,7 +18517,7 @@
         <v>18</v>
       </c>
       <c r="H104" s="24" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="I104" s="24" t="s">
         <v>68</v>
@@ -18530,16 +18532,16 @@
         <v>81</v>
       </c>
       <c r="M104" s="24" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="N104" s="24" t="s">
         <v>73</v>
       </c>
       <c r="O104" s="24" t="s">
+        <v>667</v>
+      </c>
+      <c r="P104" s="9" t="s">
         <v>668</v>
-      </c>
-      <c r="P104" s="9" t="s">
-        <v>669</v>
       </c>
       <c r="Q104" s="25"/>
       <c r="R104" s="25"/>
@@ -18639,15 +18641,15 @@
       <c r="DH104" s="25"/>
       <c r="DI104" s="25"/>
     </row>
-    <row r="105" spans="1:113" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:113" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="24" t="s">
+        <v>669</v>
+      </c>
+      <c r="B105" s="24" t="s">
+        <v>669</v>
+      </c>
+      <c r="C105" s="23" t="s">
         <v>670</v>
-      </c>
-      <c r="B105" s="24" t="s">
-        <v>670</v>
-      </c>
-      <c r="C105" s="23" t="s">
-        <v>671</v>
       </c>
       <c r="D105" s="24">
         <v>1.96</v>
@@ -18662,7 +18664,7 @@
         <v>18</v>
       </c>
       <c r="H105" s="24" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="I105" s="24" t="s">
         <v>68</v>
@@ -18677,16 +18679,16 @@
         <v>81</v>
       </c>
       <c r="M105" s="24" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="N105" s="24" t="s">
         <v>73</v>
       </c>
       <c r="O105" s="24" t="s">
+        <v>672</v>
+      </c>
+      <c r="P105" s="9" t="s">
         <v>673</v>
-      </c>
-      <c r="P105" s="9" t="s">
-        <v>674</v>
       </c>
       <c r="Q105" s="28"/>
       <c r="R105" s="28"/>
@@ -18786,15 +18788,15 @@
       <c r="DH105" s="28"/>
       <c r="DI105" s="28"/>
     </row>
-    <row r="106" spans="1:113" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:113" s="26" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="7" t="s">
+        <v>674</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>674</v>
+      </c>
+      <c r="C106" s="24" t="s">
         <v>675</v>
-      </c>
-      <c r="B106" s="7" t="s">
-        <v>675</v>
-      </c>
-      <c r="C106" s="24" t="s">
-        <v>676</v>
       </c>
       <c r="D106" s="24">
         <v>3.1</v>
@@ -18803,7 +18805,7 @@
         <v>394</v>
       </c>
       <c r="F106" s="24" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="G106" s="24" t="s">
         <v>18</v>
@@ -18824,16 +18826,16 @@
         <v>20</v>
       </c>
       <c r="M106" s="24" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="N106" s="24" t="s">
         <v>31</v>
       </c>
       <c r="O106" s="24" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="P106" s="9" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="Q106" s="25"/>
       <c r="R106" s="25"/>
@@ -18933,15 +18935,15 @@
       <c r="DH106" s="25"/>
       <c r="DI106" s="25"/>
     </row>
-    <row r="107" spans="1:113" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:113" s="26" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="24" t="s">
+        <v>679</v>
+      </c>
+      <c r="B107" s="24" t="s">
         <v>680</v>
       </c>
-      <c r="B107" s="24" t="s">
+      <c r="C107" s="24" t="s">
         <v>681</v>
-      </c>
-      <c r="C107" s="24" t="s">
-        <v>682</v>
       </c>
       <c r="D107" s="24">
         <v>2.9</v>
@@ -18971,16 +18973,16 @@
         <v>31</v>
       </c>
       <c r="M107" s="7" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="N107" s="24" t="s">
         <v>31</v>
       </c>
       <c r="O107" s="24" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="P107" s="9" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="Q107" s="25"/>
       <c r="R107" s="25"/>
@@ -19080,15 +19082,15 @@
       <c r="DH107" s="25"/>
       <c r="DI107" s="25"/>
     </row>
-    <row r="108" spans="1:113" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:113" s="26" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="24" t="s">
+        <v>684</v>
+      </c>
+      <c r="B108" s="24" t="s">
         <v>685</v>
       </c>
-      <c r="B108" s="24" t="s">
+      <c r="C108" s="24" t="s">
         <v>686</v>
-      </c>
-      <c r="C108" s="24" t="s">
-        <v>687</v>
       </c>
       <c r="D108" s="24">
         <v>2.2999999999999998</v>
@@ -19097,10 +19099,10 @@
         <v>394</v>
       </c>
       <c r="F108" s="23" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="G108" s="24" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H108" s="24" t="s">
         <v>19</v>
@@ -19124,10 +19126,10 @@
         <v>19</v>
       </c>
       <c r="O108" s="23" t="s">
+        <v>687</v>
+      </c>
+      <c r="P108" s="9" t="s">
         <v>688</v>
-      </c>
-      <c r="P108" s="9" t="s">
-        <v>689</v>
       </c>
       <c r="Q108" s="25"/>
       <c r="R108" s="25"/>
@@ -19227,15 +19229,15 @@
       <c r="DH108" s="25"/>
       <c r="DI108" s="25"/>
     </row>
-    <row r="109" spans="1:113" s="31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:113" s="31" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="B109" s="24" t="s">
         <v>690</v>
       </c>
-      <c r="B109" s="24" t="s">
+      <c r="C109" s="24" t="s">
         <v>691</v>
-      </c>
-      <c r="C109" s="24" t="s">
-        <v>692</v>
       </c>
       <c r="D109" s="24">
         <v>3.31</v>
@@ -19265,16 +19267,16 @@
         <v>31</v>
       </c>
       <c r="M109" s="24" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="N109" s="24" t="s">
         <v>31</v>
       </c>
       <c r="O109" s="24" t="s">
+        <v>693</v>
+      </c>
+      <c r="P109" s="9" t="s">
         <v>694</v>
-      </c>
-      <c r="P109" s="9" t="s">
-        <v>695</v>
       </c>
       <c r="Q109" s="30"/>
       <c r="R109" s="30"/>
@@ -19374,15 +19376,15 @@
       <c r="DH109" s="30"/>
       <c r="DI109" s="30"/>
     </row>
-    <row r="110" spans="1:113" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:113" s="26" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="24" t="s">
+        <v>695</v>
+      </c>
+      <c r="B110" s="24" t="s">
+        <v>695</v>
+      </c>
+      <c r="C110" s="24" t="s">
         <v>696</v>
-      </c>
-      <c r="B110" s="24" t="s">
-        <v>696</v>
-      </c>
-      <c r="C110" s="24" t="s">
-        <v>697</v>
       </c>
       <c r="D110" s="24">
         <v>3.2</v>
@@ -19412,16 +19414,16 @@
         <v>31</v>
       </c>
       <c r="M110" s="24" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="N110" s="24" t="s">
         <v>31</v>
       </c>
       <c r="O110" s="23" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="P110" s="9" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="Q110" s="25"/>
       <c r="R110" s="25"/>
@@ -19521,15 +19523,15 @@
       <c r="DH110" s="25"/>
       <c r="DI110" s="25"/>
     </row>
-    <row r="111" spans="1:113" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:113" s="26" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="24" t="s">
+        <v>699</v>
+      </c>
+      <c r="B111" s="24" t="s">
+        <v>699</v>
+      </c>
+      <c r="C111" s="24" t="s">
         <v>700</v>
-      </c>
-      <c r="B111" s="24" t="s">
-        <v>700</v>
-      </c>
-      <c r="C111" s="24" t="s">
-        <v>701</v>
       </c>
       <c r="D111" s="24">
         <v>2.9380000000000002</v>
@@ -19559,16 +19561,16 @@
         <v>31</v>
       </c>
       <c r="M111" s="24" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="N111" s="24" t="s">
         <v>31</v>
       </c>
       <c r="O111" s="24" t="s">
+        <v>702</v>
+      </c>
+      <c r="P111" s="9" t="s">
         <v>703</v>
-      </c>
-      <c r="P111" s="9" t="s">
-        <v>704</v>
       </c>
       <c r="Q111" s="25"/>
       <c r="R111" s="25"/>
@@ -19668,15 +19670,15 @@
       <c r="DH111" s="25"/>
       <c r="DI111" s="25"/>
     </row>
-    <row r="112" spans="1:113" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:113" s="26" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="24" t="s">
+        <v>704</v>
+      </c>
+      <c r="B112" s="24" t="s">
+        <v>704</v>
+      </c>
+      <c r="C112" s="24" t="s">
         <v>705</v>
-      </c>
-      <c r="B112" s="24" t="s">
-        <v>705</v>
-      </c>
-      <c r="C112" s="24" t="s">
-        <v>706</v>
       </c>
       <c r="D112" s="24">
         <v>2.9</v>
@@ -19685,7 +19687,7 @@
         <v>394</v>
       </c>
       <c r="F112" s="23" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="G112" s="24" t="s">
         <v>18</v>
@@ -19706,16 +19708,16 @@
         <v>20</v>
       </c>
       <c r="M112" s="24" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="N112" s="24" t="s">
         <v>31</v>
       </c>
       <c r="O112" s="24" t="s">
+        <v>707</v>
+      </c>
+      <c r="P112" s="9" t="s">
         <v>708</v>
-      </c>
-      <c r="P112" s="9" t="s">
-        <v>709</v>
       </c>
       <c r="Q112" s="25"/>
       <c r="R112" s="25"/>
@@ -19819,6 +19821,7 @@
       <c r="P113" s="9"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:DI112" xr:uid="{FC2F2CF9-B8B9-8846-8242-A62EE4528BC0}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -19831,10 +19834,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:N140"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="A1:N140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19876,7 +19880,7 @@
         <v>7</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>8</v>
@@ -19891,7 +19895,7 @@
         <v>11</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>12</v>
@@ -19908,7 +19912,7 @@
         <v>15</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D2" s="10">
         <v>3.4</v>
@@ -19952,7 +19956,7 @@
         <v>24</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D3" s="10">
         <v>3.32</v>
@@ -19996,7 +20000,7 @@
         <v>35</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D4" s="10">
         <v>2.5</v>
@@ -20040,7 +20044,7 @@
         <v>41</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D5" s="10">
         <v>2.2000000000000002</v>
@@ -20084,7 +20088,7 @@
         <v>46</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D6" s="10">
         <v>3.5</v>
@@ -20128,7 +20132,7 @@
         <v>51</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D7" s="10">
         <v>3.2</v>
@@ -20172,7 +20176,7 @@
         <v>54</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D8" s="10">
         <v>2.4</v>
@@ -20216,7 +20220,7 @@
         <v>59</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D9" s="10">
         <v>3.25</v>
@@ -20260,7 +20264,7 @@
         <v>59</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D10" s="10">
         <v>3.25</v>
@@ -20304,7 +20308,7 @@
         <v>65</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D11" s="10">
         <v>3.25</v>
@@ -20348,7 +20352,7 @@
         <v>76</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D12" s="10">
         <v>2.8</v>
@@ -20372,7 +20376,7 @@
         <v>31</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="L12" s="10" t="s">
         <v>31</v>
@@ -20392,7 +20396,7 @@
         <v>86</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D13" s="10">
         <v>2.7</v>
@@ -20416,7 +20420,7 @@
         <v>31</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="L13" s="10" t="s">
         <v>31</v>
@@ -20436,7 +20440,7 @@
         <v>86</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D14" s="10">
         <v>2.7</v>
@@ -20480,7 +20484,7 @@
         <v>86</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D15" s="10">
         <v>2.7</v>
@@ -20524,7 +20528,7 @@
         <v>93</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D16" s="10">
         <v>2.8</v>
@@ -20548,7 +20552,7 @@
         <v>20</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="L16" s="10" t="s">
         <v>31</v>
@@ -20568,7 +20572,7 @@
         <v>93</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D17" s="10">
         <v>2.8</v>
@@ -20612,7 +20616,7 @@
         <v>93</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D18" s="10">
         <v>2.8</v>
@@ -20656,7 +20660,7 @@
         <v>93</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D19" s="10">
         <v>2.8</v>
@@ -20700,7 +20704,7 @@
         <v>93</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D20" s="10">
         <v>2.8</v>
@@ -20744,7 +20748,7 @@
         <v>93</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D21" s="10">
         <v>2.8</v>
@@ -20788,7 +20792,7 @@
         <v>93</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D22" s="10">
         <v>2.8</v>
@@ -20832,7 +20836,7 @@
         <v>93</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="D23" s="10">
         <v>2.8</v>
@@ -20876,7 +20880,7 @@
         <v>93</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="D24" s="10">
         <v>2.8</v>
@@ -20920,7 +20924,7 @@
         <v>93</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D25" s="10">
         <v>2.8</v>
@@ -20964,7 +20968,7 @@
         <v>93</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D26" s="10">
         <v>2.8</v>
@@ -21008,7 +21012,7 @@
         <v>106</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D27" s="10">
         <v>2.4369999999999998</v>
@@ -21032,7 +21036,7 @@
         <v>20</v>
       </c>
       <c r="K27" s="10" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="L27" s="10" t="s">
         <v>31</v>
@@ -21041,7 +21045,7 @@
         <v>117</v>
       </c>
       <c r="N27" s="10" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
@@ -21052,7 +21056,7 @@
         <v>106</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D28" s="10">
         <v>2.4369999999999998</v>
@@ -21076,7 +21080,7 @@
         <v>20</v>
       </c>
       <c r="K28" s="10" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="L28" s="10" t="s">
         <v>31</v>
@@ -21085,7 +21089,7 @@
         <v>117</v>
       </c>
       <c r="N28" s="10" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
@@ -21096,7 +21100,7 @@
         <v>106</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="D29" s="10">
         <v>2.4369999999999998</v>
@@ -21129,7 +21133,7 @@
         <v>117</v>
       </c>
       <c r="N29" s="10" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
@@ -21140,7 +21144,7 @@
         <v>106</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D30" s="10">
         <v>2.4369999999999998</v>
@@ -21173,7 +21177,7 @@
         <v>117</v>
       </c>
       <c r="N30" s="10" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
@@ -21184,7 +21188,7 @@
         <v>106</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D31" s="10">
         <v>2.4369999999999998</v>
@@ -21217,7 +21221,7 @@
         <v>117</v>
       </c>
       <c r="N31" s="10" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
@@ -21228,7 +21232,7 @@
         <v>106</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D32" s="10">
         <v>2.4369999999999998</v>
@@ -21261,7 +21265,7 @@
         <v>117</v>
       </c>
       <c r="N32" s="10" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
@@ -21272,7 +21276,7 @@
         <v>106</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D33" s="10">
         <v>2.4369999999999998</v>
@@ -21305,7 +21309,7 @@
         <v>117</v>
       </c>
       <c r="N33" s="10" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
@@ -21316,7 +21320,7 @@
         <v>106</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D34" s="10">
         <v>2.4369999999999998</v>
@@ -21349,7 +21353,7 @@
         <v>117</v>
       </c>
       <c r="N34" s="10" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
@@ -21360,7 +21364,7 @@
         <v>106</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D35" s="10">
         <v>2.4369999999999998</v>
@@ -21393,7 +21397,7 @@
         <v>117</v>
       </c>
       <c r="N35" s="10" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
@@ -21404,7 +21408,7 @@
         <v>106</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D36" s="10">
         <v>2.4369999999999998</v>
@@ -21437,7 +21441,7 @@
         <v>117</v>
       </c>
       <c r="N36" s="10" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
@@ -21448,7 +21452,7 @@
         <v>106</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D37" s="10">
         <v>2.4369999999999998</v>
@@ -21481,7 +21485,7 @@
         <v>117</v>
       </c>
       <c r="N37" s="10" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
@@ -21492,7 +21496,7 @@
         <v>106</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D38" s="10">
         <v>2.4369999999999998</v>
@@ -21525,7 +21529,7 @@
         <v>117</v>
       </c>
       <c r="N38" s="10" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
@@ -21536,7 +21540,7 @@
         <v>106</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D39" s="10">
         <v>2.4369999999999998</v>
@@ -21569,7 +21573,7 @@
         <v>117</v>
       </c>
       <c r="N39" s="10" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
@@ -21580,7 +21584,7 @@
         <v>119</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="D40" s="10">
         <v>3</v>
@@ -21595,7 +21599,7 @@
         <v>173</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="I40" s="10" t="s">
         <v>127</v>
@@ -21604,7 +21608,7 @@
         <v>20</v>
       </c>
       <c r="K40" s="10" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="L40" s="10" t="s">
         <v>31</v>
@@ -21624,7 +21628,7 @@
         <v>119</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D41" s="10">
         <v>3.3</v>
@@ -21668,7 +21672,7 @@
         <v>131</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D42" s="10">
         <v>3.1</v>
@@ -21712,7 +21716,7 @@
         <v>131</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D43" s="10">
         <v>2.8</v>
@@ -21756,7 +21760,7 @@
         <v>143</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D44" s="10">
         <v>3.2</v>
@@ -21780,7 +21784,7 @@
         <v>20</v>
       </c>
       <c r="K44" s="10" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="L44" s="10" t="s">
         <v>20</v>
@@ -21800,7 +21804,7 @@
         <v>150</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D45" s="10">
         <v>1.93</v>
@@ -21844,7 +21848,7 @@
         <v>150</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D46" s="10">
         <v>1.93</v>
@@ -21888,7 +21892,7 @@
         <v>156</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D47" s="10">
         <v>2.9</v>
@@ -21912,7 +21916,7 @@
         <v>20</v>
       </c>
       <c r="K47" s="10" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="L47" s="10" t="s">
         <v>31</v>
@@ -21932,7 +21936,7 @@
         <v>162</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D48" s="10">
         <v>2.39</v>
@@ -21976,7 +21980,7 @@
         <v>167</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D49" s="10">
         <v>3.2</v>
@@ -22000,7 +22004,7 @@
         <v>20</v>
       </c>
       <c r="K49" s="10" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="L49" s="10" t="s">
         <v>20</v>
@@ -22020,7 +22024,7 @@
         <v>167</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D50" s="10">
         <v>1.65</v>
@@ -22064,7 +22068,7 @@
         <v>178</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D51" s="10">
         <v>2.5099999999999998</v>
@@ -22088,7 +22092,7 @@
         <v>20</v>
       </c>
       <c r="K51" s="10" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="L51" s="10" t="s">
         <v>31</v>
@@ -22108,7 +22112,7 @@
         <v>184</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D52" s="10">
         <v>3.2</v>
@@ -22132,7 +22136,7 @@
         <v>20</v>
       </c>
       <c r="K52" s="10" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="L52" s="10" t="s">
         <v>20</v>
@@ -22149,10 +22153,10 @@
         <v>189</v>
       </c>
       <c r="B53" s="10" t="s">
+        <v>773</v>
+      </c>
+      <c r="C53" s="10" t="s">
         <v>774</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>775</v>
       </c>
       <c r="D53" s="10">
         <v>3.3</v>
@@ -22196,7 +22200,7 @@
         <v>196</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="D54" s="10">
         <v>3.5</v>
@@ -22240,7 +22244,7 @@
         <v>201</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="D55" s="10">
         <v>2.4</v>
@@ -22284,7 +22288,7 @@
         <v>201</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D56" s="10">
         <v>2.4</v>
@@ -22328,7 +22332,7 @@
         <v>207</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D57" s="10">
         <v>3.96</v>
@@ -22372,7 +22376,7 @@
         <v>222</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D58" s="10">
         <v>2.41</v>
@@ -22416,7 +22420,7 @@
         <v>228</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D59" s="10">
         <v>1.8</v>
@@ -22460,7 +22464,7 @@
         <v>233</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="D60" s="10">
         <v>3</v>
@@ -22504,7 +22508,7 @@
         <v>238</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D61" s="10">
         <v>2.8</v>
@@ -22528,7 +22532,7 @@
         <v>114</v>
       </c>
       <c r="K61" s="10" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="L61" s="10" t="s">
         <v>116</v>
@@ -22548,7 +22552,7 @@
         <v>251</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D62" s="10">
         <v>1.8</v>
@@ -22572,7 +22576,7 @@
         <v>20</v>
       </c>
       <c r="K62" s="10" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="L62" s="10" t="s">
         <v>31</v>
@@ -22592,7 +22596,7 @@
         <v>258</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D63" s="10">
         <v>3.8</v>
@@ -22636,7 +22640,7 @@
         <v>264</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D64" s="10">
         <v>1.9</v>
@@ -22680,7 +22684,7 @@
         <v>270</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="D65" s="10">
         <v>2.44</v>
@@ -22704,7 +22708,7 @@
         <v>20</v>
       </c>
       <c r="K65" s="10" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="L65" s="10" t="s">
         <v>20</v>
@@ -22724,7 +22728,7 @@
         <v>275</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D66" s="10">
         <v>3.29</v>
@@ -22736,19 +22740,19 @@
         <v>78</v>
       </c>
       <c r="G66" s="10" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="H66" s="10" t="s">
         <v>69</v>
       </c>
       <c r="I66" s="10" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="J66" s="10" t="s">
         <v>71</v>
       </c>
       <c r="K66" s="10" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="L66" s="10" t="s">
         <v>71</v>
@@ -22768,7 +22772,7 @@
         <v>284</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D67" s="10">
         <v>2.78</v>
@@ -22812,7 +22816,7 @@
         <v>290</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D68" s="10">
         <v>3.45</v>
@@ -22856,7 +22860,7 @@
         <v>296</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D69" s="10">
         <v>1.4</v>
@@ -22880,7 +22884,7 @@
         <v>20</v>
       </c>
       <c r="K69" s="10" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="L69" s="10" t="s">
         <v>31</v>
@@ -22900,7 +22904,7 @@
         <v>302</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D70" s="10">
         <v>2.2400000000000002</v>
@@ -22924,7 +22928,7 @@
         <v>20</v>
       </c>
       <c r="K70" s="10" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="L70" s="10" t="s">
         <v>31</v>
@@ -22944,7 +22948,7 @@
         <v>310</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D71" s="10">
         <v>2.2000000000000002</v>
@@ -22968,7 +22972,7 @@
         <v>20</v>
       </c>
       <c r="K71" s="10" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="L71" s="10" t="s">
         <v>31</v>
@@ -22988,7 +22992,7 @@
         <v>317</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D72" s="10">
         <v>3.2</v>
@@ -23032,7 +23036,7 @@
         <v>322</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D73" s="10">
         <v>1.95</v>
@@ -23076,7 +23080,7 @@
         <v>328</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D74" s="10">
         <v>2.2999999999999998</v>
@@ -23100,7 +23104,7 @@
         <v>20</v>
       </c>
       <c r="K74" s="10" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="L74" s="10" t="s">
         <v>31</v>
@@ -23120,7 +23124,7 @@
         <v>333</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D75" s="10">
         <v>3.3</v>
@@ -23164,7 +23168,7 @@
         <v>333</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D76" s="10">
         <v>3.3</v>
@@ -23208,7 +23212,7 @@
         <v>333</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D77" s="10">
         <v>3.3</v>
@@ -23252,7 +23256,7 @@
         <v>333</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D78" s="10">
         <v>3.3</v>
@@ -23296,7 +23300,7 @@
         <v>333</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D79" s="10">
         <v>3.3</v>
@@ -23311,7 +23315,7 @@
         <v>173</v>
       </c>
       <c r="H79" s="10" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="I79" s="10" t="s">
         <v>127</v>
@@ -23320,7 +23324,7 @@
         <v>20</v>
       </c>
       <c r="K79" s="10" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="L79" s="10" t="s">
         <v>31</v>
@@ -23340,7 +23344,7 @@
         <v>333</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D80" s="10">
         <v>3.3</v>
@@ -23355,7 +23359,7 @@
         <v>173</v>
       </c>
       <c r="H80" s="10" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="I80" s="10" t="s">
         <v>127</v>
@@ -23364,7 +23368,7 @@
         <v>20</v>
       </c>
       <c r="K80" s="10" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="L80" s="10" t="s">
         <v>31</v>
@@ -23384,7 +23388,7 @@
         <v>343</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D81" s="10">
         <v>3.5</v>
@@ -23428,7 +23432,7 @@
         <v>350</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D82" s="10">
         <v>3.1</v>
@@ -23472,7 +23476,7 @@
         <v>355</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D83" s="10">
         <v>1.9</v>
@@ -23516,7 +23520,7 @@
         <v>361</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D84" s="10">
         <v>2.6</v>
@@ -23540,7 +23544,7 @@
         <v>20</v>
       </c>
       <c r="K84" s="10" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="L84" s="10" t="s">
         <v>31</v>
@@ -23560,7 +23564,7 @@
         <v>367</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D85" s="10">
         <v>2.8</v>
@@ -23604,7 +23608,7 @@
         <v>367</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D86" s="10">
         <v>2.8</v>
@@ -23648,7 +23652,7 @@
         <v>374</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D87" s="10">
         <v>2.7</v>
@@ -23672,7 +23676,7 @@
         <v>20</v>
       </c>
       <c r="K87" s="10" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="L87" s="10" t="s">
         <v>20</v>
@@ -23692,7 +23696,7 @@
         <v>380</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D88" s="10">
         <v>1.9</v>
@@ -23736,7 +23740,7 @@
         <v>386</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D89" s="10">
         <v>3.1</v>
@@ -23772,7 +23776,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="10" t="s">
         <v>391</v>
       </c>
@@ -23780,7 +23784,7 @@
         <v>392</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D90" s="10">
         <v>2.4</v>
@@ -23804,7 +23808,7 @@
         <v>31</v>
       </c>
       <c r="K90" s="10" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="L90" s="10" t="s">
         <v>31</v>
@@ -23824,7 +23828,7 @@
         <v>400</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D91" s="10">
         <v>1.7</v>
@@ -23848,7 +23852,7 @@
         <v>20</v>
       </c>
       <c r="K91" s="10" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="L91" s="10" t="s">
         <v>31</v>
@@ -23868,7 +23872,7 @@
         <v>412</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D92" s="10">
         <v>2.6</v>
@@ -23892,7 +23896,7 @@
         <v>20</v>
       </c>
       <c r="K92" s="10" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="L92" s="10" t="s">
         <v>31</v>
@@ -23912,7 +23916,7 @@
         <v>418</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="D93" s="10">
         <v>2.2000000000000002</v>
@@ -23956,7 +23960,7 @@
         <v>424</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D94" s="10">
         <v>3.26</v>
@@ -23980,7 +23984,7 @@
         <v>20</v>
       </c>
       <c r="K94" s="10" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="L94" s="10" t="s">
         <v>31</v>
@@ -24000,7 +24004,7 @@
         <v>445</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D95" s="10">
         <v>2.7</v>
@@ -24030,21 +24034,21 @@
         <v>19</v>
       </c>
       <c r="M95" s="10" t="s">
+        <v>447</v>
+      </c>
+      <c r="N95" s="10" t="s">
         <v>448</v>
-      </c>
-      <c r="N95" s="10" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="B96" s="10" t="s">
         <v>450</v>
       </c>
-      <c r="B96" s="10" t="s">
-        <v>451</v>
-      </c>
       <c r="C96" s="10" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D96" s="10">
         <v>3.5</v>
@@ -24056,7 +24060,7 @@
         <v>4</v>
       </c>
       <c r="G96" s="10" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="H96" s="10" t="s">
         <v>28</v>
@@ -24068,27 +24072,27 @@
         <v>20</v>
       </c>
       <c r="K96" s="10" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="L96" s="10" t="s">
         <v>31</v>
       </c>
       <c r="M96" s="10" t="s">
+        <v>455</v>
+      </c>
+      <c r="N96" s="10" t="s">
         <v>456</v>
-      </c>
-      <c r="N96" s="10" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" s="10" t="s">
+        <v>462</v>
+      </c>
+      <c r="B97" s="10" t="s">
         <v>463</v>
       </c>
-      <c r="B97" s="10" t="s">
-        <v>464</v>
-      </c>
       <c r="C97" s="10" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D97" s="10">
         <v>3.3</v>
@@ -24118,21 +24122,21 @@
         <v>19</v>
       </c>
       <c r="M97" s="10" t="s">
+        <v>466</v>
+      </c>
+      <c r="N97" s="10" t="s">
         <v>467</v>
-      </c>
-      <c r="N97" s="10" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" s="10" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="D98" s="10">
         <v>2.2999999999999998</v>
@@ -24162,21 +24166,21 @@
         <v>19</v>
       </c>
       <c r="M98" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="N98" s="10" t="s">
         <v>478</v>
-      </c>
-      <c r="N98" s="10" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="B99" s="10" t="s">
         <v>486</v>
       </c>
-      <c r="B99" s="10" t="s">
-        <v>487</v>
-      </c>
       <c r="C99" s="10" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D99" s="10">
         <v>3.5</v>
@@ -24200,27 +24204,27 @@
         <v>20</v>
       </c>
       <c r="K99" s="10" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="L99" s="10" t="s">
         <v>31</v>
       </c>
       <c r="M99" s="10" t="s">
+        <v>490</v>
+      </c>
+      <c r="N99" s="10" t="s">
         <v>491</v>
-      </c>
-      <c r="N99" s="10" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="B100" s="10" t="s">
         <v>493</v>
       </c>
-      <c r="B100" s="10" t="s">
-        <v>494</v>
-      </c>
       <c r="C100" s="10" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D100" s="10">
         <v>2.99</v>
@@ -24250,21 +24254,21 @@
         <v>19</v>
       </c>
       <c r="M100" s="10" t="s">
+        <v>497</v>
+      </c>
+      <c r="N100" s="10" t="s">
         <v>498</v>
       </c>
-      <c r="N100" s="10" t="s">
+    </row>
+    <row r="101" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="10" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A101" s="10" t="s">
+      <c r="B101" s="10" t="s">
         <v>500</v>
       </c>
-      <c r="B101" s="10" t="s">
-        <v>501</v>
-      </c>
       <c r="C101" s="10" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="D101" s="10">
         <v>1.9</v>
@@ -24294,21 +24298,21 @@
         <v>19</v>
       </c>
       <c r="M101" s="10" t="s">
+        <v>503</v>
+      </c>
+      <c r="N101" s="10" t="s">
         <v>504</v>
-      </c>
-      <c r="N101" s="10" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" s="10" t="s">
+        <v>516</v>
+      </c>
+      <c r="B102" s="10" t="s">
         <v>517</v>
       </c>
-      <c r="B102" s="10" t="s">
-        <v>518</v>
-      </c>
       <c r="C102" s="10" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D102" s="10">
         <v>3.01</v>
@@ -24338,21 +24342,21 @@
         <v>19</v>
       </c>
       <c r="M102" s="10" t="s">
+        <v>521</v>
+      </c>
+      <c r="N102" s="10" t="s">
         <v>522</v>
-      </c>
-      <c r="N102" s="10" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" s="10" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="D103" s="10">
         <v>2.4</v>
@@ -24382,21 +24386,21 @@
         <v>19</v>
       </c>
       <c r="M103" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="N103" s="10" t="s">
         <v>528</v>
-      </c>
-      <c r="N103" s="10" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" s="10" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D104" s="10">
         <v>2.1</v>
@@ -24420,27 +24424,27 @@
         <v>20</v>
       </c>
       <c r="K104" s="10" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="L104" s="10" t="s">
         <v>31</v>
       </c>
       <c r="M104" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="N104" s="10" t="s">
         <v>543</v>
-      </c>
-      <c r="N104" s="10" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" s="10" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D105" s="10">
         <v>3.29</v>
@@ -24470,21 +24474,21 @@
         <v>19</v>
       </c>
       <c r="M105" s="10" t="s">
+        <v>548</v>
+      </c>
+      <c r="N105" s="10" t="s">
         <v>549</v>
-      </c>
-      <c r="N105" s="10" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" s="10" t="s">
+        <v>550</v>
+      </c>
+      <c r="B106" s="10" t="s">
         <v>551</v>
       </c>
-      <c r="B106" s="10" t="s">
-        <v>552</v>
-      </c>
       <c r="C106" s="10" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D106" s="10">
         <v>2.25</v>
@@ -24514,21 +24518,21 @@
         <v>19</v>
       </c>
       <c r="M106" s="10" t="s">
+        <v>555</v>
+      </c>
+      <c r="N106" s="10" t="s">
         <v>556</v>
-      </c>
-      <c r="N106" s="10" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" s="10" t="s">
+        <v>557</v>
+      </c>
+      <c r="B107" s="10" t="s">
         <v>558</v>
       </c>
-      <c r="B107" s="10" t="s">
-        <v>559</v>
-      </c>
       <c r="C107" s="10" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D107" s="10">
         <v>2.8</v>
@@ -24552,27 +24556,27 @@
         <v>31</v>
       </c>
       <c r="K107" s="10" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="L107" s="10" t="s">
         <v>31</v>
       </c>
       <c r="M107" s="10" t="s">
+        <v>568</v>
+      </c>
+      <c r="N107" s="10" t="s">
         <v>569</v>
-      </c>
-      <c r="N107" s="10" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" s="10" t="s">
+        <v>557</v>
+      </c>
+      <c r="B108" s="10" t="s">
         <v>558</v>
       </c>
-      <c r="B108" s="10" t="s">
-        <v>559</v>
-      </c>
       <c r="C108" s="10" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D108" s="10">
         <v>2.8</v>
@@ -24602,21 +24606,21 @@
         <v>19</v>
       </c>
       <c r="M108" s="10" t="s">
+        <v>568</v>
+      </c>
+      <c r="N108" s="10" t="s">
         <v>569</v>
-      </c>
-      <c r="N108" s="10" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109" s="10" t="s">
+        <v>557</v>
+      </c>
+      <c r="B109" s="10" t="s">
         <v>558</v>
       </c>
-      <c r="B109" s="10" t="s">
-        <v>559</v>
-      </c>
       <c r="C109" s="10" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="D109" s="10">
         <v>2.8</v>
@@ -24646,21 +24650,21 @@
         <v>19</v>
       </c>
       <c r="M109" s="10" t="s">
+        <v>568</v>
+      </c>
+      <c r="N109" s="10" t="s">
         <v>569</v>
-      </c>
-      <c r="N109" s="10" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110" s="10" t="s">
+        <v>557</v>
+      </c>
+      <c r="B110" s="10" t="s">
         <v>558</v>
       </c>
-      <c r="B110" s="10" t="s">
-        <v>559</v>
-      </c>
       <c r="C110" s="10" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="D110" s="10">
         <v>2.8</v>
@@ -24690,21 +24694,21 @@
         <v>19</v>
       </c>
       <c r="M110" s="10" t="s">
+        <v>568</v>
+      </c>
+      <c r="N110" s="10" t="s">
         <v>569</v>
-      </c>
-      <c r="N110" s="10" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
+        <v>557</v>
+      </c>
+      <c r="B111" s="10" t="s">
         <v>558</v>
       </c>
-      <c r="B111" s="10" t="s">
-        <v>559</v>
-      </c>
       <c r="C111" s="10" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D111" s="10">
         <v>2.8</v>
@@ -24734,21 +24738,21 @@
         <v>19</v>
       </c>
       <c r="M111" s="10" t="s">
+        <v>568</v>
+      </c>
+      <c r="N111" s="10" t="s">
         <v>569</v>
-      </c>
-      <c r="N111" s="10" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112" s="10" t="s">
+        <v>557</v>
+      </c>
+      <c r="B112" s="10" t="s">
         <v>558</v>
       </c>
-      <c r="B112" s="10" t="s">
-        <v>559</v>
-      </c>
       <c r="C112" s="10" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D112" s="10">
         <v>2.8</v>
@@ -24778,21 +24782,21 @@
         <v>19</v>
       </c>
       <c r="M112" s="10" t="s">
+        <v>568</v>
+      </c>
+      <c r="N112" s="10" t="s">
         <v>569</v>
-      </c>
-      <c r="N112" s="10" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113" s="10" t="s">
+        <v>557</v>
+      </c>
+      <c r="B113" s="10" t="s">
         <v>558</v>
       </c>
-      <c r="B113" s="10" t="s">
-        <v>559</v>
-      </c>
       <c r="C113" s="10" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="D113" s="10">
         <v>2.8</v>
@@ -24822,21 +24826,21 @@
         <v>19</v>
       </c>
       <c r="M113" s="10" t="s">
+        <v>568</v>
+      </c>
+      <c r="N113" s="10" t="s">
         <v>569</v>
-      </c>
-      <c r="N113" s="10" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114" s="10" t="s">
+        <v>570</v>
+      </c>
+      <c r="B114" s="10" t="s">
         <v>571</v>
       </c>
-      <c r="B114" s="10" t="s">
-        <v>572</v>
-      </c>
       <c r="C114" s="10" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="D114" s="10">
         <v>1.78</v>
@@ -24866,21 +24870,21 @@
         <v>19</v>
       </c>
       <c r="M114" s="10" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="N114" s="10" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115" s="10" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D115" s="10">
         <v>1.6</v>
@@ -24904,27 +24908,27 @@
         <v>20</v>
       </c>
       <c r="K115" s="10" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="L115" s="10" t="s">
         <v>31</v>
       </c>
       <c r="M115" s="10" t="s">
+        <v>580</v>
+      </c>
+      <c r="N115" s="10" t="s">
         <v>581</v>
-      </c>
-      <c r="N115" s="10" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116" s="10" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C116" s="10" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="D116" s="10">
         <v>2.8</v>
@@ -24954,21 +24958,21 @@
         <v>19</v>
       </c>
       <c r="M116" s="10" t="s">
+        <v>585</v>
+      </c>
+      <c r="N116" s="10" t="s">
         <v>586</v>
-      </c>
-      <c r="N116" s="10" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117" s="10" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="D117" s="10">
         <v>2.8</v>
@@ -24998,21 +25002,21 @@
         <v>19</v>
       </c>
       <c r="M117" s="10" t="s">
+        <v>585</v>
+      </c>
+      <c r="N117" s="10" t="s">
         <v>586</v>
-      </c>
-      <c r="N117" s="10" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118" s="10" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="D118" s="10">
         <v>1.9</v>
@@ -25042,21 +25046,21 @@
         <v>19</v>
       </c>
       <c r="M118" s="10" t="s">
+        <v>589</v>
+      </c>
+      <c r="N118" s="10" t="s">
         <v>590</v>
       </c>
-      <c r="N118" s="10" t="s">
+    </row>
+    <row r="119" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="10" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A119" s="10" t="s">
+      <c r="B119" s="10" t="s">
         <v>592</v>
       </c>
-      <c r="B119" s="10" t="s">
-        <v>593</v>
-      </c>
       <c r="C119" s="10" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="D119" s="10">
         <v>2.5</v>
@@ -25080,27 +25084,27 @@
         <v>20</v>
       </c>
       <c r="K119" s="10" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="L119" s="10" t="s">
         <v>31</v>
       </c>
       <c r="M119" s="10" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="N119" s="10" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="10" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A120" s="10" t="s">
+      <c r="B120" s="10" t="s">
         <v>597</v>
       </c>
-      <c r="B120" s="10" t="s">
-        <v>598</v>
-      </c>
       <c r="C120" s="10" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="D120" s="10">
         <v>1.9</v>
@@ -25124,27 +25128,27 @@
         <v>31</v>
       </c>
       <c r="K120" s="10" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="L120" s="10" t="s">
         <v>31</v>
       </c>
       <c r="M120" s="10" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="N120" s="10" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="10" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A121" s="10" t="s">
+      <c r="B121" s="10" t="s">
         <v>602</v>
       </c>
-      <c r="B121" s="10" t="s">
-        <v>603</v>
-      </c>
       <c r="C121" s="10" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="D121" s="10">
         <v>2.0299999999999998</v>
@@ -25168,27 +25172,27 @@
         <v>31</v>
       </c>
       <c r="K121" s="10" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="L121" s="10" t="s">
         <v>31</v>
       </c>
       <c r="M121" s="10" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="N121" s="10" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="10" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A122" s="10" t="s">
-        <v>607</v>
-      </c>
       <c r="B122" s="10" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="D122" s="10">
         <v>2.1</v>
@@ -25203,7 +25207,7 @@
         <v>27</v>
       </c>
       <c r="H122" s="10" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="I122" s="10" t="s">
         <v>127</v>
@@ -25212,27 +25216,27 @@
         <v>20</v>
       </c>
       <c r="K122" s="10" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="L122" s="10" t="s">
         <v>31</v>
       </c>
       <c r="M122" s="10" t="s">
+        <v>609</v>
+      </c>
+      <c r="N122" s="10" t="s">
         <v>610</v>
       </c>
-      <c r="N122" s="10" t="s">
+    </row>
+    <row r="123" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="10" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A123" s="10" t="s">
+      <c r="B123" s="10" t="s">
         <v>612</v>
       </c>
-      <c r="B123" s="10" t="s">
-        <v>613</v>
-      </c>
       <c r="C123" s="10" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D123" s="10">
         <v>2.17</v>
@@ -25256,27 +25260,27 @@
         <v>31</v>
       </c>
       <c r="K123" s="10" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="L123" s="10" t="s">
         <v>31</v>
       </c>
       <c r="M123" s="10" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="N123" s="10" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="10" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A124" s="10" t="s">
+      <c r="B124" s="10" t="s">
         <v>617</v>
       </c>
-      <c r="B124" s="10" t="s">
-        <v>618</v>
-      </c>
       <c r="C124" s="10" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="D124" s="10">
         <v>1.85</v>
@@ -25300,27 +25304,27 @@
         <v>31</v>
       </c>
       <c r="K124" s="10" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="L124" s="10" t="s">
         <v>31</v>
       </c>
       <c r="M124" s="10" t="s">
+        <v>620</v>
+      </c>
+      <c r="N124" s="10" t="s">
         <v>621</v>
       </c>
-      <c r="N124" s="10" t="s">
+    </row>
+    <row r="125" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="10" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A125" s="10" t="s">
+      <c r="B125" s="10" t="s">
         <v>623</v>
       </c>
-      <c r="B125" s="10" t="s">
-        <v>624</v>
-      </c>
       <c r="C125" s="10" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="D125" s="10">
         <v>2.1</v>
@@ -25344,27 +25348,27 @@
         <v>31</v>
       </c>
       <c r="K125" s="10" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="L125" s="10" t="s">
         <v>31</v>
       </c>
       <c r="M125" s="10" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="N125" s="10" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="10" t="s">
         <v>627</v>
       </c>
-    </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A126" s="10" t="s">
+      <c r="B126" s="10" t="s">
         <v>628</v>
       </c>
-      <c r="B126" s="10" t="s">
-        <v>629</v>
-      </c>
       <c r="C126" s="10" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="D126" s="10">
         <v>2.6</v>
@@ -25388,27 +25392,27 @@
         <v>31</v>
       </c>
       <c r="K126" s="10" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="L126" s="10" t="s">
         <v>31</v>
       </c>
       <c r="M126" s="10" t="s">
+        <v>632</v>
+      </c>
+      <c r="N126" s="10" t="s">
         <v>633</v>
       </c>
-      <c r="N126" s="10" t="s">
+    </row>
+    <row r="127" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="10" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A127" s="10" t="s">
+      <c r="B127" s="10" t="s">
         <v>635</v>
       </c>
-      <c r="B127" s="10" t="s">
-        <v>636</v>
-      </c>
       <c r="C127" s="10" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D127" s="10">
         <v>2.2999999999999998</v>
@@ -25438,21 +25442,21 @@
         <v>19</v>
       </c>
       <c r="M127" s="10" t="s">
+        <v>638</v>
+      </c>
+      <c r="N127" s="10" t="s">
         <v>639</v>
       </c>
-      <c r="N127" s="10" t="s">
+    </row>
+    <row r="128" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="10" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A128" s="10" t="s">
+      <c r="B128" s="10" t="s">
         <v>641</v>
       </c>
-      <c r="B128" s="10" t="s">
-        <v>642</v>
-      </c>
       <c r="C128" s="10" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D128" s="10">
         <v>2.6</v>
@@ -25476,27 +25480,27 @@
         <v>31</v>
       </c>
       <c r="K128" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="L128" s="10" t="s">
         <v>31</v>
       </c>
       <c r="M128" s="10" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="N128" s="10" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="10" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A129" s="10" t="s">
+      <c r="B129" s="10" t="s">
         <v>646</v>
       </c>
-      <c r="B129" s="10" t="s">
-        <v>647</v>
-      </c>
       <c r="C129" s="10" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="D129" s="10">
         <v>2.2999999999999998</v>
@@ -25520,27 +25524,27 @@
         <v>31</v>
       </c>
       <c r="K129" s="10" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="L129" s="10" t="s">
         <v>31</v>
       </c>
       <c r="M129" s="10" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="N129" s="10" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="10" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A130" s="10" t="s">
+      <c r="B130" s="10" t="s">
         <v>651</v>
       </c>
-      <c r="B130" s="10" t="s">
-        <v>652</v>
-      </c>
       <c r="C130" s="10" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="D130" s="10">
         <v>2.9</v>
@@ -25570,21 +25574,21 @@
         <v>19</v>
       </c>
       <c r="M130" s="10" t="s">
+        <v>654</v>
+      </c>
+      <c r="N130" s="10" t="s">
         <v>655</v>
       </c>
-      <c r="N130" s="10" t="s">
+    </row>
+    <row r="131" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="10" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A131" s="10" t="s">
+      <c r="B131" s="10" t="s">
         <v>657</v>
       </c>
-      <c r="B131" s="10" t="s">
-        <v>658</v>
-      </c>
       <c r="C131" s="10" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="D131" s="10">
         <v>2.5</v>
@@ -25614,21 +25618,21 @@
         <v>19</v>
       </c>
       <c r="M131" s="10" t="s">
+        <v>660</v>
+      </c>
+      <c r="N131" s="10" t="s">
         <v>661</v>
       </c>
-      <c r="N131" s="10" t="s">
+    </row>
+    <row r="132" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="10" t="s">
         <v>662</v>
       </c>
-    </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A132" s="10" t="s">
+      <c r="B132" s="10" t="s">
         <v>663</v>
       </c>
-      <c r="B132" s="10" t="s">
-        <v>664</v>
-      </c>
       <c r="C132" s="10" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="D132" s="10">
         <v>1.94</v>
@@ -25640,7 +25644,7 @@
         <v>8</v>
       </c>
       <c r="G132" s="10" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="H132" s="10" t="s">
         <v>28</v>
@@ -25652,27 +25656,27 @@
         <v>31</v>
       </c>
       <c r="K132" s="10" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="L132" s="10" t="s">
         <v>31</v>
       </c>
       <c r="M132" s="10" t="s">
+        <v>667</v>
+      </c>
+      <c r="N132" s="10" t="s">
         <v>668</v>
       </c>
-      <c r="N132" s="10" t="s">
+    </row>
+    <row r="133" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="10" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A133" s="10" t="s">
-        <v>670</v>
-      </c>
       <c r="B133" s="10" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="D133" s="10">
         <v>1.96</v>
@@ -25684,7 +25688,7 @@
         <v>8</v>
       </c>
       <c r="G133" s="10" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="H133" s="10" t="s">
         <v>28</v>
@@ -25696,27 +25700,27 @@
         <v>31</v>
       </c>
       <c r="K133" s="10" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="L133" s="10" t="s">
         <v>31</v>
       </c>
       <c r="M133" s="10" t="s">
+        <v>882</v>
+      </c>
+      <c r="N133" s="10" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="10" t="s">
+        <v>674</v>
+      </c>
+      <c r="B134" s="10" t="s">
+        <v>674</v>
+      </c>
+      <c r="C134" s="10" t="s">
         <v>883</v>
-      </c>
-      <c r="N133" s="10" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A134" s="10" t="s">
-        <v>675</v>
-      </c>
-      <c r="B134" s="10" t="s">
-        <v>675</v>
-      </c>
-      <c r="C134" s="10" t="s">
-        <v>884</v>
       </c>
       <c r="D134" s="10">
         <v>3.1</v>
@@ -25746,21 +25750,21 @@
         <v>19</v>
       </c>
       <c r="M134" s="10" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="N134" s="10" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="10" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A135" s="10" t="s">
+      <c r="B135" s="10" t="s">
         <v>680</v>
       </c>
-      <c r="B135" s="10" t="s">
-        <v>681</v>
-      </c>
       <c r="C135" s="10" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D135" s="10">
         <v>2.9</v>
@@ -25784,27 +25788,27 @@
         <v>31</v>
       </c>
       <c r="K135" s="10" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="L135" s="10" t="s">
         <v>31</v>
       </c>
       <c r="M135" s="10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="N135" s="10" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="10" t="s">
         <v>684</v>
       </c>
-    </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A136" s="10" t="s">
+      <c r="B136" s="10" t="s">
         <v>685</v>
       </c>
-      <c r="B136" s="10" t="s">
-        <v>686</v>
-      </c>
       <c r="C136" s="10" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="D136" s="10">
         <v>2.2999999999999998</v>
@@ -25834,21 +25838,21 @@
         <v>19</v>
       </c>
       <c r="M136" s="10" t="s">
+        <v>687</v>
+      </c>
+      <c r="N136" s="10" t="s">
         <v>688</v>
       </c>
-      <c r="N136" s="10" t="s">
+    </row>
+    <row r="137" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="10" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A137" s="10" t="s">
+      <c r="B137" s="10" t="s">
         <v>690</v>
       </c>
-      <c r="B137" s="10" t="s">
-        <v>691</v>
-      </c>
       <c r="C137" s="10" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="D137" s="10">
         <v>3.31</v>
@@ -25872,27 +25876,27 @@
         <v>31</v>
       </c>
       <c r="K137" s="10" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="L137" s="10" t="s">
         <v>31</v>
       </c>
       <c r="M137" s="10" t="s">
+        <v>693</v>
+      </c>
+      <c r="N137" s="10" t="s">
         <v>694</v>
       </c>
-      <c r="N137" s="10" t="s">
+    </row>
+    <row r="138" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="10" t="s">
         <v>695</v>
       </c>
-    </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A138" s="10" t="s">
-        <v>696</v>
-      </c>
       <c r="B138" s="10" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="D138" s="10">
         <v>3.2</v>
@@ -25916,27 +25920,27 @@
         <v>31</v>
       </c>
       <c r="K138" s="10" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="L138" s="10" t="s">
         <v>31</v>
       </c>
       <c r="M138" s="10" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="N138" s="10" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="10" t="s">
         <v>699</v>
       </c>
-    </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A139" s="10" t="s">
-        <v>700</v>
-      </c>
       <c r="B139" s="10" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C139" s="10" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="D139" s="10">
         <v>2.9380000000000002</v>
@@ -25960,27 +25964,27 @@
         <v>31</v>
       </c>
       <c r="K139" s="10" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="L139" s="10" t="s">
         <v>31</v>
       </c>
       <c r="M139" s="10" t="s">
+        <v>702</v>
+      </c>
+      <c r="N139" s="10" t="s">
         <v>703</v>
       </c>
-      <c r="N139" s="10" t="s">
+    </row>
+    <row r="140" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="10" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A140" s="10" t="s">
-        <v>705</v>
-      </c>
       <c r="B140" s="10" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C140" s="10" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="D140" s="10">
         <v>2.9</v>
@@ -26010,13 +26014,20 @@
         <v>19</v>
       </c>
       <c r="M140" s="10" t="s">
+        <v>707</v>
+      </c>
+      <c r="N140" s="10" t="s">
         <v>708</v>
       </c>
-      <c r="N140" s="10" t="s">
-        <v>709</v>
-      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:N140" xr:uid="{224D4B50-BC1D-4C47-95D3-20B57867F717}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="alpha"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -26031,8 +26042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView tabSelected="1" topLeftCell="E27" workbookViewId="0">
+      <selection activeCell="M50" sqref="M50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26082,7 +26093,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>8</v>
@@ -26097,7 +26108,7 @@
         <v>11</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="O1" s="5" t="s">
         <v>12</v>
@@ -26294,7 +26305,7 @@
         <v>20</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="N5" s="10" t="s">
         <v>31</v>
@@ -26344,7 +26355,7 @@
         <v>20</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="N6" s="10" t="s">
         <v>31</v>
@@ -26394,7 +26405,7 @@
         <v>20</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="N7" s="10" t="s">
         <v>31</v>
@@ -26491,7 +26502,7 @@
         <v>20</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="N9" s="10" t="s">
         <v>31</v>
@@ -26500,7 +26511,7 @@
         <v>117</v>
       </c>
       <c r="P9" s="10" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
@@ -26541,7 +26552,7 @@
         <v>20</v>
       </c>
       <c r="M10" s="10" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="N10" s="10" t="s">
         <v>31</v>
@@ -26691,7 +26702,7 @@
         <v>20</v>
       </c>
       <c r="M13" s="10" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="N13" s="10" t="s">
         <v>31</v>
@@ -26791,7 +26802,7 @@
         <v>20</v>
       </c>
       <c r="M15" s="10" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="N15" s="10" t="s">
         <v>31</v>
@@ -26891,7 +26902,7 @@
         <v>20</v>
       </c>
       <c r="M17" s="10" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="N17" s="10" t="s">
         <v>31</v>
@@ -26941,7 +26952,7 @@
         <v>20</v>
       </c>
       <c r="M18" s="10" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="N18" s="10" t="s">
         <v>31</v>
@@ -26991,7 +27002,7 @@
         <v>20</v>
       </c>
       <c r="M19" s="10" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="N19" s="10" t="s">
         <v>31</v>
@@ -27008,7 +27019,7 @@
         <v>189</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>191</v>
@@ -27238,7 +27249,7 @@
         <v>20</v>
       </c>
       <c r="M24" s="10" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="N24" s="10" t="s">
         <v>31</v>
@@ -27288,7 +27299,7 @@
         <v>20</v>
       </c>
       <c r="M25" s="10" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="N25" s="10" t="s">
         <v>31</v>
@@ -27338,7 +27349,7 @@
         <v>20</v>
       </c>
       <c r="M26" s="10" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="N26" s="10" t="s">
         <v>31</v>
@@ -27438,7 +27449,7 @@
         <v>20</v>
       </c>
       <c r="M28" s="10" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="N28" s="10" t="s">
         <v>31</v>
@@ -27488,7 +27499,7 @@
         <v>20</v>
       </c>
       <c r="M29" s="10" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="N29" s="10" t="s">
         <v>31</v>
@@ -27538,7 +27549,7 @@
         <v>20</v>
       </c>
       <c r="M30" s="10" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="N30" s="10" t="s">
         <v>31</v>
@@ -27588,7 +27599,7 @@
         <v>20</v>
       </c>
       <c r="M31" s="10" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="N31" s="10" t="s">
         <v>31</v>
@@ -27638,7 +27649,7 @@
         <v>20</v>
       </c>
       <c r="M32" s="10" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="N32" s="10" t="s">
         <v>31</v>
@@ -27738,7 +27749,7 @@
         <v>20</v>
       </c>
       <c r="M34" s="10" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="N34" s="10" t="s">
         <v>31</v>
@@ -27779,7 +27790,7 @@
         <v>27</v>
       </c>
       <c r="J35" s="10" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="K35" s="10" t="s">
         <v>29</v>
@@ -27788,7 +27799,7 @@
         <v>20</v>
       </c>
       <c r="M35" s="10" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="N35" s="10" t="s">
         <v>31</v>
@@ -27938,7 +27949,7 @@
         <v>20</v>
       </c>
       <c r="M38" s="10" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="N38" s="10" t="s">
         <v>31</v>
@@ -28038,7 +28049,7 @@
         <v>20</v>
       </c>
       <c r="M40" s="10" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N40" s="10" t="s">
         <v>31</v>
@@ -28164,7 +28175,7 @@
         <v>2.4</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>17</v>
+        <v>394</v>
       </c>
       <c r="F43" s="10" t="s">
         <v>240</v>
@@ -28188,7 +28199,7 @@
         <v>20</v>
       </c>
       <c r="M43" s="10" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="N43" s="10" t="s">
         <v>31</v>
@@ -28238,7 +28249,7 @@
         <v>20</v>
       </c>
       <c r="M44" s="10" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="N44" s="10" t="s">
         <v>31</v>
@@ -28335,7 +28346,7 @@
         <v>20</v>
       </c>
       <c r="M46" s="10" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="N46" s="10" t="s">
         <v>31</v>
@@ -28385,7 +28396,7 @@
         <v>20</v>
       </c>
       <c r="M47" s="10" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="N47" s="10" t="s">
         <v>31</v>
@@ -28529,27 +28540,27 @@
         <v>20</v>
       </c>
       <c r="M50" s="10" t="s">
-        <v>447</v>
+        <v>933</v>
       </c>
       <c r="N50" s="10" t="s">
         <v>31</v>
       </c>
       <c r="O50" s="10" t="s">
+        <v>447</v>
+      </c>
+      <c r="P50" s="10" t="s">
         <v>448</v>
-      </c>
-      <c r="P50" s="10" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="B51" s="10" t="s">
         <v>450</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="C51" s="10" t="s">
         <v>451</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>452</v>
       </c>
       <c r="D51" s="10">
         <v>3.5</v>
@@ -28558,10 +28569,10 @@
         <v>17</v>
       </c>
       <c r="F51" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="G51" s="10" t="s">
         <v>453</v>
-      </c>
-      <c r="G51" s="10" t="s">
-        <v>454</v>
       </c>
       <c r="H51" s="10">
         <v>2</v>
@@ -28579,27 +28590,27 @@
         <v>20</v>
       </c>
       <c r="M51" s="10" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="N51" s="10" t="s">
         <v>31</v>
       </c>
       <c r="O51" s="10" t="s">
+        <v>455</v>
+      </c>
+      <c r="P51" s="10" t="s">
         <v>456</v>
-      </c>
-      <c r="P51" s="10" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
+        <v>457</v>
+      </c>
+      <c r="B52" s="10" t="s">
         <v>458</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="C52" s="10" t="s">
         <v>459</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>460</v>
       </c>
       <c r="D52" s="10">
         <v>2.4</v>
@@ -28626,27 +28637,27 @@
         <v>20</v>
       </c>
       <c r="M52" s="10" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="N52" s="10" t="s">
         <v>31</v>
       </c>
       <c r="O52" s="10" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="P52" s="10" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
+        <v>462</v>
+      </c>
+      <c r="B53" s="10" t="s">
         <v>463</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="C53" s="10" t="s">
         <v>464</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>465</v>
       </c>
       <c r="D53" s="10">
         <v>3.3</v>
@@ -28676,27 +28687,27 @@
         <v>20</v>
       </c>
       <c r="M53" s="10" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="N53" s="10" t="s">
         <v>31</v>
       </c>
       <c r="O53" s="10" t="s">
+        <v>466</v>
+      </c>
+      <c r="P53" s="10" t="s">
         <v>467</v>
-      </c>
-      <c r="P53" s="10" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
+        <v>468</v>
+      </c>
+      <c r="B54" s="10" t="s">
         <v>469</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="C54" s="10" t="s">
         <v>470</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>471</v>
       </c>
       <c r="D54" s="10">
         <v>2.7</v>
@@ -28723,27 +28734,27 @@
         <v>20</v>
       </c>
       <c r="M54" s="10" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="N54" s="10" t="s">
         <v>31</v>
       </c>
       <c r="O54" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="P54" s="10" t="s">
         <v>473</v>
-      </c>
-      <c r="P54" s="10" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
+        <v>474</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>474</v>
+      </c>
+      <c r="C55" s="10" t="s">
         <v>475</v>
-      </c>
-      <c r="B55" s="10" t="s">
-        <v>475</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>476</v>
       </c>
       <c r="D55" s="10">
         <v>2.2999999999999998</v>
@@ -28773,27 +28784,27 @@
         <v>20</v>
       </c>
       <c r="M55" s="10" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="N55" s="10" t="s">
         <v>31</v>
       </c>
       <c r="O55" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="P55" s="10" t="s">
         <v>478</v>
-      </c>
-      <c r="P55" s="10" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
+        <v>479</v>
+      </c>
+      <c r="B56" s="10" t="s">
         <v>480</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="C56" s="10" t="s">
         <v>481</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>482</v>
       </c>
       <c r="D56" s="10">
         <v>3.9409999999999998</v>
@@ -28820,27 +28831,27 @@
         <v>20</v>
       </c>
       <c r="M56" s="10" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="N56" s="10" t="s">
         <v>31</v>
       </c>
       <c r="O56" s="10" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="P56" s="10" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="B57" s="10" t="s">
         <v>486</v>
       </c>
-      <c r="B57" s="10" t="s">
+      <c r="C57" s="10" t="s">
         <v>487</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>488</v>
       </c>
       <c r="D57" s="10">
         <v>3.5</v>
@@ -28870,27 +28881,27 @@
         <v>20</v>
       </c>
       <c r="M57" s="10" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="N57" s="10" t="s">
         <v>31</v>
       </c>
       <c r="O57" s="10" t="s">
+        <v>490</v>
+      </c>
+      <c r="P57" s="10" t="s">
         <v>491</v>
-      </c>
-      <c r="P57" s="10" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="B58" s="10" t="s">
         <v>493</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="C58" s="10" t="s">
         <v>494</v>
-      </c>
-      <c r="C58" s="10" t="s">
-        <v>495</v>
       </c>
       <c r="D58" s="10">
         <v>2.99</v>
@@ -28899,7 +28910,7 @@
         <v>17</v>
       </c>
       <c r="F58" s="10" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G58" s="10" t="s">
         <v>18</v>
@@ -28920,27 +28931,27 @@
         <v>20</v>
       </c>
       <c r="M58" s="10" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="N58" s="10" t="s">
         <v>31</v>
       </c>
       <c r="O58" s="10" t="s">
+        <v>497</v>
+      </c>
+      <c r="P58" s="10" t="s">
         <v>498</v>
-      </c>
-      <c r="P58" s="10" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
+        <v>499</v>
+      </c>
+      <c r="B59" s="10" t="s">
         <v>500</v>
       </c>
-      <c r="B59" s="10" t="s">
+      <c r="C59" s="10" t="s">
         <v>501</v>
-      </c>
-      <c r="C59" s="10" t="s">
-        <v>502</v>
       </c>
       <c r="D59" s="10">
         <v>1.9</v>
@@ -28949,7 +28960,7 @@
         <v>394</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G59" s="10" t="s">
         <v>18</v>
@@ -28970,27 +28981,27 @@
         <v>20</v>
       </c>
       <c r="M59" s="10" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="N59" s="10" t="s">
         <v>31</v>
       </c>
       <c r="O59" s="10" t="s">
+        <v>503</v>
+      </c>
+      <c r="P59" s="10" t="s">
         <v>504</v>
-      </c>
-      <c r="P59" s="10" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="B60" s="10" t="s">
         <v>506</v>
       </c>
-      <c r="B60" s="10" t="s">
+      <c r="C60" s="10" t="s">
         <v>507</v>
-      </c>
-      <c r="C60" s="10" t="s">
-        <v>508</v>
       </c>
       <c r="D60" s="10">
         <v>2.5</v>
@@ -28999,7 +29010,7 @@
         <v>17</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H60" s="10">
         <v>9</v>
@@ -29017,27 +29028,27 @@
         <v>20</v>
       </c>
       <c r="M60" s="10" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="N60" s="10" t="s">
         <v>31</v>
       </c>
       <c r="O60" s="10" t="s">
+        <v>510</v>
+      </c>
+      <c r="P60" s="10" t="s">
         <v>511</v>
-      </c>
-      <c r="P60" s="10" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="B61" s="10" t="s">
         <v>506</v>
       </c>
-      <c r="B61" s="10" t="s">
-        <v>507</v>
-      </c>
       <c r="C61" s="10" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D61" s="10">
         <v>2.4</v>
@@ -29046,7 +29057,7 @@
         <v>17</v>
       </c>
       <c r="F61" s="10" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H61" s="10">
         <v>8</v>
@@ -29064,27 +29075,27 @@
         <v>20</v>
       </c>
       <c r="M61" s="10" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="N61" s="10" t="s">
         <v>31</v>
       </c>
       <c r="O61" s="10" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="P61" s="10" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
+        <v>516</v>
+      </c>
+      <c r="B62" s="10" t="s">
         <v>517</v>
       </c>
-      <c r="B62" s="10" t="s">
-        <v>518</v>
-      </c>
       <c r="C62" s="10" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D62" s="10">
         <v>3.01</v>
@@ -29093,7 +29104,7 @@
         <v>17</v>
       </c>
       <c r="F62" s="10" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="G62" s="10">
         <v>1</v>
@@ -29114,27 +29125,27 @@
         <v>20</v>
       </c>
       <c r="M62" s="10" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="N62" s="10" t="s">
         <v>31</v>
       </c>
       <c r="O62" s="10" t="s">
+        <v>521</v>
+      </c>
+      <c r="P62" s="10" t="s">
         <v>522</v>
-      </c>
-      <c r="P62" s="10" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="C63" s="10" t="s">
         <v>524</v>
-      </c>
-      <c r="B63" s="10" t="s">
-        <v>524</v>
-      </c>
-      <c r="C63" s="10" t="s">
-        <v>525</v>
       </c>
       <c r="D63" s="10">
         <v>2.4</v>
@@ -29143,7 +29154,7 @@
         <v>17</v>
       </c>
       <c r="F63" s="10" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G63" s="10" t="s">
         <v>18</v>
@@ -29164,27 +29175,27 @@
         <v>20</v>
       </c>
       <c r="M63" s="10" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="N63" s="10" t="s">
         <v>31</v>
       </c>
       <c r="O63" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="P63" s="10" t="s">
         <v>528</v>
-      </c>
-      <c r="P63" s="10" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D64" s="10">
         <v>2.5</v>
@@ -29193,7 +29204,7 @@
         <v>17</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H64" s="10">
         <v>13</v>
@@ -29211,27 +29222,27 @@
         <v>20</v>
       </c>
       <c r="M64" s="10" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="N64" s="10" t="s">
         <v>31</v>
       </c>
       <c r="O64" s="10" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="P64" s="10" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65" s="10" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D65" s="10">
         <v>2.13</v>
@@ -29240,7 +29251,7 @@
         <v>17</v>
       </c>
       <c r="F65" s="10" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H65" s="10">
         <v>15</v>
@@ -29258,27 +29269,27 @@
         <v>20</v>
       </c>
       <c r="M65" s="10" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="N65" s="10" t="s">
         <v>31</v>
       </c>
       <c r="O65" s="10" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="P65" s="10" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="C66" s="10" t="s">
         <v>538</v>
-      </c>
-      <c r="B66" s="10" t="s">
-        <v>538</v>
-      </c>
-      <c r="C66" s="10" t="s">
-        <v>539</v>
       </c>
       <c r="D66" s="10">
         <v>2.1</v>
@@ -29287,7 +29298,7 @@
         <v>17</v>
       </c>
       <c r="F66" s="10" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G66" s="10" t="s">
         <v>18</v>
@@ -29308,27 +29319,27 @@
         <v>20</v>
       </c>
       <c r="M66" s="10" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="N66" s="10" t="s">
         <v>31</v>
       </c>
       <c r="O66" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="P66" s="10" t="s">
         <v>543</v>
-      </c>
-      <c r="P66" s="10" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="C67" s="10" t="s">
         <v>545</v>
-      </c>
-      <c r="B67" s="10" t="s">
-        <v>545</v>
-      </c>
-      <c r="C67" s="10" t="s">
-        <v>546</v>
       </c>
       <c r="D67" s="10">
         <v>3.29</v>
@@ -29337,7 +29348,7 @@
         <v>17</v>
       </c>
       <c r="F67" s="10" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="G67" s="10" t="s">
         <v>18</v>
@@ -29358,27 +29369,27 @@
         <v>20</v>
       </c>
       <c r="M67" s="10" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="N67" s="10" t="s">
         <v>31</v>
       </c>
       <c r="O67" s="10" t="s">
+        <v>548</v>
+      </c>
+      <c r="P67" s="10" t="s">
         <v>549</v>
-      </c>
-      <c r="P67" s="10" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
+        <v>550</v>
+      </c>
+      <c r="B68" s="10" t="s">
         <v>551</v>
       </c>
-      <c r="B68" s="10" t="s">
+      <c r="C68" s="10" t="s">
         <v>552</v>
-      </c>
-      <c r="C68" s="10" t="s">
-        <v>553</v>
       </c>
       <c r="D68" s="10">
         <v>2.25</v>
@@ -29387,7 +29398,7 @@
         <v>17</v>
       </c>
       <c r="F68" s="10" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G68" s="10" t="s">
         <v>18</v>
@@ -29408,27 +29419,27 @@
         <v>20</v>
       </c>
       <c r="M68" s="10" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="N68" s="10" t="s">
         <v>31</v>
       </c>
       <c r="O68" s="10" t="s">
+        <v>555</v>
+      </c>
+      <c r="P68" s="10" t="s">
         <v>556</v>
-      </c>
-      <c r="P68" s="10" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69" s="10" t="s">
+        <v>557</v>
+      </c>
+      <c r="B69" s="10" t="s">
         <v>558</v>
       </c>
-      <c r="B69" s="10" t="s">
+      <c r="C69" s="10" t="s">
         <v>559</v>
-      </c>
-      <c r="C69" s="10" t="s">
-        <v>560</v>
       </c>
       <c r="D69" s="10">
         <v>2.8</v>
@@ -29437,10 +29448,10 @@
         <v>17</v>
       </c>
       <c r="F69" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="G69" s="10" t="s">
         <v>561</v>
-      </c>
-      <c r="G69" s="10" t="s">
-        <v>562</v>
       </c>
       <c r="H69" s="10" t="s">
         <v>312</v>
@@ -29449,7 +29460,7 @@
         <v>79</v>
       </c>
       <c r="J69" s="10" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="K69" s="10" t="s">
         <v>70</v>
@@ -29458,27 +29469,27 @@
         <v>71</v>
       </c>
       <c r="M69" s="10" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="N69" s="10" t="s">
         <v>73</v>
       </c>
       <c r="O69" s="10" t="s">
+        <v>568</v>
+      </c>
+      <c r="P69" s="10" t="s">
         <v>569</v>
-      </c>
-      <c r="P69" s="10" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
+        <v>570</v>
+      </c>
+      <c r="B70" s="10" t="s">
         <v>571</v>
       </c>
-      <c r="B70" s="10" t="s">
+      <c r="C70" s="10" t="s">
         <v>572</v>
-      </c>
-      <c r="C70" s="10" t="s">
-        <v>573</v>
       </c>
       <c r="D70" s="10">
         <v>1.78</v>
@@ -29487,7 +29498,7 @@
         <v>17</v>
       </c>
       <c r="F70" s="10" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G70" s="10" t="s">
         <v>37</v>
@@ -29508,27 +29519,27 @@
         <v>20</v>
       </c>
       <c r="M70" s="10" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="N70" s="10" t="s">
         <v>31</v>
       </c>
       <c r="O70" s="10" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="P70" s="10" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
+        <v>576</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>576</v>
+      </c>
+      <c r="C71" s="10" t="s">
         <v>577</v>
-      </c>
-      <c r="B71" s="10" t="s">
-        <v>577</v>
-      </c>
-      <c r="C71" s="10" t="s">
-        <v>578</v>
       </c>
       <c r="D71" s="10">
         <v>1.6</v>
@@ -29537,7 +29548,7 @@
         <v>17</v>
       </c>
       <c r="F71" s="10" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G71" s="10" t="s">
         <v>37</v>
@@ -29558,27 +29569,27 @@
         <v>20</v>
       </c>
       <c r="M71" s="10" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="N71" s="10" t="s">
         <v>31</v>
       </c>
       <c r="O71" s="10" t="s">
+        <v>580</v>
+      </c>
+      <c r="P71" s="10" t="s">
         <v>581</v>
-      </c>
-      <c r="P71" s="10" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B72" s="10" t="s">
+        <v>582</v>
+      </c>
+      <c r="C72" s="10" t="s">
         <v>583</v>
-      </c>
-      <c r="C72" s="10" t="s">
-        <v>584</v>
       </c>
       <c r="D72" s="10">
         <v>2.8</v>
@@ -29608,27 +29619,27 @@
         <v>20</v>
       </c>
       <c r="M72" s="10" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="N72" s="10" t="s">
         <v>31</v>
       </c>
       <c r="O72" s="10" t="s">
+        <v>585</v>
+      </c>
+      <c r="P72" s="10" t="s">
         <v>586</v>
-      </c>
-      <c r="P72" s="10" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73" s="10" t="s">
+        <v>606</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>606</v>
+      </c>
+      <c r="C73" s="10" t="s">
         <v>607</v>
-      </c>
-      <c r="B73" s="10" t="s">
-        <v>607</v>
-      </c>
-      <c r="C73" s="10" t="s">
-        <v>608</v>
       </c>
       <c r="D73" s="10">
         <v>2.1</v>
@@ -29658,27 +29669,27 @@
         <v>20</v>
       </c>
       <c r="M73" s="10" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="N73" s="10" t="s">
         <v>31</v>
       </c>
       <c r="O73" s="10" t="s">
+        <v>609</v>
+      </c>
+      <c r="P73" s="10" t="s">
         <v>610</v>
-      </c>
-      <c r="P73" s="10" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
+        <v>634</v>
+      </c>
+      <c r="B74" s="10" t="s">
         <v>635</v>
       </c>
-      <c r="B74" s="10" t="s">
+      <c r="C74" s="10" t="s">
         <v>636</v>
-      </c>
-      <c r="C74" s="10" t="s">
-        <v>637</v>
       </c>
       <c r="D74" s="10">
         <v>2.2999999999999998</v>
@@ -29708,27 +29719,27 @@
         <v>20</v>
       </c>
       <c r="M74" s="10" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="N74" s="10" t="s">
         <v>31</v>
       </c>
       <c r="O74" s="10" t="s">
+        <v>638</v>
+      </c>
+      <c r="P74" s="10" t="s">
         <v>639</v>
-      </c>
-      <c r="P74" s="10" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
+        <v>650</v>
+      </c>
+      <c r="B75" s="10" t="s">
         <v>651</v>
       </c>
-      <c r="B75" s="10" t="s">
+      <c r="C75" s="10" t="s">
         <v>652</v>
-      </c>
-      <c r="C75" s="10" t="s">
-        <v>653</v>
       </c>
       <c r="D75" s="10">
         <v>2.9</v>
@@ -29737,7 +29748,7 @@
         <v>394</v>
       </c>
       <c r="F75" s="10" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G75" s="10" t="s">
         <v>18</v>
@@ -29758,27 +29769,27 @@
         <v>20</v>
       </c>
       <c r="M75" s="10" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="N75" s="10" t="s">
         <v>31</v>
       </c>
       <c r="O75" s="10" t="s">
+        <v>654</v>
+      </c>
+      <c r="P75" s="10" t="s">
         <v>655</v>
-      </c>
-      <c r="P75" s="10" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
+        <v>656</v>
+      </c>
+      <c r="B76" s="10" t="s">
         <v>657</v>
       </c>
-      <c r="B76" s="10" t="s">
+      <c r="C76" s="10" t="s">
         <v>658</v>
-      </c>
-      <c r="C76" s="10" t="s">
-        <v>659</v>
       </c>
       <c r="D76" s="10">
         <v>2.5</v>
@@ -29787,7 +29798,7 @@
         <v>394</v>
       </c>
       <c r="F76" s="10" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G76" s="10" t="s">
         <v>18</v>
@@ -29808,27 +29819,27 @@
         <v>20</v>
       </c>
       <c r="M76" s="10" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N76" s="10" t="s">
         <v>31</v>
       </c>
       <c r="O76" s="10" t="s">
+        <v>660</v>
+      </c>
+      <c r="P76" s="10" t="s">
         <v>661</v>
-      </c>
-      <c r="P76" s="10" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77" s="10" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D77" s="10">
         <v>1.94</v>
@@ -29858,27 +29869,27 @@
         <v>20</v>
       </c>
       <c r="M77" s="10" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="N77" s="10" t="s">
         <v>31</v>
       </c>
       <c r="O77" s="10" t="s">
+        <v>667</v>
+      </c>
+      <c r="P77" s="10" t="s">
         <v>668</v>
-      </c>
-      <c r="P77" s="10" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
+        <v>669</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>669</v>
+      </c>
+      <c r="C78" s="10" t="s">
         <v>670</v>
-      </c>
-      <c r="B78" s="10" t="s">
-        <v>670</v>
-      </c>
-      <c r="C78" s="10" t="s">
-        <v>671</v>
       </c>
       <c r="D78" s="10">
         <v>1.96</v>
@@ -29908,27 +29919,27 @@
         <v>20</v>
       </c>
       <c r="M78" s="10" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="N78" s="10" t="s">
         <v>31</v>
       </c>
       <c r="O78" s="10" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="P78" s="10" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79" s="10" t="s">
+        <v>674</v>
+      </c>
+      <c r="B79" s="10" t="s">
+        <v>674</v>
+      </c>
+      <c r="C79" s="10" t="s">
         <v>675</v>
-      </c>
-      <c r="B79" s="10" t="s">
-        <v>675</v>
-      </c>
-      <c r="C79" s="10" t="s">
-        <v>676</v>
       </c>
       <c r="D79" s="10">
         <v>3.1</v>
@@ -29937,7 +29948,7 @@
         <v>394</v>
       </c>
       <c r="F79" s="10" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="G79" s="10" t="s">
         <v>18</v>
@@ -29958,27 +29969,27 @@
         <v>20</v>
       </c>
       <c r="M79" s="10" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="N79" s="10" t="s">
         <v>31</v>
       </c>
       <c r="O79" s="10" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="P79" s="10" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A80" s="10" t="s">
+        <v>704</v>
+      </c>
+      <c r="B80" s="10" t="s">
+        <v>704</v>
+      </c>
+      <c r="C80" s="10" t="s">
         <v>705</v>
-      </c>
-      <c r="B80" s="10" t="s">
-        <v>705</v>
-      </c>
-      <c r="C80" s="10" t="s">
-        <v>706</v>
       </c>
       <c r="D80" s="10">
         <v>2.9</v>
@@ -29987,7 +29998,7 @@
         <v>394</v>
       </c>
       <c r="F80" s="10" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="G80" s="10" t="s">
         <v>18</v>
@@ -30008,16 +30019,16 @@
         <v>20</v>
       </c>
       <c r="M80" s="10" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="N80" s="10" t="s">
         <v>31</v>
       </c>
       <c r="O80" s="10" t="s">
+        <v>707</v>
+      </c>
+      <c r="P80" s="10" t="s">
         <v>708</v>
-      </c>
-      <c r="P80" s="10" t="s">
-        <v>709</v>
       </c>
     </row>
   </sheetData>

--- a/MemSTATS_dataset.xlsx
+++ b/MemSTATS_dataset.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleksandrovaaa/PycharmProjects/MemSTATS_benchmark/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4993035-08D0-8043-98E2-5AD054DCD5E5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D01B9F12-1B95-1F49-BD7C-28663D55EE5D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6660" yWindow="2800" windowWidth="25360" windowHeight="14000" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4484" uniqueCount="934">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4485" uniqueCount="940">
   <si>
     <t>Fold-Abbreviation</t>
   </si>
@@ -1045,15 +1045,6 @@
   </si>
   <si>
     <t>A;H;J;K;L;M</t>
-  </si>
-  <si>
-    <t>Parallel;Antiparallel;Antiparallel;Antiparallel</t>
-  </si>
-  <si>
-    <t>Open;Open;Open;Open</t>
-  </si>
-  <si>
-    <t>(L_2-473,M_1-454,N_1-423);(L_97-263,L_264-429);(M_92-251,M_258-416);(N_79-225,N_229-378)</t>
   </si>
   <si>
     <t>Respiratory complex I</t>
@@ -2789,9 +2780,6 @@
     <t>(A_-1-334,B_-1-334,C_-1-334)</t>
   </si>
   <si>
-    <t>(L_2-473,M_1-454,N_1-423)</t>
-  </si>
-  <si>
     <t>(A_14-221,B_14-221,C_14-221)</t>
   </si>
   <si>
@@ -2859,6 +2847,36 @@
   </si>
   <si>
     <t>(A_1001-1221,B_1001-2221,C_1001-1221,D_1001-2221)</t>
+  </si>
+  <si>
+    <t>3;4;2;2;2</t>
+  </si>
+  <si>
+    <t>Parallel;Parallel;Antiparallel;Antiparallel;Antiparallel</t>
+  </si>
+  <si>
+    <t>Open;Open;Open;Open;Open</t>
+  </si>
+  <si>
+    <t>Quaternary;Quaternary;Internal;Internal;Internal</t>
+  </si>
+  <si>
+    <t>Yes;Yes;Yes;Yes;Yes</t>
+  </si>
+  <si>
+    <t>(L_2-473,M_1-454,N_1-423);(L_97-263,M_92-251,N_79-225,H_80-266);(L_97-263,L_264-429);(M_92-251,M_258-416);(N_79-225,N_229-384)</t>
+  </si>
+  <si>
+    <t>3;4</t>
+  </si>
+  <si>
+    <t>Open;Open</t>
+  </si>
+  <si>
+    <t>(L_2-473,M_1-454,N_1-423);(L_97-263,M_92-251,N_79-225,H_80-266)</t>
+  </si>
+  <si>
+    <t>No;No;No;No;No</t>
   </si>
 </sst>
 </file>
@@ -3359,8 +3377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DI113"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="M68" sqref="M68"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3403,7 +3421,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>8</v>
@@ -3418,7 +3436,7 @@
         <v>11</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>12</v>
@@ -10599,31 +10617,31 @@
         <v>336</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>241</v>
+        <v>930</v>
       </c>
       <c r="I50" s="7" t="s">
+        <v>931</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>932</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>933</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>934</v>
+      </c>
+      <c r="M50" s="6" t="s">
+        <v>935</v>
+      </c>
+      <c r="N50" s="7" t="s">
+        <v>939</v>
+      </c>
+      <c r="O50" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="J50" s="7" t="s">
+      <c r="P50" s="9" t="s">
         <v>338</v>
-      </c>
-      <c r="K50" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="L50" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="M50" s="6" t="s">
-        <v>339</v>
-      </c>
-      <c r="N50" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="O50" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="P50" s="9" t="s">
-        <v>341</v>
       </c>
       <c r="Q50" s="8"/>
       <c r="R50" s="8"/>
@@ -10725,13 +10743,13 @@
     </row>
     <row r="51" spans="1:113" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D51" s="7">
         <v>3.5</v>
@@ -10755,22 +10773,22 @@
         <v>112</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="L51" s="7" t="s">
         <v>114</v>
       </c>
       <c r="M51" s="6" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="N51" s="7" t="s">
         <v>280</v>
       </c>
       <c r="O51" s="6" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="P51" s="9" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="Q51" s="8"/>
       <c r="R51" s="8"/>
@@ -10872,13 +10890,13 @@
     </row>
     <row r="52" spans="1:113" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D52" s="7">
         <v>3.1</v>
@@ -10908,16 +10926,16 @@
         <v>20</v>
       </c>
       <c r="M52" s="6" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="N52" s="7" t="s">
         <v>31</v>
       </c>
       <c r="O52" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="P52" s="9" t="s">
         <v>350</v>
-      </c>
-      <c r="P52" s="9" t="s">
-        <v>353</v>
       </c>
       <c r="Q52" s="8"/>
       <c r="R52" s="8"/>
@@ -11019,13 +11037,13 @@
     </row>
     <row r="53" spans="1:113" s="12" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D53" s="7">
         <v>1.9</v>
@@ -11055,16 +11073,16 @@
         <v>20</v>
       </c>
       <c r="M53" s="6" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="N53" s="7" t="s">
         <v>31</v>
       </c>
       <c r="O53" s="6" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="P53" s="9" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="Q53" s="11"/>
       <c r="R53" s="11"/>
@@ -11166,13 +11184,13 @@
     </row>
     <row r="54" spans="1:113" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D54" s="7">
         <v>2.6</v>
@@ -11202,16 +11220,16 @@
         <v>71</v>
       </c>
       <c r="M54" s="6" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="N54" s="7" t="s">
         <v>73</v>
       </c>
       <c r="O54" s="6" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="P54" s="9" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="Q54" s="8"/>
       <c r="R54" s="8"/>
@@ -11313,13 +11331,13 @@
     </row>
     <row r="55" spans="1:113" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D55" s="7">
         <v>2.8</v>
@@ -11328,10 +11346,10 @@
         <v>17</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="H55" s="7">
         <v>3</v>
@@ -11349,16 +11367,16 @@
         <v>20</v>
       </c>
       <c r="M55" s="6" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="N55" s="7" t="s">
         <v>31</v>
       </c>
       <c r="O55" s="6" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="P55" s="9" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="Q55" s="8"/>
       <c r="R55" s="8"/>
@@ -11460,13 +11478,13 @@
     </row>
     <row r="56" spans="1:113" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D56" s="7">
         <v>2.7</v>
@@ -11496,16 +11514,16 @@
         <v>71</v>
       </c>
       <c r="M56" s="6" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="N56" s="7" t="s">
         <v>146</v>
       </c>
       <c r="O56" s="6" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="P56" s="9" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="Q56" s="8"/>
       <c r="R56" s="8"/>
@@ -11607,13 +11625,13 @@
     </row>
     <row r="57" spans="1:113" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D57" s="7">
         <v>1.9</v>
@@ -11643,16 +11661,16 @@
         <v>20</v>
       </c>
       <c r="M57" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="N57" s="7" t="s">
         <v>31</v>
       </c>
       <c r="O57" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="P57" s="9" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="Q57" s="8"/>
       <c r="R57" s="8"/>
@@ -11754,13 +11772,13 @@
     </row>
     <row r="58" spans="1:113" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D58" s="7">
         <v>3.1</v>
@@ -11790,16 +11808,16 @@
         <v>20</v>
       </c>
       <c r="M58" s="6" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="N58" s="7" t="s">
         <v>31</v>
       </c>
       <c r="O58" s="6" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="P58" s="9" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="Q58" s="8"/>
       <c r="R58" s="8"/>
@@ -11901,19 +11919,19 @@
     </row>
     <row r="59" spans="1:113" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D59" s="7">
         <v>2.4</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F59" s="6" t="s">
         <v>240</v>
@@ -11922,7 +11940,7 @@
         <v>18</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="I59" s="7" t="s">
         <v>79</v>
@@ -11937,16 +11955,16 @@
         <v>81</v>
       </c>
       <c r="M59" s="6" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="N59" s="7" t="s">
         <v>73</v>
       </c>
       <c r="O59" s="6" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="P59" s="9" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="Q59" s="3"/>
       <c r="R59" s="3"/>
@@ -12048,13 +12066,13 @@
     </row>
     <row r="60" spans="1:113" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D60" s="7">
         <v>1.7</v>
@@ -12069,7 +12087,7 @@
         <v>18</v>
       </c>
       <c r="H60" s="7" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="I60" s="7" t="s">
         <v>79</v>
@@ -12084,16 +12102,16 @@
         <v>71</v>
       </c>
       <c r="M60" s="6" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="N60" s="7" t="s">
         <v>73</v>
       </c>
       <c r="O60" s="6" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="P60" s="9" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="Q60" s="8"/>
       <c r="R60" s="8"/>
@@ -12195,13 +12213,13 @@
     </row>
     <row r="61" spans="1:113" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D61" s="7">
         <v>2.7</v>
@@ -12210,7 +12228,7 @@
         <v>17</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G61" s="7"/>
       <c r="H61" s="7">
@@ -12229,16 +12247,16 @@
         <v>20</v>
       </c>
       <c r="M61" s="6" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="N61" s="7" t="s">
         <v>31</v>
       </c>
       <c r="O61" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="P61" s="9" t="s">
         <v>407</v>
-      </c>
-      <c r="P61" s="9" t="s">
-        <v>410</v>
       </c>
       <c r="Q61" s="8"/>
       <c r="R61" s="8"/>
@@ -12340,13 +12358,13 @@
     </row>
     <row r="62" spans="1:113" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D62" s="7">
         <v>2.6</v>
@@ -12376,16 +12394,16 @@
         <v>71</v>
       </c>
       <c r="M62" s="6" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="N62" s="7" t="s">
         <v>73</v>
       </c>
       <c r="O62" s="6" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="P62" s="9" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="Q62" s="8"/>
       <c r="R62" s="8"/>
@@ -12487,13 +12505,13 @@
     </row>
     <row r="63" spans="1:113" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="D63" s="7">
         <v>2.2000000000000002</v>
@@ -12523,16 +12541,16 @@
         <v>20</v>
       </c>
       <c r="M63" s="6" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="N63" s="7" t="s">
         <v>31</v>
       </c>
       <c r="O63" s="6" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="P63" s="9" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="Q63" s="8"/>
       <c r="R63" s="8"/>
@@ -12634,13 +12652,13 @@
     </row>
     <row r="64" spans="1:113" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="D64" s="7">
         <v>3.26</v>
@@ -12649,13 +12667,13 @@
         <v>17</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G64" s="7" t="s">
         <v>18</v>
       </c>
       <c r="H64" s="7" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="I64" s="7" t="s">
         <v>79</v>
@@ -12670,16 +12688,16 @@
         <v>71</v>
       </c>
       <c r="M64" s="6" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="N64" s="7" t="s">
         <v>73</v>
       </c>
       <c r="O64" s="6" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="P64" s="9" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="Q64" s="8"/>
       <c r="R64" s="8"/>
@@ -12781,13 +12799,13 @@
     </row>
     <row r="65" spans="1:113" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="D65" s="7">
         <v>2</v>
@@ -12796,7 +12814,7 @@
         <v>17</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G65" s="7"/>
       <c r="H65" s="7">
@@ -12815,16 +12833,16 @@
         <v>20</v>
       </c>
       <c r="M65" s="6" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="N65" s="7" t="s">
         <v>31</v>
       </c>
       <c r="O65" s="6" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="P65" s="9" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="Q65" s="8"/>
       <c r="R65" s="8"/>
@@ -12926,13 +12944,13 @@
     </row>
     <row r="66" spans="1:113" s="18" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D66" s="7">
         <v>1.65</v>
@@ -12960,16 +12978,16 @@
         <v>20</v>
       </c>
       <c r="M66" s="6" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="N66" s="7" t="s">
         <v>31</v>
       </c>
       <c r="O66" s="6" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="P66" s="9" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="Q66" s="17"/>
       <c r="R66" s="17"/>
@@ -13071,13 +13089,13 @@
     </row>
     <row r="67" spans="1:113" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="D67" s="7">
         <v>2.7</v>
@@ -13107,16 +13125,16 @@
         <v>20</v>
       </c>
       <c r="M67" s="6" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="N67" s="7" t="s">
         <v>31</v>
       </c>
       <c r="O67" s="6" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="P67" s="9" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="Q67" s="8"/>
       <c r="R67" s="8"/>
@@ -13218,13 +13236,13 @@
     </row>
     <row r="68" spans="1:113" s="12" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D68" s="7">
         <v>3.5</v>
@@ -13233,10 +13251,10 @@
         <v>17</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="H68" s="7" t="s">
         <v>67</v>
@@ -13254,16 +13272,16 @@
         <v>71</v>
       </c>
       <c r="M68" s="6" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="N68" s="7" t="s">
         <v>73</v>
       </c>
       <c r="O68" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="P68" s="9" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="Q68" s="11"/>
       <c r="R68" s="11"/>
@@ -13365,13 +13383,13 @@
     </row>
     <row r="69" spans="1:113" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D69" s="7">
         <v>2.4</v>
@@ -13399,16 +13417,16 @@
         <v>71</v>
       </c>
       <c r="M69" s="6" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="N69" s="7" t="s">
         <v>73</v>
       </c>
       <c r="O69" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="P69" s="9" t="s">
         <v>458</v>
-      </c>
-      <c r="P69" s="9" t="s">
-        <v>461</v>
       </c>
       <c r="Q69" s="8"/>
       <c r="R69" s="8"/>
@@ -13510,13 +13528,13 @@
     </row>
     <row r="70" spans="1:113" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D70" s="7">
         <v>3.3</v>
@@ -13546,16 +13564,16 @@
         <v>20</v>
       </c>
       <c r="M70" s="6" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="N70" s="7" t="s">
         <v>31</v>
       </c>
       <c r="O70" s="6" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="P70" s="9" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="Q70" s="8"/>
       <c r="R70" s="8"/>
@@ -13657,13 +13675,13 @@
     </row>
     <row r="71" spans="1:113" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D71" s="7">
         <v>2.7</v>
@@ -13691,16 +13709,16 @@
         <v>20</v>
       </c>
       <c r="M71" s="6" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="N71" s="7" t="s">
         <v>31</v>
       </c>
       <c r="O71" s="6" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="P71" s="9" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="Q71" s="8"/>
       <c r="R71" s="8"/>
@@ -13802,13 +13820,13 @@
     </row>
     <row r="72" spans="1:113" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D72" s="7">
         <v>2.2999999999999998</v>
@@ -13838,16 +13856,16 @@
         <v>20</v>
       </c>
       <c r="M72" s="6" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="N72" s="7" t="s">
         <v>31</v>
       </c>
       <c r="O72" s="6" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="P72" s="9" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="Q72" s="8"/>
       <c r="R72" s="8"/>
@@ -13949,13 +13967,13 @@
     </row>
     <row r="73" spans="1:113" s="20" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D73" s="7">
         <v>3.9409999999999998</v>
@@ -13983,16 +14001,16 @@
         <v>20</v>
       </c>
       <c r="M73" s="7" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="N73" s="7" t="s">
         <v>31</v>
       </c>
       <c r="O73" s="7" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="P73" s="9" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="Q73" s="19"/>
       <c r="R73" s="19"/>
@@ -14094,13 +14112,13 @@
     </row>
     <row r="74" spans="1:113" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="D74" s="7">
         <v>3.5</v>
@@ -14109,13 +14127,13 @@
         <v>17</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G74" s="7" t="s">
         <v>18</v>
       </c>
       <c r="H74" s="7" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="I74" s="7" t="s">
         <v>79</v>
@@ -14130,16 +14148,16 @@
         <v>71</v>
       </c>
       <c r="M74" s="6" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="N74" s="7" t="s">
         <v>73</v>
       </c>
       <c r="O74" s="6" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="P74" s="9" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="Q74" s="8"/>
       <c r="R74" s="8"/>
@@ -14241,13 +14259,13 @@
     </row>
     <row r="75" spans="1:113" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="D75" s="7">
         <v>2.99</v>
@@ -14256,7 +14274,7 @@
         <v>17</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="G75" s="7" t="s">
         <v>18</v>
@@ -14277,16 +14295,16 @@
         <v>20</v>
       </c>
       <c r="M75" s="6" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="N75" s="7" t="s">
         <v>31</v>
       </c>
       <c r="O75" s="6" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="P75" s="9" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="Q75" s="8"/>
       <c r="R75" s="8"/>
@@ -14388,22 +14406,22 @@
     </row>
     <row r="76" spans="1:113" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="D76" s="7">
         <v>1.9</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="G76" s="7" t="s">
         <v>18</v>
@@ -14424,16 +14442,16 @@
         <v>20</v>
       </c>
       <c r="M76" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="N76" s="7" t="s">
         <v>31</v>
       </c>
       <c r="O76" s="6" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="P76" s="9" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="Q76" s="8"/>
       <c r="R76" s="8"/>
@@ -14535,13 +14553,13 @@
     </row>
     <row r="77" spans="1:113" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="D77" s="7">
         <v>2.5</v>
@@ -14550,7 +14568,7 @@
         <v>17</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G77" s="7"/>
       <c r="H77" s="7">
@@ -14569,16 +14587,16 @@
         <v>20</v>
       </c>
       <c r="M77" s="6" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="N77" s="7" t="s">
         <v>31</v>
       </c>
       <c r="O77" s="6" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="P77" s="9" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="Q77" s="8"/>
       <c r="R77" s="8"/>
@@ -14680,13 +14698,13 @@
     </row>
     <row r="78" spans="1:113" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="6" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="D78" s="7">
         <v>2.4</v>
@@ -14695,7 +14713,7 @@
         <v>17</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="G78" s="7"/>
       <c r="H78" s="7">
@@ -14714,16 +14732,16 @@
         <v>20</v>
       </c>
       <c r="M78" s="6" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="N78" s="7" t="s">
         <v>31</v>
       </c>
       <c r="O78" s="6" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="P78" s="9" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="Q78" s="8"/>
       <c r="R78" s="8"/>
@@ -14825,13 +14843,13 @@
     </row>
     <row r="79" spans="1:113" s="16" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="D79" s="7">
         <v>3.01</v>
@@ -14840,7 +14858,7 @@
         <v>17</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="G79" s="7">
         <v>1</v>
@@ -14861,16 +14879,16 @@
         <v>20</v>
       </c>
       <c r="M79" s="6" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="N79" s="7" t="s">
         <v>31</v>
       </c>
       <c r="O79" s="6" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="P79" s="9" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="Q79" s="15"/>
       <c r="R79" s="15"/>
@@ -14972,13 +14990,13 @@
     </row>
     <row r="80" spans="1:113" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="6" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="D80" s="7">
         <v>2.4</v>
@@ -14987,7 +15005,7 @@
         <v>17</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="G80" s="7" t="s">
         <v>18</v>
@@ -15008,16 +15026,16 @@
         <v>20</v>
       </c>
       <c r="M80" s="6" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="N80" s="7" t="s">
         <v>31</v>
       </c>
       <c r="O80" s="6" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="P80" s="9" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="Q80" s="8"/>
       <c r="R80" s="8"/>
@@ -15119,13 +15137,13 @@
     </row>
     <row r="81" spans="1:113" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="D81" s="7">
         <v>2.5</v>
@@ -15134,7 +15152,7 @@
         <v>17</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="G81" s="7"/>
       <c r="H81" s="7">
@@ -15153,16 +15171,16 @@
         <v>20</v>
       </c>
       <c r="M81" s="6" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="N81" s="7" t="s">
         <v>31</v>
       </c>
       <c r="O81" s="6" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="P81" s="9" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="Q81" s="8"/>
       <c r="R81" s="8"/>
@@ -15264,13 +15282,13 @@
     </row>
     <row r="82" spans="1:113" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="D82" s="7">
         <v>2.13</v>
@@ -15279,7 +15297,7 @@
         <v>17</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="G82" s="7"/>
       <c r="H82" s="7">
@@ -15298,16 +15316,16 @@
         <v>20</v>
       </c>
       <c r="M82" s="6" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="N82" s="7" t="s">
         <v>31</v>
       </c>
       <c r="O82" s="6" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="P82" s="9" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="Q82" s="8"/>
       <c r="R82" s="8"/>
@@ -15409,13 +15427,13 @@
     </row>
     <row r="83" spans="1:113" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="D83" s="7">
         <v>2.1</v>
@@ -15424,13 +15442,13 @@
         <v>17</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="G83" s="7" t="s">
         <v>18</v>
       </c>
       <c r="H83" s="7" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="I83" s="7" t="s">
         <v>79</v>
@@ -15445,16 +15463,16 @@
         <v>71</v>
       </c>
       <c r="M83" s="6" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="N83" s="7" t="s">
         <v>73</v>
       </c>
       <c r="O83" s="6" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="P83" s="9" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="Q83" s="8"/>
       <c r="R83" s="8"/>
@@ -15556,13 +15574,13 @@
     </row>
     <row r="84" spans="1:113" s="18" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="6" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="D84" s="7">
         <v>3.29</v>
@@ -15571,7 +15589,7 @@
         <v>17</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="G84" s="7" t="s">
         <v>18</v>
@@ -15592,16 +15610,16 @@
         <v>20</v>
       </c>
       <c r="M84" s="6" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="N84" s="7" t="s">
         <v>31</v>
       </c>
       <c r="O84" s="6" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="P84" s="9" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="Q84" s="17"/>
       <c r="R84" s="17"/>
@@ -15703,13 +15721,13 @@
     </row>
     <row r="85" spans="1:113" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D85" s="7">
         <v>2.25</v>
@@ -15718,7 +15736,7 @@
         <v>17</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="G85" s="7" t="s">
         <v>18</v>
@@ -15739,16 +15757,16 @@
         <v>20</v>
       </c>
       <c r="M85" s="7" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="N85" s="7" t="s">
         <v>31</v>
       </c>
       <c r="O85" s="7" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="P85" s="9" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="Q85" s="3"/>
       <c r="R85" s="3"/>
@@ -15850,13 +15868,13 @@
     </row>
     <row r="86" spans="1:113" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="6" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="D86" s="7">
         <v>2.8</v>
@@ -15865,37 +15883,37 @@
         <v>17</v>
       </c>
       <c r="F86" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="G86" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="H86" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="I86" s="7" t="s">
         <v>560</v>
       </c>
-      <c r="G86" s="7" t="s">
+      <c r="J86" s="7" t="s">
         <v>561</v>
       </c>
-      <c r="H86" s="7" t="s">
+      <c r="K86" s="7" t="s">
         <v>562</v>
       </c>
-      <c r="I86" s="7" t="s">
+      <c r="L86" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="J86" s="7" t="s">
+      <c r="M86" s="6" t="s">
         <v>564</v>
-      </c>
-      <c r="K86" s="7" t="s">
-        <v>565</v>
-      </c>
-      <c r="L86" s="7" t="s">
-        <v>566</v>
-      </c>
-      <c r="M86" s="6" t="s">
-        <v>567</v>
       </c>
       <c r="N86" s="7" t="s">
         <v>247</v>
       </c>
       <c r="O86" s="6" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="P86" s="9" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="Q86" s="8"/>
       <c r="R86" s="8"/>
@@ -15997,13 +16015,13 @@
     </row>
     <row r="87" spans="1:113" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="6" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="D87" s="7">
         <v>1.78</v>
@@ -16012,7 +16030,7 @@
         <v>17</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="G87" s="7" t="s">
         <v>37</v>
@@ -16033,16 +16051,16 @@
         <v>71</v>
       </c>
       <c r="M87" s="6" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="N87" s="7" t="s">
         <v>73</v>
       </c>
       <c r="O87" s="6" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="P87" s="9" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="Q87" s="8"/>
       <c r="R87" s="8"/>
@@ -16144,13 +16162,13 @@
     </row>
     <row r="88" spans="1:113" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="6" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="D88" s="7">
         <v>1.6</v>
@@ -16159,7 +16177,7 @@
         <v>17</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="G88" s="7" t="s">
         <v>37</v>
@@ -16180,16 +16198,16 @@
         <v>71</v>
       </c>
       <c r="M88" s="6" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="N88" s="7" t="s">
         <v>73</v>
       </c>
       <c r="O88" s="6" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="P88" s="9" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="Q88" s="8"/>
       <c r="R88" s="8"/>
@@ -16291,13 +16309,13 @@
     </row>
     <row r="89" spans="1:113" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="7" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="D89" s="7">
         <v>2.8</v>
@@ -16327,16 +16345,16 @@
         <v>20</v>
       </c>
       <c r="M89" s="7" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="N89" s="7" t="s">
         <v>31</v>
       </c>
       <c r="O89" s="6" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="P89" s="9" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="Q89" s="13"/>
       <c r="R89" s="13"/>
@@ -16438,13 +16456,13 @@
     </row>
     <row r="90" spans="1:113" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="7" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="D90" s="7">
         <v>1.9</v>
@@ -16480,10 +16498,10 @@
         <v>19</v>
       </c>
       <c r="O90" s="6" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="P90" s="9" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="Q90" s="8"/>
       <c r="R90" s="8"/>
@@ -16585,19 +16603,19 @@
     </row>
     <row r="91" spans="1:113" s="26" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="23" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="B91" s="23" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="C91" s="23" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="D91" s="24">
         <v>2.5</v>
       </c>
       <c r="E91" s="24" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F91" s="23" t="s">
         <v>18</v>
@@ -16621,16 +16639,16 @@
         <v>20</v>
       </c>
       <c r="M91" s="23" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="N91" s="24" t="s">
         <v>31</v>
       </c>
       <c r="O91" s="24" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="P91" s="9" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="Q91" s="25"/>
       <c r="R91" s="25"/>
@@ -16732,19 +16750,19 @@
     </row>
     <row r="92" spans="1:113" s="26" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="23" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="B92" s="23" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="C92" s="23" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="D92" s="24">
         <v>1.9</v>
       </c>
       <c r="E92" s="24" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F92" s="23" t="s">
         <v>18</v>
@@ -16768,16 +16786,16 @@
         <v>31</v>
       </c>
       <c r="M92" s="23" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="N92" s="24" t="s">
         <v>31</v>
       </c>
       <c r="O92" s="23" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="P92" s="9" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="Q92" s="25"/>
       <c r="R92" s="25"/>
@@ -16879,19 +16897,19 @@
     </row>
     <row r="93" spans="1:113" s="26" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="23" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B93" s="23" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="C93" s="24" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="D93" s="24">
         <v>2.0299999999999998</v>
       </c>
       <c r="E93" s="24" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F93" s="24" t="s">
         <v>18</v>
@@ -16915,16 +16933,16 @@
         <v>31</v>
       </c>
       <c r="M93" s="23" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="N93" s="24" t="s">
         <v>31</v>
       </c>
       <c r="O93" s="24" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="P93" s="9" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="Q93" s="25"/>
       <c r="R93" s="25"/>
@@ -17026,19 +17044,19 @@
     </row>
     <row r="94" spans="1:113" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="24" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="B94" s="24" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="C94" s="24" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="D94" s="24">
         <v>2.1</v>
       </c>
       <c r="E94" s="24" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F94" s="23" t="s">
         <v>240</v>
@@ -17062,16 +17080,16 @@
         <v>71</v>
       </c>
       <c r="M94" s="24" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="N94" s="24" t="s">
         <v>73</v>
       </c>
       <c r="O94" s="24" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="P94" s="9" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="Q94" s="25"/>
       <c r="R94" s="25"/>
@@ -17173,19 +17191,19 @@
     </row>
     <row r="95" spans="1:113" s="26" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="24" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="B95" s="24" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="C95" s="24" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="D95" s="24">
         <v>2.17</v>
       </c>
       <c r="E95" s="24" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F95" s="23" t="s">
         <v>18</v>
@@ -17209,16 +17227,16 @@
         <v>31</v>
       </c>
       <c r="M95" s="24" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="N95" s="24" t="s">
         <v>31</v>
       </c>
       <c r="O95" s="24" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="P95" s="9" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="Q95" s="25"/>
       <c r="R95" s="25"/>
@@ -17320,19 +17338,19 @@
     </row>
     <row r="96" spans="1:113" s="26" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="24" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="B96" s="24" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C96" s="24" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="D96" s="24">
         <v>1.85</v>
       </c>
       <c r="E96" s="24" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F96" s="24" t="s">
         <v>18</v>
@@ -17356,16 +17374,16 @@
         <v>31</v>
       </c>
       <c r="M96" s="24" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="N96" s="24" t="s">
         <v>31</v>
       </c>
       <c r="O96" s="24" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="P96" s="9" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="Q96" s="25"/>
       <c r="R96" s="25"/>
@@ -17467,19 +17485,19 @@
     </row>
     <row r="97" spans="1:113" s="26" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="24" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="B97" s="24" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="C97" s="24" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="D97" s="24">
         <v>2.1</v>
       </c>
       <c r="E97" s="24" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F97" s="24" t="s">
         <v>18</v>
@@ -17503,16 +17521,16 @@
         <v>31</v>
       </c>
       <c r="M97" s="24" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="N97" s="24" t="s">
         <v>31</v>
       </c>
       <c r="O97" s="24" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="P97" s="9" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="Q97" s="25"/>
       <c r="R97" s="25"/>
@@ -17614,25 +17632,25 @@
     </row>
     <row r="98" spans="1:113" s="26" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="24" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="B98" s="23" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="C98" s="24" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="D98" s="24">
         <v>2.6</v>
       </c>
       <c r="E98" s="24" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F98" s="23" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="G98" s="24" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="H98" s="24">
         <v>6</v>
@@ -17650,16 +17668,16 @@
         <v>31</v>
       </c>
       <c r="M98" s="24" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="N98" s="24" t="s">
         <v>31</v>
       </c>
       <c r="O98" s="23" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="P98" s="9" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="Q98" s="25"/>
       <c r="R98" s="25"/>
@@ -17761,19 +17779,19 @@
     </row>
     <row r="99" spans="1:113" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="24" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="B99" s="24" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="C99" s="24" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="D99" s="24">
         <v>2.2999999999999998</v>
       </c>
       <c r="E99" s="24" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F99" s="23" t="s">
         <v>240</v>
@@ -17797,16 +17815,16 @@
         <v>20</v>
       </c>
       <c r="M99" s="24" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="N99" s="24" t="s">
         <v>31</v>
       </c>
       <c r="O99" s="23" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="P99" s="9" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="Q99" s="25"/>
       <c r="R99" s="25"/>
@@ -17908,19 +17926,19 @@
     </row>
     <row r="100" spans="1:113" s="26" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="24" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="B100" s="23" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="C100" s="23" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="D100" s="24">
         <v>2.6</v>
       </c>
       <c r="E100" s="24" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F100" s="23" t="s">
         <v>18</v>
@@ -17944,16 +17962,16 @@
         <v>31</v>
       </c>
       <c r="M100" s="23" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="N100" s="24" t="s">
         <v>31</v>
       </c>
       <c r="O100" s="24" t="s">
+        <v>638</v>
+      </c>
+      <c r="P100" s="9" t="s">
         <v>641</v>
-      </c>
-      <c r="P100" s="9" t="s">
-        <v>644</v>
       </c>
       <c r="Q100" s="25"/>
       <c r="R100" s="25"/>
@@ -18055,19 +18073,19 @@
     </row>
     <row r="101" spans="1:113" s="26" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="24" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="B101" s="23" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="C101" s="23" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="D101" s="24">
         <v>2.2999999999999998</v>
       </c>
       <c r="E101" s="24" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F101" s="23" t="s">
         <v>18</v>
@@ -18091,16 +18109,16 @@
         <v>31</v>
       </c>
       <c r="M101" s="24" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="N101" s="24" t="s">
         <v>31</v>
       </c>
       <c r="O101" s="23" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="P101" s="9" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="Q101" s="25"/>
       <c r="R101" s="25"/>
@@ -18202,22 +18220,22 @@
     </row>
     <row r="102" spans="1:113" s="26" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="7" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="C102" s="24" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="D102" s="24">
         <v>2.9</v>
       </c>
       <c r="E102" s="24" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F102" s="23" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="G102" s="24" t="s">
         <v>18</v>
@@ -18238,16 +18256,16 @@
         <v>20</v>
       </c>
       <c r="M102" s="24" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="N102" s="24" t="s">
         <v>31</v>
       </c>
       <c r="O102" s="24" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="P102" s="9" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="Q102" s="25"/>
       <c r="R102" s="25"/>
@@ -18349,22 +18367,22 @@
     </row>
     <row r="103" spans="1:113" s="26" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="24" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="B103" s="23" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="C103" s="23" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="D103" s="24">
         <v>2.5</v>
       </c>
       <c r="E103" s="24" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F103" s="23" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="G103" s="24" t="s">
         <v>18</v>
@@ -18385,16 +18403,16 @@
         <v>20</v>
       </c>
       <c r="M103" s="24" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="N103" s="24" t="s">
         <v>31</v>
       </c>
       <c r="O103" s="24" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="P103" s="9" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="Q103" s="25"/>
       <c r="R103" s="25"/>
@@ -18496,19 +18514,19 @@
     </row>
     <row r="104" spans="1:113" s="26" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="24" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="B104" s="23" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="C104" s="23" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="D104" s="24">
         <v>1.94</v>
       </c>
       <c r="E104" s="24" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F104" s="23" t="s">
         <v>240</v>
@@ -18517,7 +18535,7 @@
         <v>18</v>
       </c>
       <c r="H104" s="24" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="I104" s="24" t="s">
         <v>68</v>
@@ -18532,16 +18550,16 @@
         <v>81</v>
       </c>
       <c r="M104" s="24" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="N104" s="24" t="s">
         <v>73</v>
       </c>
       <c r="O104" s="24" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="P104" s="9" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="Q104" s="25"/>
       <c r="R104" s="25"/>
@@ -18643,19 +18661,19 @@
     </row>
     <row r="105" spans="1:113" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="24" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="B105" s="24" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="C105" s="23" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="D105" s="24">
         <v>1.96</v>
       </c>
       <c r="E105" s="24" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F105" s="24" t="s">
         <v>240</v>
@@ -18664,7 +18682,7 @@
         <v>18</v>
       </c>
       <c r="H105" s="24" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="I105" s="24" t="s">
         <v>68</v>
@@ -18679,16 +18697,16 @@
         <v>81</v>
       </c>
       <c r="M105" s="24" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="N105" s="24" t="s">
         <v>73</v>
       </c>
       <c r="O105" s="24" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="P105" s="9" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="Q105" s="28"/>
       <c r="R105" s="28"/>
@@ -18790,22 +18808,22 @@
     </row>
     <row r="106" spans="1:113" s="26" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="7" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="C106" s="24" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="D106" s="24">
         <v>3.1</v>
       </c>
       <c r="E106" s="24" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F106" s="24" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="G106" s="24" t="s">
         <v>18</v>
@@ -18826,16 +18844,16 @@
         <v>20</v>
       </c>
       <c r="M106" s="24" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="N106" s="24" t="s">
         <v>31</v>
       </c>
       <c r="O106" s="24" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="P106" s="9" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="Q106" s="25"/>
       <c r="R106" s="25"/>
@@ -18937,19 +18955,19 @@
     </row>
     <row r="107" spans="1:113" s="26" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="24" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="B107" s="24" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="C107" s="24" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="D107" s="24">
         <v>2.9</v>
       </c>
       <c r="E107" s="24" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F107" s="24" t="s">
         <v>18</v>
@@ -18973,16 +18991,16 @@
         <v>31</v>
       </c>
       <c r="M107" s="7" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="N107" s="24" t="s">
         <v>31</v>
       </c>
       <c r="O107" s="24" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="P107" s="9" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="Q107" s="25"/>
       <c r="R107" s="25"/>
@@ -19084,25 +19102,25 @@
     </row>
     <row r="108" spans="1:113" s="26" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="24" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="B108" s="24" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="C108" s="24" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="D108" s="24">
         <v>2.2999999999999998</v>
       </c>
       <c r="E108" s="24" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F108" s="23" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="G108" s="24" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="H108" s="24" t="s">
         <v>19</v>
@@ -19126,10 +19144,10 @@
         <v>19</v>
       </c>
       <c r="O108" s="23" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="P108" s="9" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="Q108" s="25"/>
       <c r="R108" s="25"/>
@@ -19231,19 +19249,19 @@
     </row>
     <row r="109" spans="1:113" s="31" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="24" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="B109" s="24" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="C109" s="24" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="D109" s="24">
         <v>3.31</v>
       </c>
       <c r="E109" s="24" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F109" s="23" t="s">
         <v>18</v>
@@ -19267,16 +19285,16 @@
         <v>31</v>
       </c>
       <c r="M109" s="24" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="N109" s="24" t="s">
         <v>31</v>
       </c>
       <c r="O109" s="24" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="P109" s="9" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="Q109" s="30"/>
       <c r="R109" s="30"/>
@@ -19378,19 +19396,19 @@
     </row>
     <row r="110" spans="1:113" s="26" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="24" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="B110" s="24" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="C110" s="24" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="D110" s="24">
         <v>3.2</v>
       </c>
       <c r="E110" s="24" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F110" s="23" t="s">
         <v>18</v>
@@ -19414,16 +19432,16 @@
         <v>31</v>
       </c>
       <c r="M110" s="24" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="N110" s="24" t="s">
         <v>31</v>
       </c>
       <c r="O110" s="23" t="s">
+        <v>692</v>
+      </c>
+      <c r="P110" s="9" t="s">
         <v>695</v>
-      </c>
-      <c r="P110" s="9" t="s">
-        <v>698</v>
       </c>
       <c r="Q110" s="25"/>
       <c r="R110" s="25"/>
@@ -19525,19 +19543,19 @@
     </row>
     <row r="111" spans="1:113" s="26" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="24" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="B111" s="24" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="C111" s="24" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="D111" s="24">
         <v>2.9380000000000002</v>
       </c>
       <c r="E111" s="24" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F111" s="24" t="s">
         <v>18</v>
@@ -19561,16 +19579,16 @@
         <v>31</v>
       </c>
       <c r="M111" s="24" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="N111" s="24" t="s">
         <v>31</v>
       </c>
       <c r="O111" s="24" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="P111" s="9" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="Q111" s="25"/>
       <c r="R111" s="25"/>
@@ -19672,22 +19690,22 @@
     </row>
     <row r="112" spans="1:113" s="26" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="24" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B112" s="24" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="C112" s="24" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="D112" s="24">
         <v>2.9</v>
       </c>
       <c r="E112" s="24" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F112" s="23" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="G112" s="24" t="s">
         <v>18</v>
@@ -19708,16 +19726,16 @@
         <v>20</v>
       </c>
       <c r="M112" s="24" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="N112" s="24" t="s">
         <v>31</v>
       </c>
       <c r="O112" s="24" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="P112" s="9" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="Q112" s="25"/>
       <c r="R112" s="25"/>
@@ -19837,8 +19855,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:N140"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="A1:N140"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19880,7 +19898,7 @@
         <v>7</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>8</v>
@@ -19895,7 +19913,7 @@
         <v>11</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>12</v>
@@ -19912,7 +19930,7 @@
         <v>15</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="D2" s="10">
         <v>3.4</v>
@@ -19956,7 +19974,7 @@
         <v>24</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="D3" s="10">
         <v>3.32</v>
@@ -20000,7 +20018,7 @@
         <v>35</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="D4" s="10">
         <v>2.5</v>
@@ -20044,7 +20062,7 @@
         <v>41</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="D5" s="10">
         <v>2.2000000000000002</v>
@@ -20088,7 +20106,7 @@
         <v>46</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="D6" s="10">
         <v>3.5</v>
@@ -20132,7 +20150,7 @@
         <v>51</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="D7" s="10">
         <v>3.2</v>
@@ -20176,7 +20194,7 @@
         <v>54</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="D8" s="10">
         <v>2.4</v>
@@ -20220,7 +20238,7 @@
         <v>59</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="D9" s="10">
         <v>3.25</v>
@@ -20264,7 +20282,7 @@
         <v>59</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="D10" s="10">
         <v>3.25</v>
@@ -20308,7 +20326,7 @@
         <v>65</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="D11" s="10">
         <v>3.25</v>
@@ -20352,7 +20370,7 @@
         <v>76</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="D12" s="10">
         <v>2.8</v>
@@ -20376,7 +20394,7 @@
         <v>31</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="L12" s="10" t="s">
         <v>31</v>
@@ -20396,7 +20414,7 @@
         <v>86</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="D13" s="10">
         <v>2.7</v>
@@ -20420,7 +20438,7 @@
         <v>31</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="L13" s="10" t="s">
         <v>31</v>
@@ -20440,7 +20458,7 @@
         <v>86</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="D14" s="10">
         <v>2.7</v>
@@ -20484,7 +20502,7 @@
         <v>86</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="D15" s="10">
         <v>2.7</v>
@@ -20528,7 +20546,7 @@
         <v>93</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="D16" s="10">
         <v>2.8</v>
@@ -20552,7 +20570,7 @@
         <v>20</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="L16" s="10" t="s">
         <v>31</v>
@@ -20572,7 +20590,7 @@
         <v>93</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="D17" s="10">
         <v>2.8</v>
@@ -20616,7 +20634,7 @@
         <v>93</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="D18" s="10">
         <v>2.8</v>
@@ -20660,7 +20678,7 @@
         <v>93</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="D19" s="10">
         <v>2.8</v>
@@ -20704,7 +20722,7 @@
         <v>93</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="D20" s="10">
         <v>2.8</v>
@@ -20748,7 +20766,7 @@
         <v>93</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D21" s="10">
         <v>2.8</v>
@@ -20792,7 +20810,7 @@
         <v>93</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="D22" s="10">
         <v>2.8</v>
@@ -20836,7 +20854,7 @@
         <v>93</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="D23" s="10">
         <v>2.8</v>
@@ -20880,7 +20898,7 @@
         <v>93</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="D24" s="10">
         <v>2.8</v>
@@ -20924,7 +20942,7 @@
         <v>93</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="D25" s="10">
         <v>2.8</v>
@@ -20968,7 +20986,7 @@
         <v>93</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="D26" s="10">
         <v>2.8</v>
@@ -21012,7 +21030,7 @@
         <v>106</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="D27" s="10">
         <v>2.4369999999999998</v>
@@ -21036,7 +21054,7 @@
         <v>20</v>
       </c>
       <c r="K27" s="10" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="L27" s="10" t="s">
         <v>31</v>
@@ -21045,7 +21063,7 @@
         <v>117</v>
       </c>
       <c r="N27" s="10" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
@@ -21056,7 +21074,7 @@
         <v>106</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="D28" s="10">
         <v>2.4369999999999998</v>
@@ -21080,7 +21098,7 @@
         <v>20</v>
       </c>
       <c r="K28" s="10" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="L28" s="10" t="s">
         <v>31</v>
@@ -21089,7 +21107,7 @@
         <v>117</v>
       </c>
       <c r="N28" s="10" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
@@ -21100,7 +21118,7 @@
         <v>106</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="D29" s="10">
         <v>2.4369999999999998</v>
@@ -21133,7 +21151,7 @@
         <v>117</v>
       </c>
       <c r="N29" s="10" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
@@ -21144,7 +21162,7 @@
         <v>106</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="D30" s="10">
         <v>2.4369999999999998</v>
@@ -21177,7 +21195,7 @@
         <v>117</v>
       </c>
       <c r="N30" s="10" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
@@ -21188,7 +21206,7 @@
         <v>106</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="D31" s="10">
         <v>2.4369999999999998</v>
@@ -21221,7 +21239,7 @@
         <v>117</v>
       </c>
       <c r="N31" s="10" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
@@ -21232,7 +21250,7 @@
         <v>106</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="D32" s="10">
         <v>2.4369999999999998</v>
@@ -21265,7 +21283,7 @@
         <v>117</v>
       </c>
       <c r="N32" s="10" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
@@ -21276,7 +21294,7 @@
         <v>106</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="D33" s="10">
         <v>2.4369999999999998</v>
@@ -21309,7 +21327,7 @@
         <v>117</v>
       </c>
       <c r="N33" s="10" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
@@ -21320,7 +21338,7 @@
         <v>106</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="D34" s="10">
         <v>2.4369999999999998</v>
@@ -21353,7 +21371,7 @@
         <v>117</v>
       </c>
       <c r="N34" s="10" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
@@ -21364,7 +21382,7 @@
         <v>106</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="D35" s="10">
         <v>2.4369999999999998</v>
@@ -21397,7 +21415,7 @@
         <v>117</v>
       </c>
       <c r="N35" s="10" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
@@ -21408,7 +21426,7 @@
         <v>106</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="D36" s="10">
         <v>2.4369999999999998</v>
@@ -21441,7 +21459,7 @@
         <v>117</v>
       </c>
       <c r="N36" s="10" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
@@ -21452,7 +21470,7 @@
         <v>106</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="D37" s="10">
         <v>2.4369999999999998</v>
@@ -21485,7 +21503,7 @@
         <v>117</v>
       </c>
       <c r="N37" s="10" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
@@ -21496,7 +21514,7 @@
         <v>106</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="D38" s="10">
         <v>2.4369999999999998</v>
@@ -21529,7 +21547,7 @@
         <v>117</v>
       </c>
       <c r="N38" s="10" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
@@ -21540,7 +21558,7 @@
         <v>106</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="D39" s="10">
         <v>2.4369999999999998</v>
@@ -21573,7 +21591,7 @@
         <v>117</v>
       </c>
       <c r="N39" s="10" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
@@ -21584,7 +21602,7 @@
         <v>119</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="D40" s="10">
         <v>3</v>
@@ -21599,7 +21617,7 @@
         <v>173</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="I40" s="10" t="s">
         <v>127</v>
@@ -21608,7 +21626,7 @@
         <v>20</v>
       </c>
       <c r="K40" s="10" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="L40" s="10" t="s">
         <v>31</v>
@@ -21628,7 +21646,7 @@
         <v>119</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="D41" s="10">
         <v>3.3</v>
@@ -21672,7 +21690,7 @@
         <v>131</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="D42" s="10">
         <v>3.1</v>
@@ -21716,7 +21734,7 @@
         <v>131</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="D43" s="10">
         <v>2.8</v>
@@ -21760,7 +21778,7 @@
         <v>143</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="D44" s="10">
         <v>3.2</v>
@@ -21784,7 +21802,7 @@
         <v>20</v>
       </c>
       <c r="K44" s="10" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="L44" s="10" t="s">
         <v>20</v>
@@ -21804,7 +21822,7 @@
         <v>150</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="D45" s="10">
         <v>1.93</v>
@@ -21848,7 +21866,7 @@
         <v>150</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="D46" s="10">
         <v>1.93</v>
@@ -21892,7 +21910,7 @@
         <v>156</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="D47" s="10">
         <v>2.9</v>
@@ -21916,7 +21934,7 @@
         <v>20</v>
       </c>
       <c r="K47" s="10" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="L47" s="10" t="s">
         <v>31</v>
@@ -21936,7 +21954,7 @@
         <v>162</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="D48" s="10">
         <v>2.39</v>
@@ -21980,7 +21998,7 @@
         <v>167</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="D49" s="10">
         <v>3.2</v>
@@ -22004,7 +22022,7 @@
         <v>20</v>
       </c>
       <c r="K49" s="10" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="L49" s="10" t="s">
         <v>20</v>
@@ -22024,7 +22042,7 @@
         <v>167</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="D50" s="10">
         <v>1.65</v>
@@ -22068,7 +22086,7 @@
         <v>178</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="D51" s="10">
         <v>2.5099999999999998</v>
@@ -22092,7 +22110,7 @@
         <v>20</v>
       </c>
       <c r="K51" s="10" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="L51" s="10" t="s">
         <v>31</v>
@@ -22112,7 +22130,7 @@
         <v>184</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="D52" s="10">
         <v>3.2</v>
@@ -22136,7 +22154,7 @@
         <v>20</v>
       </c>
       <c r="K52" s="10" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="L52" s="10" t="s">
         <v>20</v>
@@ -22153,10 +22171,10 @@
         <v>189</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="D53" s="10">
         <v>3.3</v>
@@ -22200,7 +22218,7 @@
         <v>196</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="D54" s="10">
         <v>3.5</v>
@@ -22244,7 +22262,7 @@
         <v>201</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="D55" s="10">
         <v>2.4</v>
@@ -22288,7 +22306,7 @@
         <v>201</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="D56" s="10">
         <v>2.4</v>
@@ -22332,7 +22350,7 @@
         <v>207</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="D57" s="10">
         <v>3.96</v>
@@ -22376,7 +22394,7 @@
         <v>222</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="D58" s="10">
         <v>2.41</v>
@@ -22420,7 +22438,7 @@
         <v>228</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="D59" s="10">
         <v>1.8</v>
@@ -22464,7 +22482,7 @@
         <v>233</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="D60" s="10">
         <v>3</v>
@@ -22508,7 +22526,7 @@
         <v>238</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="D61" s="10">
         <v>2.8</v>
@@ -22526,13 +22544,13 @@
         <v>112</v>
       </c>
       <c r="I61" s="10" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="J61" s="10" t="s">
         <v>114</v>
       </c>
       <c r="K61" s="10" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="L61" s="10" t="s">
         <v>116</v>
@@ -22552,7 +22570,7 @@
         <v>251</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="D62" s="10">
         <v>1.8</v>
@@ -22576,7 +22594,7 @@
         <v>20</v>
       </c>
       <c r="K62" s="10" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="L62" s="10" t="s">
         <v>31</v>
@@ -22596,7 +22614,7 @@
         <v>258</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="D63" s="10">
         <v>3.8</v>
@@ -22640,7 +22658,7 @@
         <v>264</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="D64" s="10">
         <v>1.9</v>
@@ -22684,7 +22702,7 @@
         <v>270</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="D65" s="10">
         <v>2.44</v>
@@ -22708,7 +22726,7 @@
         <v>20</v>
       </c>
       <c r="K65" s="10" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="L65" s="10" t="s">
         <v>20</v>
@@ -22728,7 +22746,7 @@
         <v>275</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="D66" s="10">
         <v>3.29</v>
@@ -22740,19 +22758,19 @@
         <v>78</v>
       </c>
       <c r="G66" s="10" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="H66" s="10" t="s">
         <v>69</v>
       </c>
       <c r="I66" s="10" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="J66" s="10" t="s">
         <v>71</v>
       </c>
       <c r="K66" s="10" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="L66" s="10" t="s">
         <v>71</v>
@@ -22772,7 +22790,7 @@
         <v>284</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="D67" s="10">
         <v>2.78</v>
@@ -22816,7 +22834,7 @@
         <v>290</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="D68" s="10">
         <v>3.45</v>
@@ -22860,7 +22878,7 @@
         <v>296</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="D69" s="10">
         <v>1.4</v>
@@ -22884,7 +22902,7 @@
         <v>20</v>
       </c>
       <c r="K69" s="10" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="L69" s="10" t="s">
         <v>31</v>
@@ -22904,7 +22922,7 @@
         <v>302</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="D70" s="10">
         <v>2.2400000000000002</v>
@@ -22928,7 +22946,7 @@
         <v>20</v>
       </c>
       <c r="K70" s="10" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="L70" s="10" t="s">
         <v>31</v>
@@ -22948,7 +22966,7 @@
         <v>310</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="D71" s="10">
         <v>2.2000000000000002</v>
@@ -22972,7 +22990,7 @@
         <v>20</v>
       </c>
       <c r="K71" s="10" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="L71" s="10" t="s">
         <v>31</v>
@@ -22992,7 +23010,7 @@
         <v>317</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="D72" s="10">
         <v>3.2</v>
@@ -23036,7 +23054,7 @@
         <v>322</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="D73" s="10">
         <v>1.95</v>
@@ -23080,7 +23098,7 @@
         <v>328</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="D74" s="10">
         <v>2.2999999999999998</v>
@@ -23104,7 +23122,7 @@
         <v>20</v>
       </c>
       <c r="K74" s="10" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="L74" s="10" t="s">
         <v>31</v>
@@ -23124,7 +23142,7 @@
         <v>333</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="D75" s="10">
         <v>3.3</v>
@@ -23154,10 +23172,10 @@
         <v>19</v>
       </c>
       <c r="M75" s="10" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="N75" s="10" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
@@ -23168,7 +23186,7 @@
         <v>333</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="D76" s="10">
         <v>3.3</v>
@@ -23198,10 +23216,10 @@
         <v>19</v>
       </c>
       <c r="M76" s="10" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="N76" s="10" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
@@ -23212,7 +23230,7 @@
         <v>333</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="D77" s="10">
         <v>3.3</v>
@@ -23242,10 +23260,10 @@
         <v>19</v>
       </c>
       <c r="M77" s="10" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="N77" s="10" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
@@ -23256,7 +23274,7 @@
         <v>333</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="D78" s="10">
         <v>3.3</v>
@@ -23286,10 +23304,10 @@
         <v>19</v>
       </c>
       <c r="M78" s="10" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="N78" s="10" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
@@ -23300,7 +23318,7 @@
         <v>333</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="D79" s="10">
         <v>3.3</v>
@@ -23315,7 +23333,7 @@
         <v>173</v>
       </c>
       <c r="H79" s="10" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="I79" s="10" t="s">
         <v>127</v>
@@ -23324,16 +23342,16 @@
         <v>20</v>
       </c>
       <c r="K79" s="10" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="L79" s="10" t="s">
         <v>31</v>
       </c>
       <c r="M79" s="10" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="N79" s="10" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
@@ -23344,7 +23362,7 @@
         <v>333</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="D80" s="10">
         <v>3.3</v>
@@ -23359,7 +23377,7 @@
         <v>173</v>
       </c>
       <c r="H80" s="10" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="I80" s="10" t="s">
         <v>127</v>
@@ -23368,27 +23386,27 @@
         <v>20</v>
       </c>
       <c r="K80" s="10" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="L80" s="10" t="s">
         <v>31</v>
       </c>
       <c r="M80" s="10" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="N80" s="10" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" s="10" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="D81" s="10">
         <v>3.5</v>
@@ -23406,33 +23424,33 @@
         <v>112</v>
       </c>
       <c r="I81" s="10" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="J81" s="10" t="s">
         <v>114</v>
       </c>
       <c r="K81" s="10" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="L81" s="10" t="s">
         <v>280</v>
       </c>
       <c r="M81" s="10" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="N81" s="10" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" s="10" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="D82" s="10">
         <v>3.1</v>
@@ -23462,21 +23480,21 @@
         <v>19</v>
       </c>
       <c r="M82" s="10" t="s">
+        <v>347</v>
+      </c>
+      <c r="N82" s="10" t="s">
         <v>350</v>
-      </c>
-      <c r="N82" s="10" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" s="10" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="D83" s="10">
         <v>1.9</v>
@@ -23506,21 +23524,21 @@
         <v>19</v>
       </c>
       <c r="M83" s="10" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="N83" s="10" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" s="10" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="D84" s="10">
         <v>2.6</v>
@@ -23544,27 +23562,27 @@
         <v>20</v>
       </c>
       <c r="K84" s="10" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="L84" s="10" t="s">
         <v>31</v>
       </c>
       <c r="M84" s="10" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="N84" s="10" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" s="10" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="D85" s="10">
         <v>2.8</v>
@@ -23594,21 +23612,21 @@
         <v>19</v>
       </c>
       <c r="M85" s="10" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="N85" s="10" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" s="10" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="D86" s="10">
         <v>2.8</v>
@@ -23638,21 +23656,21 @@
         <v>19</v>
       </c>
       <c r="M86" s="10" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="N86" s="10" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" s="10" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="D87" s="10">
         <v>2.7</v>
@@ -23676,27 +23694,27 @@
         <v>20</v>
       </c>
       <c r="K87" s="10" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="L87" s="10" t="s">
         <v>20</v>
       </c>
       <c r="M87" s="10" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="N87" s="10" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" s="10" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="D88" s="10">
         <v>1.9</v>
@@ -23726,21 +23744,21 @@
         <v>19</v>
       </c>
       <c r="M88" s="10" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="N88" s="10" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" s="10" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="D89" s="10">
         <v>3.1</v>
@@ -23770,27 +23788,27 @@
         <v>19</v>
       </c>
       <c r="M89" s="10" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="N89" s="10" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="90" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="10" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="D90" s="10">
         <v>2.4</v>
       </c>
       <c r="E90" s="10" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F90" s="10">
         <v>9</v>
@@ -23808,27 +23826,27 @@
         <v>31</v>
       </c>
       <c r="K90" s="10" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="L90" s="10" t="s">
         <v>31</v>
       </c>
       <c r="M90" s="10" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="N90" s="10" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" s="10" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="D91" s="10">
         <v>1.7</v>
@@ -23852,27 +23870,27 @@
         <v>20</v>
       </c>
       <c r="K91" s="10" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="L91" s="10" t="s">
         <v>31</v>
       </c>
       <c r="M91" s="10" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="N91" s="10" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="D92" s="10">
         <v>2.6</v>
@@ -23896,27 +23914,27 @@
         <v>20</v>
       </c>
       <c r="K92" s="10" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="L92" s="10" t="s">
         <v>31</v>
       </c>
       <c r="M92" s="10" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="N92" s="10" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" s="10" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="D93" s="10">
         <v>2.2000000000000002</v>
@@ -23940,27 +23958,27 @@
         <v>20</v>
       </c>
       <c r="K93" s="10" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="L93" s="10" t="s">
         <v>31</v>
       </c>
       <c r="M93" s="10" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="N93" s="10" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" s="10" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="D94" s="10">
         <v>3.26</v>
@@ -23984,27 +24002,27 @@
         <v>20</v>
       </c>
       <c r="K94" s="10" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="L94" s="10" t="s">
         <v>31</v>
       </c>
       <c r="M94" s="10" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="N94" s="10" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" s="10" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="D95" s="10">
         <v>2.7</v>
@@ -24034,21 +24052,21 @@
         <v>19</v>
       </c>
       <c r="M95" s="10" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="N95" s="10" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" s="10" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="D96" s="10">
         <v>3.5</v>
@@ -24060,7 +24078,7 @@
         <v>4</v>
       </c>
       <c r="G96" s="10" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="H96" s="10" t="s">
         <v>28</v>
@@ -24072,27 +24090,27 @@
         <v>20</v>
       </c>
       <c r="K96" s="10" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="L96" s="10" t="s">
         <v>31</v>
       </c>
       <c r="M96" s="10" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="N96" s="10" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" s="10" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="D97" s="10">
         <v>3.3</v>
@@ -24122,21 +24140,21 @@
         <v>19</v>
       </c>
       <c r="M97" s="10" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="N97" s="10" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" s="10" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="D98" s="10">
         <v>2.2999999999999998</v>
@@ -24166,21 +24184,21 @@
         <v>19</v>
       </c>
       <c r="M98" s="10" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="N98" s="10" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" s="10" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="D99" s="10">
         <v>3.5</v>
@@ -24204,27 +24222,27 @@
         <v>20</v>
       </c>
       <c r="K99" s="10" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="L99" s="10" t="s">
         <v>31</v>
       </c>
       <c r="M99" s="10" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="N99" s="10" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" s="10" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="D100" s="10">
         <v>2.99</v>
@@ -24254,27 +24272,27 @@
         <v>19</v>
       </c>
       <c r="M100" s="10" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="N100" s="10" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="101" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="10" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="D101" s="10">
         <v>1.9</v>
       </c>
       <c r="E101" s="10" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F101" s="10" t="s">
         <v>19</v>
@@ -24298,21 +24316,21 @@
         <v>19</v>
       </c>
       <c r="M101" s="10" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="N101" s="10" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" s="10" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="D102" s="10">
         <v>3.01</v>
@@ -24342,21 +24360,21 @@
         <v>19</v>
       </c>
       <c r="M102" s="10" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="N102" s="10" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" s="10" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="D103" s="10">
         <v>2.4</v>
@@ -24386,21 +24404,21 @@
         <v>19</v>
       </c>
       <c r="M103" s="10" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="N103" s="10" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" s="10" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="D104" s="10">
         <v>2.1</v>
@@ -24424,27 +24442,27 @@
         <v>20</v>
       </c>
       <c r="K104" s="10" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="L104" s="10" t="s">
         <v>31</v>
       </c>
       <c r="M104" s="10" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="N104" s="10" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" s="10" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="D105" s="10">
         <v>3.29</v>
@@ -24474,21 +24492,21 @@
         <v>19</v>
       </c>
       <c r="M105" s="10" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="N105" s="10" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" s="10" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="D106" s="10">
         <v>2.25</v>
@@ -24518,21 +24536,21 @@
         <v>19</v>
       </c>
       <c r="M106" s="10" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="N106" s="10" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" s="10" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="D107" s="10">
         <v>2.8</v>
@@ -24556,27 +24574,27 @@
         <v>31</v>
       </c>
       <c r="K107" s="10" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="L107" s="10" t="s">
         <v>31</v>
       </c>
       <c r="M107" s="10" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="N107" s="10" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" s="10" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="D108" s="10">
         <v>2.8</v>
@@ -24606,21 +24624,21 @@
         <v>19</v>
       </c>
       <c r="M108" s="10" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="N108" s="10" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109" s="10" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="D109" s="10">
         <v>2.8</v>
@@ -24650,21 +24668,21 @@
         <v>19</v>
       </c>
       <c r="M109" s="10" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="N109" s="10" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110" s="10" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="D110" s="10">
         <v>2.8</v>
@@ -24694,21 +24712,21 @@
         <v>19</v>
       </c>
       <c r="M110" s="10" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="N110" s="10" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="D111" s="10">
         <v>2.8</v>
@@ -24738,21 +24756,21 @@
         <v>19</v>
       </c>
       <c r="M111" s="10" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="N111" s="10" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112" s="10" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="D112" s="10">
         <v>2.8</v>
@@ -24782,21 +24800,21 @@
         <v>19</v>
       </c>
       <c r="M112" s="10" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="N112" s="10" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113" s="10" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="D113" s="10">
         <v>2.8</v>
@@ -24826,21 +24844,21 @@
         <v>19</v>
       </c>
       <c r="M113" s="10" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="N113" s="10" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114" s="10" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="D114" s="10">
         <v>1.78</v>
@@ -24870,21 +24888,21 @@
         <v>19</v>
       </c>
       <c r="M114" s="10" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="N114" s="10" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115" s="10" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="D115" s="10">
         <v>1.6</v>
@@ -24908,27 +24926,27 @@
         <v>20</v>
       </c>
       <c r="K115" s="10" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="L115" s="10" t="s">
         <v>31</v>
       </c>
       <c r="M115" s="10" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="N115" s="10" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116" s="10" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="C116" s="10" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D116" s="10">
         <v>2.8</v>
@@ -24958,21 +24976,21 @@
         <v>19</v>
       </c>
       <c r="M116" s="10" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="N116" s="10" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117" s="10" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="D117" s="10">
         <v>2.8</v>
@@ -25002,21 +25020,21 @@
         <v>19</v>
       </c>
       <c r="M117" s="10" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="N117" s="10" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118" s="10" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="D118" s="10">
         <v>1.9</v>
@@ -25046,27 +25064,27 @@
         <v>19</v>
       </c>
       <c r="M118" s="10" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="N118" s="10" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="119" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="10" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="C119" s="10" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="D119" s="10">
         <v>2.5</v>
       </c>
       <c r="E119" s="10" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F119" s="10">
         <v>4</v>
@@ -25084,33 +25102,33 @@
         <v>20</v>
       </c>
       <c r="K119" s="10" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="L119" s="10" t="s">
         <v>31</v>
       </c>
       <c r="M119" s="10" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="N119" s="10" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
     </row>
     <row r="120" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="10" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="D120" s="10">
         <v>1.9</v>
       </c>
       <c r="E120" s="10" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F120" s="10">
         <v>4</v>
@@ -25128,33 +25146,33 @@
         <v>31</v>
       </c>
       <c r="K120" s="10" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="L120" s="10" t="s">
         <v>31</v>
       </c>
       <c r="M120" s="10" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="N120" s="10" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
     </row>
     <row r="121" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="10" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="C121" s="10" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="D121" s="10">
         <v>2.0299999999999998</v>
       </c>
       <c r="E121" s="10" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F121" s="10">
         <v>5</v>
@@ -25172,33 +25190,33 @@
         <v>31</v>
       </c>
       <c r="K121" s="10" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="L121" s="10" t="s">
         <v>31</v>
       </c>
       <c r="M121" s="10" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="N121" s="10" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
     </row>
     <row r="122" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="10" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="D122" s="10">
         <v>2.1</v>
       </c>
       <c r="E122" s="10" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F122" s="10">
         <v>2</v>
@@ -25207,7 +25225,7 @@
         <v>27</v>
       </c>
       <c r="H122" s="10" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="I122" s="10" t="s">
         <v>127</v>
@@ -25216,33 +25234,33 @@
         <v>20</v>
       </c>
       <c r="K122" s="10" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="L122" s="10" t="s">
         <v>31</v>
       </c>
       <c r="M122" s="10" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="N122" s="10" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="123" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="10" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="B123" s="10" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="C123" s="10" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="D123" s="10">
         <v>2.17</v>
       </c>
       <c r="E123" s="10" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F123" s="10">
         <v>6</v>
@@ -25260,33 +25278,33 @@
         <v>31</v>
       </c>
       <c r="K123" s="10" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="L123" s="10" t="s">
         <v>31</v>
       </c>
       <c r="M123" s="10" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="N123" s="10" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
     </row>
     <row r="124" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="10" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C124" s="10" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="D124" s="10">
         <v>1.85</v>
       </c>
       <c r="E124" s="10" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F124" s="10">
         <v>6</v>
@@ -25304,33 +25322,33 @@
         <v>31</v>
       </c>
       <c r="K124" s="10" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="L124" s="10" t="s">
         <v>31</v>
       </c>
       <c r="M124" s="10" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="N124" s="10" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
     </row>
     <row r="125" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="10" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="D125" s="10">
         <v>2.1</v>
       </c>
       <c r="E125" s="10" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F125" s="10">
         <v>6</v>
@@ -25348,33 +25366,33 @@
         <v>31</v>
       </c>
       <c r="K125" s="10" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="L125" s="10" t="s">
         <v>31</v>
       </c>
       <c r="M125" s="10" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="N125" s="10" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="126" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="10" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="D126" s="10">
         <v>2.6</v>
       </c>
       <c r="E126" s="10" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F126" s="10">
         <v>6</v>
@@ -25392,33 +25410,33 @@
         <v>31</v>
       </c>
       <c r="K126" s="10" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="L126" s="10" t="s">
         <v>31</v>
       </c>
       <c r="M126" s="10" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="N126" s="10" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
     </row>
     <row r="127" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="10" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="C127" s="10" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="D127" s="10">
         <v>2.2999999999999998</v>
       </c>
       <c r="E127" s="10" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F127" s="10" t="s">
         <v>19</v>
@@ -25442,27 +25460,27 @@
         <v>19</v>
       </c>
       <c r="M127" s="10" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="N127" s="10" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
     </row>
     <row r="128" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="10" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="B128" s="10" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="C128" s="10" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="D128" s="10">
         <v>2.6</v>
       </c>
       <c r="E128" s="10" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F128" s="10">
         <v>7</v>
@@ -25480,33 +25498,33 @@
         <v>31</v>
       </c>
       <c r="K128" s="10" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="L128" s="10" t="s">
         <v>31</v>
       </c>
       <c r="M128" s="10" t="s">
+        <v>638</v>
+      </c>
+      <c r="N128" s="10" t="s">
         <v>641</v>
-      </c>
-      <c r="N128" s="10" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="129" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="10" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="C129" s="10" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="D129" s="10">
         <v>2.2999999999999998</v>
       </c>
       <c r="E129" s="10" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F129" s="10">
         <v>7</v>
@@ -25524,33 +25542,33 @@
         <v>31</v>
       </c>
       <c r="K129" s="10" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="L129" s="10" t="s">
         <v>31</v>
       </c>
       <c r="M129" s="10" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="N129" s="10" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
     </row>
     <row r="130" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="10" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="B130" s="10" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="C130" s="10" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="D130" s="10">
         <v>2.9</v>
       </c>
       <c r="E130" s="10" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F130" s="10" t="s">
         <v>19</v>
@@ -25574,27 +25592,27 @@
         <v>19</v>
       </c>
       <c r="M130" s="10" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="N130" s="10" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
     </row>
     <row r="131" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="10" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="C131" s="10" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="D131" s="10">
         <v>2.5</v>
       </c>
       <c r="E131" s="10" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F131" s="10" t="s">
         <v>19</v>
@@ -25618,33 +25636,33 @@
         <v>19</v>
       </c>
       <c r="M131" s="10" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="N131" s="10" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
     </row>
     <row r="132" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="10" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="B132" s="10" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="C132" s="10" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="D132" s="10">
         <v>1.94</v>
       </c>
       <c r="E132" s="10" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F132" s="10">
         <v>8</v>
       </c>
       <c r="G132" s="10" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="H132" s="10" t="s">
         <v>28</v>
@@ -25656,39 +25674,39 @@
         <v>31</v>
       </c>
       <c r="K132" s="10" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="L132" s="10" t="s">
         <v>31</v>
       </c>
       <c r="M132" s="10" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="N132" s="10" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="133" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="10" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="D133" s="10">
         <v>1.96</v>
       </c>
       <c r="E133" s="10" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F133" s="10">
         <v>8</v>
       </c>
       <c r="G133" s="10" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="H133" s="10" t="s">
         <v>28</v>
@@ -25700,33 +25718,33 @@
         <v>31</v>
       </c>
       <c r="K133" s="10" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="L133" s="10" t="s">
         <v>31</v>
       </c>
       <c r="M133" s="10" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="N133" s="10" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
     </row>
     <row r="134" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="10" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="D134" s="10">
         <v>3.1</v>
       </c>
       <c r="E134" s="10" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F134" s="10" t="s">
         <v>19</v>
@@ -25750,27 +25768,27 @@
         <v>19</v>
       </c>
       <c r="M134" s="10" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="N134" s="10" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="135" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="10" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="C135" s="10" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="D135" s="10">
         <v>2.9</v>
       </c>
       <c r="E135" s="10" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F135" s="10">
         <v>9</v>
@@ -25788,33 +25806,33 @@
         <v>31</v>
       </c>
       <c r="K135" s="10" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="L135" s="10" t="s">
         <v>31</v>
       </c>
       <c r="M135" s="10" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="N135" s="10" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
     </row>
     <row r="136" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="10" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="B136" s="10" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="C136" s="10" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="D136" s="10">
         <v>2.2999999999999998</v>
       </c>
       <c r="E136" s="10" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F136" s="10" t="s">
         <v>19</v>
@@ -25838,27 +25856,27 @@
         <v>19</v>
       </c>
       <c r="M136" s="10" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="N136" s="10" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
     </row>
     <row r="137" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="10" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="B137" s="10" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="C137" s="10" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="D137" s="10">
         <v>3.31</v>
       </c>
       <c r="E137" s="10" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F137" s="10">
         <v>11</v>
@@ -25876,33 +25894,33 @@
         <v>31</v>
       </c>
       <c r="K137" s="10" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="L137" s="10" t="s">
         <v>31</v>
       </c>
       <c r="M137" s="10" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="N137" s="10" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
     </row>
     <row r="138" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="10" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="D138" s="10">
         <v>3.2</v>
       </c>
       <c r="E138" s="10" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F138" s="10">
         <v>12</v>
@@ -25920,33 +25938,33 @@
         <v>31</v>
       </c>
       <c r="K138" s="10" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="L138" s="10" t="s">
         <v>31</v>
       </c>
       <c r="M138" s="10" t="s">
+        <v>692</v>
+      </c>
+      <c r="N138" s="10" t="s">
         <v>695</v>
-      </c>
-      <c r="N138" s="10" t="s">
-        <v>698</v>
       </c>
     </row>
     <row r="139" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="10" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="B139" s="10" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="C139" s="10" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="D139" s="10">
         <v>2.9380000000000002</v>
       </c>
       <c r="E139" s="10" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F139" s="10">
         <v>13</v>
@@ -25964,33 +25982,33 @@
         <v>31</v>
       </c>
       <c r="K139" s="10" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="L139" s="10" t="s">
         <v>31</v>
       </c>
       <c r="M139" s="10" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="N139" s="10" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
     </row>
     <row r="140" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="10" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B140" s="10" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="C140" s="10" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="D140" s="10">
         <v>2.9</v>
       </c>
       <c r="E140" s="10" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F140" s="10" t="s">
         <v>19</v>
@@ -26014,10 +26032,10 @@
         <v>19</v>
       </c>
       <c r="M140" s="10" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="N140" s="10" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
     </row>
   </sheetData>
@@ -26042,8 +26060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E27" workbookViewId="0">
-      <selection activeCell="M50" sqref="M50"/>
+    <sheetView tabSelected="1" topLeftCell="G21" workbookViewId="0">
+      <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26093,7 +26111,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>8</v>
@@ -26108,7 +26126,7 @@
         <v>11</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="O1" s="5" t="s">
         <v>12</v>
@@ -26305,7 +26323,7 @@
         <v>20</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="N5" s="10" t="s">
         <v>31</v>
@@ -26355,7 +26373,7 @@
         <v>20</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="N6" s="10" t="s">
         <v>31</v>
@@ -26405,7 +26423,7 @@
         <v>20</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="N7" s="10" t="s">
         <v>31</v>
@@ -26502,7 +26520,7 @@
         <v>20</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="N9" s="10" t="s">
         <v>31</v>
@@ -26511,7 +26529,7 @@
         <v>117</v>
       </c>
       <c r="P9" s="10" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
@@ -26552,7 +26570,7 @@
         <v>20</v>
       </c>
       <c r="M10" s="10" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="N10" s="10" t="s">
         <v>31</v>
@@ -26702,7 +26720,7 @@
         <v>20</v>
       </c>
       <c r="M13" s="10" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="N13" s="10" t="s">
         <v>31</v>
@@ -26802,7 +26820,7 @@
         <v>20</v>
       </c>
       <c r="M15" s="10" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="N15" s="10" t="s">
         <v>31</v>
@@ -26902,7 +26920,7 @@
         <v>20</v>
       </c>
       <c r="M17" s="10" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="N17" s="10" t="s">
         <v>31</v>
@@ -26952,7 +26970,7 @@
         <v>20</v>
       </c>
       <c r="M18" s="10" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="N18" s="10" t="s">
         <v>31</v>
@@ -27002,7 +27020,7 @@
         <v>20</v>
       </c>
       <c r="M19" s="10" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="N19" s="10" t="s">
         <v>31</v>
@@ -27019,7 +27037,7 @@
         <v>189</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>191</v>
@@ -27249,7 +27267,7 @@
         <v>20</v>
       </c>
       <c r="M24" s="10" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="N24" s="10" t="s">
         <v>31</v>
@@ -27299,7 +27317,7 @@
         <v>20</v>
       </c>
       <c r="M25" s="10" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="N25" s="10" t="s">
         <v>31</v>
@@ -27349,7 +27367,7 @@
         <v>20</v>
       </c>
       <c r="M26" s="10" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="N26" s="10" t="s">
         <v>31</v>
@@ -27449,7 +27467,7 @@
         <v>20</v>
       </c>
       <c r="M28" s="10" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="N28" s="10" t="s">
         <v>31</v>
@@ -27499,7 +27517,7 @@
         <v>20</v>
       </c>
       <c r="M29" s="10" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="N29" s="10" t="s">
         <v>31</v>
@@ -27549,7 +27567,7 @@
         <v>20</v>
       </c>
       <c r="M30" s="10" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="N30" s="10" t="s">
         <v>31</v>
@@ -27599,7 +27617,7 @@
         <v>20</v>
       </c>
       <c r="M31" s="10" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="N31" s="10" t="s">
         <v>31</v>
@@ -27649,7 +27667,7 @@
         <v>20</v>
       </c>
       <c r="M32" s="10" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="N32" s="10" t="s">
         <v>31</v>
@@ -27749,7 +27767,7 @@
         <v>20</v>
       </c>
       <c r="M34" s="10" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="N34" s="10" t="s">
         <v>31</v>
@@ -27783,43 +27801,43 @@
       <c r="G35" s="10" t="s">
         <v>336</v>
       </c>
-      <c r="H35" s="10">
-        <v>3</v>
+      <c r="H35" s="10" t="s">
+        <v>936</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="J35" s="10" t="s">
-        <v>754</v>
+        <v>937</v>
       </c>
       <c r="K35" s="10" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="L35" s="10" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="M35" s="10" t="s">
-        <v>910</v>
+        <v>938</v>
       </c>
       <c r="N35" s="10" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="O35" s="10" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="P35" s="10" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D36" s="10">
         <v>3.1</v>
@@ -27849,27 +27867,27 @@
         <v>20</v>
       </c>
       <c r="M36" s="10" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="N36" s="10" t="s">
         <v>31</v>
       </c>
       <c r="O36" s="10" t="s">
+        <v>347</v>
+      </c>
+      <c r="P36" s="10" t="s">
         <v>350</v>
-      </c>
-      <c r="P36" s="10" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D37" s="10">
         <v>1.9</v>
@@ -27899,27 +27917,27 @@
         <v>20</v>
       </c>
       <c r="M37" s="10" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="N37" s="10" t="s">
         <v>31</v>
       </c>
       <c r="O37" s="10" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="P37" s="10" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D38" s="10">
         <v>2.6</v>
@@ -27949,27 +27967,27 @@
         <v>20</v>
       </c>
       <c r="M38" s="10" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="N38" s="10" t="s">
         <v>31</v>
       </c>
       <c r="O38" s="10" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="P38" s="10" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D39" s="10">
         <v>2.8</v>
@@ -27978,10 +27996,10 @@
         <v>17</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="H39" s="10">
         <v>3</v>
@@ -27999,27 +28017,27 @@
         <v>20</v>
       </c>
       <c r="M39" s="10" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="N39" s="10" t="s">
         <v>31</v>
       </c>
       <c r="O39" s="10" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="P39" s="10" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D40" s="10">
         <v>2.7</v>
@@ -28049,27 +28067,27 @@
         <v>20</v>
       </c>
       <c r="M40" s="10" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="N40" s="10" t="s">
         <v>31</v>
       </c>
       <c r="O40" s="10" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="P40" s="10" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D41" s="10">
         <v>1.9</v>
@@ -28099,27 +28117,27 @@
         <v>20</v>
       </c>
       <c r="M41" s="10" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="N41" s="10" t="s">
         <v>31</v>
       </c>
       <c r="O41" s="10" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="P41" s="10" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D42" s="10">
         <v>3.1</v>
@@ -28149,33 +28167,33 @@
         <v>20</v>
       </c>
       <c r="M42" s="10" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="N42" s="10" t="s">
         <v>31</v>
       </c>
       <c r="O42" s="10" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="P42" s="10" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D43" s="10">
         <v>2.4</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F43" s="10" t="s">
         <v>240</v>
@@ -28199,27 +28217,27 @@
         <v>20</v>
       </c>
       <c r="M43" s="10" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="N43" s="10" t="s">
         <v>31</v>
       </c>
       <c r="O43" s="10" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="P43" s="10" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D44" s="10">
         <v>1.7</v>
@@ -28249,27 +28267,27 @@
         <v>20</v>
       </c>
       <c r="M44" s="10" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="N44" s="10" t="s">
         <v>31</v>
       </c>
       <c r="O44" s="10" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="P44" s="10" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D45" s="10">
         <v>2.7</v>
@@ -28278,7 +28296,7 @@
         <v>17</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="H45" s="10" t="s">
         <v>19</v>
@@ -28302,21 +28320,21 @@
         <v>19</v>
       </c>
       <c r="O45" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="P45" s="10" t="s">
         <v>407</v>
-      </c>
-      <c r="P45" s="10" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D46" s="10">
         <v>2.6</v>
@@ -28346,27 +28364,27 @@
         <v>20</v>
       </c>
       <c r="M46" s="10" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="N46" s="10" t="s">
         <v>31</v>
       </c>
       <c r="O46" s="10" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="P46" s="10" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="D47" s="10">
         <v>3.26</v>
@@ -28375,7 +28393,7 @@
         <v>17</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G47" s="10" t="s">
         <v>18</v>
@@ -28396,27 +28414,27 @@
         <v>20</v>
       </c>
       <c r="M47" s="10" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="N47" s="10" t="s">
         <v>31</v>
       </c>
       <c r="O47" s="10" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="P47" s="10" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="D48" s="10">
         <v>2</v>
@@ -28425,7 +28443,7 @@
         <v>17</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="H48" s="10">
         <v>4</v>
@@ -28443,27 +28461,27 @@
         <v>20</v>
       </c>
       <c r="M48" s="10" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="N48" s="10" t="s">
         <v>31</v>
       </c>
       <c r="O48" s="10" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="P48" s="10" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D49" s="10">
         <v>1.65</v>
@@ -28490,27 +28508,27 @@
         <v>20</v>
       </c>
       <c r="M49" s="10" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="N49" s="10" t="s">
         <v>31</v>
       </c>
       <c r="O49" s="10" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="P49" s="10" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="D50" s="10">
         <v>2.7</v>
@@ -28540,27 +28558,27 @@
         <v>20</v>
       </c>
       <c r="M50" s="10" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="N50" s="10" t="s">
         <v>31</v>
       </c>
       <c r="O50" s="10" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="P50" s="10" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D51" s="10">
         <v>3.5</v>
@@ -28569,10 +28587,10 @@
         <v>17</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="G51" s="10" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="H51" s="10">
         <v>2</v>
@@ -28590,27 +28608,27 @@
         <v>20</v>
       </c>
       <c r="M51" s="10" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="N51" s="10" t="s">
         <v>31</v>
       </c>
       <c r="O51" s="10" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="P51" s="10" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D52" s="10">
         <v>2.4</v>
@@ -28637,27 +28655,27 @@
         <v>20</v>
       </c>
       <c r="M52" s="10" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="N52" s="10" t="s">
         <v>31</v>
       </c>
       <c r="O52" s="10" t="s">
+        <v>455</v>
+      </c>
+      <c r="P52" s="10" t="s">
         <v>458</v>
-      </c>
-      <c r="P52" s="10" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D53" s="10">
         <v>3.3</v>
@@ -28687,27 +28705,27 @@
         <v>20</v>
       </c>
       <c r="M53" s="10" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="N53" s="10" t="s">
         <v>31</v>
       </c>
       <c r="O53" s="10" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="P53" s="10" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D54" s="10">
         <v>2.7</v>
@@ -28734,27 +28752,27 @@
         <v>20</v>
       </c>
       <c r="M54" s="10" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="N54" s="10" t="s">
         <v>31</v>
       </c>
       <c r="O54" s="10" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="P54" s="10" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D55" s="10">
         <v>2.2999999999999998</v>
@@ -28784,27 +28802,27 @@
         <v>20</v>
       </c>
       <c r="M55" s="10" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="N55" s="10" t="s">
         <v>31</v>
       </c>
       <c r="O55" s="10" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="P55" s="10" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D56" s="10">
         <v>3.9409999999999998</v>
@@ -28831,27 +28849,27 @@
         <v>20</v>
       </c>
       <c r="M56" s="10" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="N56" s="10" t="s">
         <v>31</v>
       </c>
       <c r="O56" s="10" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="P56" s="10" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="D57" s="10">
         <v>3.5</v>
@@ -28860,7 +28878,7 @@
         <v>17</v>
       </c>
       <c r="F57" s="10" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G57" s="10" t="s">
         <v>18</v>
@@ -28881,27 +28899,27 @@
         <v>20</v>
       </c>
       <c r="M57" s="10" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="N57" s="10" t="s">
         <v>31</v>
       </c>
       <c r="O57" s="10" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="P57" s="10" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="D58" s="10">
         <v>2.99</v>
@@ -28910,7 +28928,7 @@
         <v>17</v>
       </c>
       <c r="F58" s="10" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="G58" s="10" t="s">
         <v>18</v>
@@ -28931,36 +28949,36 @@
         <v>20</v>
       </c>
       <c r="M58" s="10" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="N58" s="10" t="s">
         <v>31</v>
       </c>
       <c r="O58" s="10" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="P58" s="10" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="D59" s="10">
         <v>1.9</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="G59" s="10" t="s">
         <v>18</v>
@@ -28981,27 +28999,27 @@
         <v>20</v>
       </c>
       <c r="M59" s="10" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="N59" s="10" t="s">
         <v>31</v>
       </c>
       <c r="O59" s="10" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="P59" s="10" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="D60" s="10">
         <v>2.5</v>
@@ -29010,7 +29028,7 @@
         <v>17</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H60" s="10">
         <v>9</v>
@@ -29028,27 +29046,27 @@
         <v>20</v>
       </c>
       <c r="M60" s="10" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="N60" s="10" t="s">
         <v>31</v>
       </c>
       <c r="O60" s="10" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="P60" s="10" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="D61" s="10">
         <v>2.4</v>
@@ -29057,7 +29075,7 @@
         <v>17</v>
       </c>
       <c r="F61" s="10" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="H61" s="10">
         <v>8</v>
@@ -29075,27 +29093,27 @@
         <v>20</v>
       </c>
       <c r="M61" s="10" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="N61" s="10" t="s">
         <v>31</v>
       </c>
       <c r="O61" s="10" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="P61" s="10" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="D62" s="10">
         <v>3.01</v>
@@ -29104,7 +29122,7 @@
         <v>17</v>
       </c>
       <c r="F62" s="10" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="G62" s="10">
         <v>1</v>
@@ -29125,27 +29143,27 @@
         <v>20</v>
       </c>
       <c r="M62" s="10" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="N62" s="10" t="s">
         <v>31</v>
       </c>
       <c r="O62" s="10" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="P62" s="10" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="D63" s="10">
         <v>2.4</v>
@@ -29154,7 +29172,7 @@
         <v>17</v>
       </c>
       <c r="F63" s="10" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="G63" s="10" t="s">
         <v>18</v>
@@ -29175,27 +29193,27 @@
         <v>20</v>
       </c>
       <c r="M63" s="10" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="N63" s="10" t="s">
         <v>31</v>
       </c>
       <c r="O63" s="10" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="P63" s="10" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="D64" s="10">
         <v>2.5</v>
@@ -29204,7 +29222,7 @@
         <v>17</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="H64" s="10">
         <v>13</v>
@@ -29222,27 +29240,27 @@
         <v>20</v>
       </c>
       <c r="M64" s="10" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="N64" s="10" t="s">
         <v>31</v>
       </c>
       <c r="O64" s="10" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="P64" s="10" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65" s="10" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="D65" s="10">
         <v>2.13</v>
@@ -29251,7 +29269,7 @@
         <v>17</v>
       </c>
       <c r="F65" s="10" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="H65" s="10">
         <v>15</v>
@@ -29269,27 +29287,27 @@
         <v>20</v>
       </c>
       <c r="M65" s="10" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="N65" s="10" t="s">
         <v>31</v>
       </c>
       <c r="O65" s="10" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="P65" s="10" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="D66" s="10">
         <v>2.1</v>
@@ -29298,7 +29316,7 @@
         <v>17</v>
       </c>
       <c r="F66" s="10" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="G66" s="10" t="s">
         <v>18</v>
@@ -29319,27 +29337,27 @@
         <v>20</v>
       </c>
       <c r="M66" s="10" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="N66" s="10" t="s">
         <v>31</v>
       </c>
       <c r="O66" s="10" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="P66" s="10" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="D67" s="10">
         <v>3.29</v>
@@ -29348,7 +29366,7 @@
         <v>17</v>
       </c>
       <c r="F67" s="10" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="G67" s="10" t="s">
         <v>18</v>
@@ -29369,27 +29387,27 @@
         <v>20</v>
       </c>
       <c r="M67" s="10" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="N67" s="10" t="s">
         <v>31</v>
       </c>
       <c r="O67" s="10" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="P67" s="10" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D68" s="10">
         <v>2.25</v>
@@ -29398,7 +29416,7 @@
         <v>17</v>
       </c>
       <c r="F68" s="10" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="G68" s="10" t="s">
         <v>18</v>
@@ -29419,27 +29437,27 @@
         <v>20</v>
       </c>
       <c r="M68" s="10" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="N68" s="10" t="s">
         <v>31</v>
       </c>
       <c r="O68" s="10" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="P68" s="10" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69" s="10" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="D69" s="10">
         <v>2.8</v>
@@ -29448,10 +29466,10 @@
         <v>17</v>
       </c>
       <c r="F69" s="10" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="G69" s="10" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="H69" s="10" t="s">
         <v>312</v>
@@ -29460,7 +29478,7 @@
         <v>79</v>
       </c>
       <c r="J69" s="10" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="K69" s="10" t="s">
         <v>70</v>
@@ -29469,27 +29487,27 @@
         <v>71</v>
       </c>
       <c r="M69" s="10" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="N69" s="10" t="s">
         <v>73</v>
       </c>
       <c r="O69" s="10" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="P69" s="10" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="D70" s="10">
         <v>1.78</v>
@@ -29498,7 +29516,7 @@
         <v>17</v>
       </c>
       <c r="F70" s="10" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="G70" s="10" t="s">
         <v>37</v>
@@ -29519,27 +29537,27 @@
         <v>20</v>
       </c>
       <c r="M70" s="10" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="N70" s="10" t="s">
         <v>31</v>
       </c>
       <c r="O70" s="10" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="P70" s="10" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="D71" s="10">
         <v>1.6</v>
@@ -29548,7 +29566,7 @@
         <v>17</v>
       </c>
       <c r="F71" s="10" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="G71" s="10" t="s">
         <v>37</v>
@@ -29569,27 +29587,27 @@
         <v>20</v>
       </c>
       <c r="M71" s="10" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="N71" s="10" t="s">
         <v>31</v>
       </c>
       <c r="O71" s="10" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="P71" s="10" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="D72" s="10">
         <v>2.8</v>
@@ -29619,33 +29637,33 @@
         <v>20</v>
       </c>
       <c r="M72" s="10" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="N72" s="10" t="s">
         <v>31</v>
       </c>
       <c r="O72" s="10" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="P72" s="10" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73" s="10" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="D73" s="10">
         <v>2.1</v>
       </c>
       <c r="E73" s="10" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F73" s="10" t="s">
         <v>240</v>
@@ -29669,33 +29687,33 @@
         <v>20</v>
       </c>
       <c r="M73" s="10" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="N73" s="10" t="s">
         <v>31</v>
       </c>
       <c r="O73" s="10" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="P73" s="10" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="D74" s="10">
         <v>2.2999999999999998</v>
       </c>
       <c r="E74" s="10" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F74" s="10" t="s">
         <v>240</v>
@@ -29719,36 +29737,36 @@
         <v>20</v>
       </c>
       <c r="M74" s="10" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="N74" s="10" t="s">
         <v>31</v>
       </c>
       <c r="O74" s="10" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="P74" s="10" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="D75" s="10">
         <v>2.9</v>
       </c>
       <c r="E75" s="10" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F75" s="10" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="G75" s="10" t="s">
         <v>18</v>
@@ -29769,36 +29787,36 @@
         <v>20</v>
       </c>
       <c r="M75" s="10" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="N75" s="10" t="s">
         <v>31</v>
       </c>
       <c r="O75" s="10" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="P75" s="10" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="D76" s="10">
         <v>2.5</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F76" s="10" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="G76" s="10" t="s">
         <v>18</v>
@@ -29819,33 +29837,33 @@
         <v>20</v>
       </c>
       <c r="M76" s="10" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="N76" s="10" t="s">
         <v>31</v>
       </c>
       <c r="O76" s="10" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="P76" s="10" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77" s="10" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="D77" s="10">
         <v>1.94</v>
       </c>
       <c r="E77" s="10" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F77" s="10" t="s">
         <v>240</v>
@@ -29869,33 +29887,33 @@
         <v>20</v>
       </c>
       <c r="M77" s="10" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="N77" s="10" t="s">
         <v>31</v>
       </c>
       <c r="O77" s="10" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="P77" s="10" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="D78" s="10">
         <v>1.96</v>
       </c>
       <c r="E78" s="10" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F78" s="10" t="s">
         <v>240</v>
@@ -29919,36 +29937,36 @@
         <v>20</v>
       </c>
       <c r="M78" s="10" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="N78" s="10" t="s">
         <v>31</v>
       </c>
       <c r="O78" s="10" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="P78" s="10" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79" s="10" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="D79" s="10">
         <v>3.1</v>
       </c>
       <c r="E79" s="10" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F79" s="10" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="G79" s="10" t="s">
         <v>18</v>
@@ -29969,36 +29987,36 @@
         <v>20</v>
       </c>
       <c r="M79" s="10" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="N79" s="10" t="s">
         <v>31</v>
       </c>
       <c r="O79" s="10" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="P79" s="10" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A80" s="10" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="D80" s="10">
         <v>2.9</v>
       </c>
       <c r="E80" s="10" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F80" s="10" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="G80" s="10" t="s">
         <v>18</v>
@@ -30019,16 +30037,16 @@
         <v>20</v>
       </c>
       <c r="M80" s="10" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="N80" s="10" t="s">
         <v>31</v>
       </c>
       <c r="O80" s="10" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="P80" s="10" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
     </row>
   </sheetData>
